--- a/data/masterlistdatacopy.xlsx
+++ b/data/masterlistdatacopy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehrakaya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehrakaya/Documents/GitHub/study-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99380FF-BCAB-094F-A892-DFEEDAAB2FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2DB7D2-BCF3-A147-BF26-F10CE2CCE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="1060" windowWidth="24020" windowHeight="16940" xr2:uid="{DEF68C45-6EF4-C54D-A0C4-D2FF29DE90DF}"/>
+    <workbookView xWindow="3560" yWindow="1060" windowWidth="24000" windowHeight="16940" xr2:uid="{DEF68C45-6EF4-C54D-A0C4-D2FF29DE90DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1025,9 +1025,6 @@
     <t>153 HW-4.1</t>
   </si>
   <si>
-    <t>Trying to use masterlist statistics</t>
-  </si>
-  <si>
     <t>CS885</t>
   </si>
   <si>
@@ -1287,6 +1284,9 @@
   </si>
   <si>
     <t xml:space="preserve">lesson student </t>
+  </si>
+  <si>
+    <t>Programming</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C6BFD7-D7FA-AE4E-90F7-62CC941DE68E}">
   <dimension ref="A1:G6425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2664" workbookViewId="0">
-      <selection activeCell="B935" sqref="B935"/>
+    <sheetView tabSelected="1" topLeftCell="A880" workbookViewId="0">
+      <selection activeCell="B899" sqref="B899"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="899" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="900" spans="2:7" x14ac:dyDescent="0.2">
@@ -10247,7 +10247,7 @@
     </row>
     <row r="935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="936" spans="2:7" x14ac:dyDescent="0.2">
@@ -11007,7 +11007,7 @@
     </row>
     <row r="1019" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1019" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1020" spans="2:7" x14ac:dyDescent="0.2">
@@ -11090,7 +11090,7 @@
     </row>
     <row r="1031" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1031" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1032" spans="2:7" x14ac:dyDescent="0.2">
@@ -11224,7 +11224,7 @@
     </row>
     <row r="1047" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1047" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048" spans="2:7" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
     </row>
     <row r="1060" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1060" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1061" spans="2:7" x14ac:dyDescent="0.2">
@@ -11879,7 +11879,7 @@
     </row>
     <row r="1115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1115" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1116" spans="2:7" x14ac:dyDescent="0.2">
@@ -12098,7 +12098,7 @@
     </row>
     <row r="1135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="1136" spans="2:7" x14ac:dyDescent="0.2">
@@ -12556,7 +12556,7 @@
     </row>
     <row r="1186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1186" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1187" spans="2:7" x14ac:dyDescent="0.2">
@@ -13077,7 +13077,7 @@
     </row>
     <row r="1239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1239" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1240" spans="2:7" x14ac:dyDescent="0.2">
@@ -13104,7 +13104,7 @@
     </row>
     <row r="1245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1245" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1246" spans="2:7" x14ac:dyDescent="0.2">
@@ -13934,7 +13934,7 @@
     </row>
     <row r="1323" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1323" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1324" spans="2:7" x14ac:dyDescent="0.2">
@@ -14114,7 +14114,7 @@
     </row>
     <row r="1339" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1339" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1340" spans="2:7" x14ac:dyDescent="0.2">
@@ -14811,7 +14811,7 @@
     </row>
     <row r="1421" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1421" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1422" spans="2:7" x14ac:dyDescent="0.2">
@@ -15111,7 +15111,7 @@
     </row>
     <row r="1461" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1461" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1462" spans="2:7" x14ac:dyDescent="0.2">
@@ -15133,7 +15133,7 @@
     </row>
     <row r="1465" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1465" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1466" spans="2:7" x14ac:dyDescent="0.2">
@@ -15155,7 +15155,7 @@
     </row>
     <row r="1469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1469" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1470" spans="2:7" x14ac:dyDescent="0.2">
@@ -15204,7 +15204,7 @@
     </row>
     <row r="1479" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1479" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1480" spans="2:7" x14ac:dyDescent="0.2">
@@ -15362,7 +15362,7 @@
     </row>
     <row r="1491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1491" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1492" spans="2:7" x14ac:dyDescent="0.2">
@@ -15389,7 +15389,7 @@
     </row>
     <row r="1497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1497" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1498" spans="2:7" x14ac:dyDescent="0.2">
@@ -15428,7 +15428,7 @@
     </row>
     <row r="1502" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1502" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="1503" spans="2:7" x14ac:dyDescent="0.2">
@@ -15569,7 +15569,7 @@
     </row>
     <row r="1513" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1513" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1514" spans="2:7" x14ac:dyDescent="0.2">
@@ -16115,7 +16115,7 @@
     </row>
     <row r="1578" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1578" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1579" spans="2:7" x14ac:dyDescent="0.2">
@@ -17187,7 +17187,7 @@
     </row>
     <row r="1700" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1700" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1701" spans="2:7" x14ac:dyDescent="0.2">
@@ -17360,7 +17360,7 @@
     </row>
     <row r="1720" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1720" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1721" spans="2:7" x14ac:dyDescent="0.2">
@@ -17572,7 +17572,7 @@
     </row>
     <row r="1745" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1745" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1746" spans="2:7" x14ac:dyDescent="0.2">
@@ -17755,7 +17755,7 @@
     </row>
     <row r="1770" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1770" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1771" spans="2:7" x14ac:dyDescent="0.2">
@@ -18233,7 +18233,7 @@
     </row>
     <row r="1833" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1833" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1834" spans="2:7" x14ac:dyDescent="0.2">
@@ -18406,7 +18406,7 @@
     </row>
     <row r="1853" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1853" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1854" spans="2:7" x14ac:dyDescent="0.2">
@@ -18918,7 +18918,7 @@
     </row>
     <row r="1918" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1918" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1919" spans="2:7" x14ac:dyDescent="0.2">
@@ -19234,7 +19234,7 @@
     </row>
     <row r="1941" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1941" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1942" spans="2:7" x14ac:dyDescent="0.2">
@@ -19414,7 +19414,7 @@
     </row>
     <row r="1957" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1957" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1958" spans="2:7" x14ac:dyDescent="0.2">
@@ -19441,7 +19441,7 @@
     </row>
     <row r="1963" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1963" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1964" spans="2:7" x14ac:dyDescent="0.2">
@@ -19551,7 +19551,7 @@
     </row>
     <row r="1982" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1982" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1983" spans="2:7" x14ac:dyDescent="0.2">
@@ -19573,7 +19573,7 @@
     </row>
     <row r="1986" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1986" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1987" spans="2:7" x14ac:dyDescent="0.2">
@@ -19923,7 +19923,7 @@
     </row>
     <row r="2011" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2011" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2012" spans="2:7" x14ac:dyDescent="0.2">
@@ -19962,7 +19962,7 @@
     </row>
     <row r="2016" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2016" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2017" spans="2:7" x14ac:dyDescent="0.2">
@@ -19984,7 +19984,7 @@
     </row>
     <row r="2020" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2020" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2021" spans="2:7" x14ac:dyDescent="0.2">
@@ -20130,7 +20130,7 @@
     </row>
     <row r="2033" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2033" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2034" spans="2:7" x14ac:dyDescent="0.2">
@@ -20203,7 +20203,7 @@
     </row>
     <row r="2040" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2040" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2041" spans="2:7" x14ac:dyDescent="0.2">
@@ -20225,7 +20225,7 @@
     </row>
     <row r="2044" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2044" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2045" spans="2:7" x14ac:dyDescent="0.2">
@@ -20252,7 +20252,7 @@
     </row>
     <row r="2050" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2050" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2051" spans="2:7" x14ac:dyDescent="0.2">
@@ -20415,7 +20415,7 @@
     </row>
     <row r="2064" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2064" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2065" spans="2:7" x14ac:dyDescent="0.2">
@@ -20471,7 +20471,7 @@
     </row>
     <row r="2070" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2070" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2071" spans="2:7" x14ac:dyDescent="0.2">
@@ -20493,7 +20493,7 @@
     </row>
     <row r="2074" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2074" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2075" spans="2:7" x14ac:dyDescent="0.2">
@@ -20515,7 +20515,7 @@
     </row>
     <row r="2078" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2078" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2079" spans="2:7" x14ac:dyDescent="0.2">
@@ -20610,7 +20610,7 @@
     </row>
     <row r="2088" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2088" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2089" spans="2:7" x14ac:dyDescent="0.2">
@@ -20632,7 +20632,7 @@
     </row>
     <row r="2092" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2092" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2093" spans="2:7" x14ac:dyDescent="0.2">
@@ -20693,7 +20693,7 @@
     </row>
     <row r="2100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2101" spans="2:7" x14ac:dyDescent="0.2">
@@ -20720,7 +20720,7 @@
     </row>
     <row r="2106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2107" spans="2:7" x14ac:dyDescent="0.2">
@@ -20759,7 +20759,7 @@
     </row>
     <row r="2111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2112" spans="2:7" x14ac:dyDescent="0.2">
@@ -20786,7 +20786,7 @@
     </row>
     <row r="2117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2118" spans="2:7" x14ac:dyDescent="0.2">
@@ -20859,7 +20859,7 @@
     </row>
     <row r="2124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2125" spans="2:7" x14ac:dyDescent="0.2">
@@ -21136,7 +21136,7 @@
     </row>
     <row r="2143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2144" spans="2:7" x14ac:dyDescent="0.2">
@@ -21163,7 +21163,7 @@
     </row>
     <row r="2149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2150" spans="2:7" x14ac:dyDescent="0.2">
@@ -21304,7 +21304,7 @@
     </row>
     <row r="2160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2161" spans="2:7" x14ac:dyDescent="0.2">
@@ -21326,7 +21326,7 @@
     </row>
     <row r="2164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2164" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2165" spans="2:7" x14ac:dyDescent="0.2">
@@ -21421,7 +21421,7 @@
     </row>
     <row r="2174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2175" spans="2:7" x14ac:dyDescent="0.2">
@@ -21443,7 +21443,7 @@
     </row>
     <row r="2178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2178" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2179" spans="2:7" x14ac:dyDescent="0.2">
@@ -21567,7 +21567,7 @@
     </row>
     <row r="2188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2188" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2189" spans="2:7" x14ac:dyDescent="0.2">
@@ -21730,7 +21730,7 @@
     </row>
     <row r="2202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2202" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2203" spans="2:7" x14ac:dyDescent="0.2">
@@ -21769,7 +21769,7 @@
     </row>
     <row r="2207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2207" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2208" spans="2:7" x14ac:dyDescent="0.2">
@@ -21808,7 +21808,7 @@
     </row>
     <row r="2212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2212" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2213" spans="2:7" x14ac:dyDescent="0.2">
@@ -22107,7 +22107,7 @@
     </row>
     <row r="2234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2234" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2235" spans="2:7" x14ac:dyDescent="0.2">
@@ -22338,7 +22338,7 @@
     </row>
     <row r="2252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2252" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2253" spans="2:7" x14ac:dyDescent="0.2">
@@ -22530,7 +22530,7 @@
     </row>
     <row r="2266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2266" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2267" spans="2:7" x14ac:dyDescent="0.2">
@@ -22637,7 +22637,7 @@
     </row>
     <row r="2275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2275" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2276" spans="2:7" x14ac:dyDescent="0.2">
@@ -22783,7 +22783,7 @@
     </row>
     <row r="2288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2288" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2289" spans="3:7" x14ac:dyDescent="0.2">
@@ -23133,7 +23133,7 @@
     </row>
     <row r="2313" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2313" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2314" spans="2:7" x14ac:dyDescent="0.2">
@@ -23342,7 +23342,7 @@
     </row>
     <row r="2328" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2328" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2329" spans="2:7" x14ac:dyDescent="0.2">
@@ -23364,7 +23364,7 @@
     </row>
     <row r="2332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2332" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2333" spans="2:7" x14ac:dyDescent="0.2">
@@ -23420,7 +23420,7 @@
     </row>
     <row r="2338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2338" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2339" spans="2:7" x14ac:dyDescent="0.2">
@@ -23447,7 +23447,7 @@
     </row>
     <row r="2344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2344" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2345" spans="2:7" x14ac:dyDescent="0.2">
@@ -23486,7 +23486,7 @@
     </row>
     <row r="2349" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2350" spans="2:7" x14ac:dyDescent="0.2">
@@ -23508,7 +23508,7 @@
     </row>
     <row r="2353" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2353" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2354" spans="2:7" x14ac:dyDescent="0.2">
@@ -23535,7 +23535,7 @@
     </row>
     <row r="2359" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2359" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2360" spans="2:7" x14ac:dyDescent="0.2">
@@ -23557,7 +23557,7 @@
     </row>
     <row r="2363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2363" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2364" spans="2:7" x14ac:dyDescent="0.2">
@@ -23766,7 +23766,7 @@
     </row>
     <row r="2378" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2378" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2379" spans="2:7" x14ac:dyDescent="0.2">
@@ -23793,7 +23793,7 @@
     </row>
     <row r="2384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2384" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2385" spans="2:7" x14ac:dyDescent="0.2">
@@ -23900,7 +23900,7 @@
     </row>
     <row r="2393" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2393" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2394" spans="2:7" x14ac:dyDescent="0.2">
@@ -23973,7 +23973,7 @@
     </row>
     <row r="2400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2400" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2401" spans="2:7" x14ac:dyDescent="0.2">
@@ -24000,7 +24000,7 @@
     </row>
     <row r="2406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2406" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2407" spans="2:7" x14ac:dyDescent="0.2">
@@ -24073,7 +24073,7 @@
     </row>
     <row r="2413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2413" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2414" spans="2:7" x14ac:dyDescent="0.2">
@@ -24180,7 +24180,7 @@
     </row>
     <row r="2422" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2422" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2423" spans="2:7" x14ac:dyDescent="0.2">
@@ -24270,7 +24270,7 @@
     </row>
     <row r="2430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2430" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2431" spans="2:7" x14ac:dyDescent="0.2">
@@ -24343,7 +24343,7 @@
     </row>
     <row r="2437" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2437" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2438" spans="2:7" x14ac:dyDescent="0.2">
@@ -24370,7 +24370,7 @@
     </row>
     <row r="2443" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2443" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2444" spans="2:7" x14ac:dyDescent="0.2">
@@ -24596,7 +24596,7 @@
     </row>
     <row r="2459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2459" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2460" spans="2:7" x14ac:dyDescent="0.2">
@@ -24618,7 +24618,7 @@
     </row>
     <row r="2463" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2463" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2464" spans="2:7" x14ac:dyDescent="0.2">
@@ -24679,7 +24679,7 @@
     </row>
     <row r="2471" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2471" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2472" spans="2:7" x14ac:dyDescent="0.2">
@@ -24786,7 +24786,7 @@
     </row>
     <row r="2480" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2480" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2481" spans="2:7" x14ac:dyDescent="0.2">
@@ -24813,7 +24813,7 @@
     </row>
     <row r="2486" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2486" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2487" spans="2:7" x14ac:dyDescent="0.2">
@@ -24886,7 +24886,7 @@
     </row>
     <row r="2493" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2493" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2494" spans="2:7" x14ac:dyDescent="0.2">
@@ -24908,7 +24908,7 @@
     </row>
     <row r="2497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2497" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2498" spans="2:7" x14ac:dyDescent="0.2">
@@ -24930,7 +24930,7 @@
     </row>
     <row r="2501" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2501" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2502" spans="2:7" x14ac:dyDescent="0.2">
@@ -24969,7 +24969,7 @@
     </row>
     <row r="2506" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2506" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2507" spans="2:7" x14ac:dyDescent="0.2">
@@ -24991,7 +24991,7 @@
     </row>
     <row r="2510" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2510" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2511" spans="2:7" x14ac:dyDescent="0.2">
@@ -25030,7 +25030,7 @@
     </row>
     <row r="2515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2516" spans="2:7" x14ac:dyDescent="0.2">
@@ -25103,7 +25103,7 @@
     </row>
     <row r="2522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2522" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2523" spans="2:7" x14ac:dyDescent="0.2">
@@ -25125,7 +25125,7 @@
     </row>
     <row r="2526" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2526" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2527" spans="2:7" x14ac:dyDescent="0.2">
@@ -25152,7 +25152,7 @@
     </row>
     <row r="2532" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2532" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2533" spans="2:7" x14ac:dyDescent="0.2">
@@ -25468,7 +25468,7 @@
     </row>
     <row r="2555" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2555" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2556" spans="2:7" x14ac:dyDescent="0.2">
@@ -25524,7 +25524,7 @@
     </row>
     <row r="2561" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2561" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2562" spans="2:7" x14ac:dyDescent="0.2">
@@ -25580,7 +25580,7 @@
     </row>
     <row r="2567" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2567" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2568" spans="2:7" x14ac:dyDescent="0.2">
@@ -25675,7 +25675,7 @@
     </row>
     <row r="2577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2577" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2578" spans="2:7" x14ac:dyDescent="0.2">
@@ -25884,7 +25884,7 @@
     </row>
     <row r="2592" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2592" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2593" spans="2:7" x14ac:dyDescent="0.2">
@@ -25911,7 +25911,7 @@
     </row>
     <row r="2598" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2598" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2599" spans="2:7" x14ac:dyDescent="0.2">
@@ -26159,7 +26159,7 @@
     </row>
     <row r="2617" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2617" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2618" spans="2:7" x14ac:dyDescent="0.2">
@@ -26441,7 +26441,7 @@
     </row>
     <row r="2638" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2639" spans="2:7" x14ac:dyDescent="0.2">
@@ -26463,7 +26463,7 @@
     </row>
     <row r="2642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2642" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2643" spans="2:7" x14ac:dyDescent="0.2">
@@ -26485,7 +26485,7 @@
     </row>
     <row r="2646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2646" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2647" spans="2:7" x14ac:dyDescent="0.2">
@@ -26507,7 +26507,7 @@
     </row>
     <row r="2650" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2650" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2651" spans="2:7" x14ac:dyDescent="0.2">
@@ -26721,7 +26721,7 @@
     </row>
     <row r="2667" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2667" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2668" spans="2:7" x14ac:dyDescent="0.2">
@@ -26794,7 +26794,7 @@
     </row>
     <row r="2674" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2674" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2675" spans="2:7" x14ac:dyDescent="0.2">
@@ -26833,7 +26833,7 @@
     </row>
     <row r="2679" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2679" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2680" spans="2:7" x14ac:dyDescent="0.2">
@@ -26894,7 +26894,7 @@
     </row>
     <row r="2687" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2687" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2688" spans="2:7" x14ac:dyDescent="0.2">
@@ -26916,7 +26916,7 @@
     </row>
     <row r="2691" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2691" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2692" spans="2:7" x14ac:dyDescent="0.2">
@@ -26955,7 +26955,7 @@
     </row>
     <row r="2696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2696" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2697" spans="2:7" x14ac:dyDescent="0.2">
@@ -27045,7 +27045,7 @@
     </row>
     <row r="2704" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2704" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2705" spans="2:7" x14ac:dyDescent="0.2">
@@ -27067,7 +27067,7 @@
     </row>
     <row r="2708" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2708" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2709" spans="2:7" x14ac:dyDescent="0.2">
@@ -27089,7 +27089,7 @@
     </row>
     <row r="2712" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2712" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2713" spans="2:7" x14ac:dyDescent="0.2">
@@ -27286,7 +27286,7 @@
     </row>
     <row r="2728" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2728" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2729" spans="2:7" x14ac:dyDescent="0.2">
@@ -27376,7 +27376,7 @@
     </row>
     <row r="2736" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2736" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2737" spans="2:7" x14ac:dyDescent="0.2">
@@ -27398,7 +27398,7 @@
     </row>
     <row r="2740" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2740" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2741" spans="2:7" x14ac:dyDescent="0.2">
@@ -27578,7 +27578,7 @@
     </row>
     <row r="2755" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2755" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2756" spans="2:7" x14ac:dyDescent="0.2">
@@ -27690,7 +27690,7 @@
     </row>
     <row r="2766" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2766" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2767" spans="2:7" x14ac:dyDescent="0.2">
@@ -28091,7 +28091,7 @@
     </row>
     <row r="2794" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2794" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2795" spans="2:7" x14ac:dyDescent="0.2">
@@ -28390,7 +28390,7 @@
     </row>
     <row r="2816" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2816" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2817" spans="3:7" x14ac:dyDescent="0.2">
@@ -28774,7 +28774,7 @@
     </row>
     <row r="2843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2843" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2844" spans="2:7" x14ac:dyDescent="0.2">
@@ -28847,7 +28847,7 @@
     </row>
     <row r="2850" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2850" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2851" spans="2:7" x14ac:dyDescent="0.2">
@@ -28886,7 +28886,7 @@
     </row>
     <row r="2855" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2855" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2856" spans="2:7" x14ac:dyDescent="0.2">
@@ -29032,7 +29032,7 @@
     </row>
     <row r="2868" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2868" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2869" spans="2:7" x14ac:dyDescent="0.2">
@@ -29246,7 +29246,7 @@
     </row>
     <row r="2885" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2885" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2886" spans="2:7" x14ac:dyDescent="0.2">
@@ -29545,7 +29545,7 @@
     </row>
     <row r="2907" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2907" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2908" spans="2:7" x14ac:dyDescent="0.2">
@@ -29567,7 +29567,7 @@
     </row>
     <row r="2911" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2911" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2912" spans="2:7" x14ac:dyDescent="0.2">
@@ -29589,7 +29589,7 @@
     </row>
     <row r="2915" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2915" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2916" spans="2:7" x14ac:dyDescent="0.2">
@@ -29611,7 +29611,7 @@
     </row>
     <row r="2919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2919" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2920" spans="2:7" x14ac:dyDescent="0.2">
@@ -29650,7 +29650,7 @@
     </row>
     <row r="2924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2924" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2925" spans="2:7" x14ac:dyDescent="0.2">
@@ -29689,7 +29689,7 @@
     </row>
     <row r="2929" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2929" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2930" spans="2:7" x14ac:dyDescent="0.2">
@@ -29767,7 +29767,7 @@
     </row>
     <row r="2938" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2938" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2939" spans="2:7" x14ac:dyDescent="0.2">
@@ -29857,7 +29857,7 @@
     </row>
     <row r="2946" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2946" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2947" spans="2:7" x14ac:dyDescent="0.2">
@@ -29935,7 +29935,7 @@
     </row>
     <row r="2955" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2955" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2956" spans="2:7" x14ac:dyDescent="0.2">
@@ -29957,7 +29957,7 @@
     </row>
     <row r="2959" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2959" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2960" spans="2:7" x14ac:dyDescent="0.2">
@@ -30013,7 +30013,7 @@
     </row>
     <row r="2965" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2965" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2966" spans="2:7" x14ac:dyDescent="0.2">
@@ -30125,7 +30125,7 @@
     </row>
     <row r="2976" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2976" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2977" spans="2:7" x14ac:dyDescent="0.2">
@@ -30220,7 +30220,7 @@
     </row>
     <row r="2986" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2986" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2987" spans="2:7" x14ac:dyDescent="0.2">
@@ -30293,7 +30293,7 @@
     </row>
     <row r="2993" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2993" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2994" spans="2:7" x14ac:dyDescent="0.2">
@@ -30354,7 +30354,7 @@
     </row>
     <row r="3001" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3001" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3002" spans="2:7" x14ac:dyDescent="0.2">
@@ -30478,7 +30478,7 @@
     </row>
     <row r="3011" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3011" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3012" spans="2:7" x14ac:dyDescent="0.2">
@@ -30551,7 +30551,7 @@
     </row>
     <row r="3018" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3018" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3019" spans="2:7" x14ac:dyDescent="0.2">
@@ -30590,7 +30590,7 @@
     </row>
     <row r="3023" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3023" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3024" spans="2:7" x14ac:dyDescent="0.2">
@@ -30629,7 +30629,7 @@
     </row>
     <row r="3028" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3028" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3029" spans="2:7" x14ac:dyDescent="0.2">
@@ -30651,7 +30651,7 @@
     </row>
     <row r="3032" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3032" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3033" spans="2:7" x14ac:dyDescent="0.2">
@@ -30673,7 +30673,7 @@
     </row>
     <row r="3036" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3036" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3037" spans="2:7" x14ac:dyDescent="0.2">
@@ -30751,7 +30751,7 @@
     </row>
     <row r="3045" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3045" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3046" spans="2:7" x14ac:dyDescent="0.2">
@@ -30841,7 +30841,7 @@
     </row>
     <row r="3053" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3053" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3054" spans="2:7" x14ac:dyDescent="0.2">
@@ -30880,7 +30880,7 @@
     </row>
     <row r="3058" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3058" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3059" spans="2:7" x14ac:dyDescent="0.2">
@@ -30941,7 +30941,7 @@
     </row>
     <row r="3066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3066" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3067" spans="2:7" x14ac:dyDescent="0.2">
@@ -31235,7 +31235,7 @@
     </row>
     <row r="3086" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3086" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3087" spans="2:7" x14ac:dyDescent="0.2">
@@ -31262,7 +31262,7 @@
     </row>
     <row r="3092" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3092" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3093" spans="2:7" x14ac:dyDescent="0.2">
@@ -31386,7 +31386,7 @@
     </row>
     <row r="3102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3103" spans="2:7" x14ac:dyDescent="0.2">
@@ -31408,7 +31408,7 @@
     </row>
     <row r="3106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3107" spans="2:7" x14ac:dyDescent="0.2">
@@ -31673,7 +31673,7 @@
     </row>
     <row r="3126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3126" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3127" spans="2:7" x14ac:dyDescent="0.2">
@@ -31746,7 +31746,7 @@
     </row>
     <row r="3133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3134" spans="2:7" x14ac:dyDescent="0.2">
@@ -31773,7 +31773,7 @@
     </row>
     <row r="3139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3139" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3140" spans="2:7" x14ac:dyDescent="0.2">
@@ -31795,7 +31795,7 @@
     </row>
     <row r="3143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3143" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3144" spans="2:7" x14ac:dyDescent="0.2">
@@ -32094,7 +32094,7 @@
     </row>
     <row r="3165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3166" spans="2:7" x14ac:dyDescent="0.2">
@@ -32376,7 +32376,7 @@
     </row>
     <row r="3186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3186" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3187" spans="2:7" x14ac:dyDescent="0.2">
@@ -32500,7 +32500,7 @@
     </row>
     <row r="3196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3196" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3197" spans="2:7" x14ac:dyDescent="0.2">
@@ -32561,7 +32561,7 @@
     </row>
     <row r="3204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3204" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3205" spans="2:7" x14ac:dyDescent="0.2">
@@ -32668,7 +32668,7 @@
     </row>
     <row r="3213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3214" spans="2:7" x14ac:dyDescent="0.2">
@@ -32707,7 +32707,7 @@
     </row>
     <row r="3218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3218" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3219" spans="2:7" x14ac:dyDescent="0.2">
@@ -32729,7 +32729,7 @@
     </row>
     <row r="3222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3222" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3223" spans="2:7" x14ac:dyDescent="0.2">
@@ -32802,7 +32802,7 @@
     </row>
     <row r="3229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3229" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3230" spans="2:7" x14ac:dyDescent="0.2">
@@ -32858,7 +32858,7 @@
     </row>
     <row r="3235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3235" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3236" spans="2:7" x14ac:dyDescent="0.2">
@@ -32897,7 +32897,7 @@
     </row>
     <row r="3240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3240" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3241" spans="2:7" x14ac:dyDescent="0.2">
@@ -32924,7 +32924,7 @@
     </row>
     <row r="3246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3246" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3247" spans="2:7" x14ac:dyDescent="0.2">
@@ -33048,7 +33048,7 @@
     </row>
     <row r="3256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3256" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3257" spans="2:7" x14ac:dyDescent="0.2">
@@ -33070,7 +33070,7 @@
     </row>
     <row r="3260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3260" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3261" spans="2:7" x14ac:dyDescent="0.2">
@@ -33109,7 +33109,7 @@
     </row>
     <row r="3265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3265" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3266" spans="2:7" x14ac:dyDescent="0.2">
@@ -33165,7 +33165,7 @@
     </row>
     <row r="3271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3271" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3272" spans="2:7" x14ac:dyDescent="0.2">
@@ -33345,7 +33345,7 @@
     </row>
     <row r="3286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3286" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3287" spans="2:7" x14ac:dyDescent="0.2">
@@ -33389,7 +33389,7 @@
     </row>
     <row r="3293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3293" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3294" spans="2:7" x14ac:dyDescent="0.2">
@@ -33479,7 +33479,7 @@
     </row>
     <row r="3301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3301" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3302" spans="2:7" x14ac:dyDescent="0.2">
@@ -33569,7 +33569,7 @@
     </row>
     <row r="3309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3309" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3310" spans="2:7" x14ac:dyDescent="0.2">
@@ -33698,7 +33698,7 @@
     </row>
     <row r="3321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3321" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3322" spans="2:7" x14ac:dyDescent="0.2">
@@ -33737,7 +33737,7 @@
     </row>
     <row r="3326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3326" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3327" spans="2:7" x14ac:dyDescent="0.2">
@@ -33793,7 +33793,7 @@
     </row>
     <row r="3332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3332" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3333" spans="2:7" x14ac:dyDescent="0.2">
@@ -33939,7 +33939,7 @@
     </row>
     <row r="3345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3345" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3346" spans="2:7" x14ac:dyDescent="0.2">
@@ -34063,7 +34063,7 @@
     </row>
     <row r="3355" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3355" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3356" spans="2:7" x14ac:dyDescent="0.2">
@@ -34141,7 +34141,7 @@
     </row>
     <row r="3364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3364" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3365" spans="2:7" x14ac:dyDescent="0.2">
@@ -34265,7 +34265,7 @@
     </row>
     <row r="3374" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3374" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3375" spans="2:7" x14ac:dyDescent="0.2">
@@ -34338,7 +34338,7 @@
     </row>
     <row r="3381" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3381" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3382" spans="2:7" x14ac:dyDescent="0.2">
@@ -34365,7 +34365,7 @@
     </row>
     <row r="3387" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3387" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3388" spans="2:7" x14ac:dyDescent="0.2">
@@ -34591,7 +34591,7 @@
     </row>
     <row r="3403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3403" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3404" spans="2:7" x14ac:dyDescent="0.2">
@@ -34681,7 +34681,7 @@
     </row>
     <row r="3411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3411" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3412" spans="2:7" x14ac:dyDescent="0.2">
@@ -34708,7 +34708,7 @@
     </row>
     <row r="3417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3417" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3418" spans="2:7" x14ac:dyDescent="0.2">
@@ -34781,7 +34781,7 @@
     </row>
     <row r="3424" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3424" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3425" spans="2:7" x14ac:dyDescent="0.2">
@@ -34837,7 +34837,7 @@
     </row>
     <row r="3430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3430" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3431" spans="2:7" x14ac:dyDescent="0.2">
@@ -34893,7 +34893,7 @@
     </row>
     <row r="3436" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3436" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3437" spans="2:7" x14ac:dyDescent="0.2">
@@ -34983,7 +34983,7 @@
     </row>
     <row r="3444" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3444" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3445" spans="2:7" x14ac:dyDescent="0.2">
@@ -35163,7 +35163,7 @@
     </row>
     <row r="3459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3459" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3460" spans="2:7" x14ac:dyDescent="0.2">
@@ -35287,7 +35287,7 @@
     </row>
     <row r="3469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3469" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3470" spans="2:7" x14ac:dyDescent="0.2">
@@ -35309,7 +35309,7 @@
     </row>
     <row r="3473" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3473" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3474" spans="2:7" x14ac:dyDescent="0.2">
@@ -35370,7 +35370,7 @@
     </row>
     <row r="3481" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3481" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3482" spans="2:7" x14ac:dyDescent="0.2">
@@ -35460,7 +35460,7 @@
     </row>
     <row r="3489" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3489" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3490" spans="2:7" x14ac:dyDescent="0.2">
@@ -35584,7 +35584,7 @@
     </row>
     <row r="3499" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3499" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3500" spans="2:7" x14ac:dyDescent="0.2">
@@ -35742,7 +35742,7 @@
     </row>
     <row r="3511" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3511" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3512" spans="2:7" x14ac:dyDescent="0.2">
@@ -35769,7 +35769,7 @@
     </row>
     <row r="3517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3517" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3518" spans="2:7" x14ac:dyDescent="0.2">
@@ -35893,7 +35893,7 @@
     </row>
     <row r="3527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3527" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3528" spans="2:7" x14ac:dyDescent="0.2">
@@ -35932,7 +35932,7 @@
     </row>
     <row r="3532" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3532" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3533" spans="2:7" x14ac:dyDescent="0.2">
@@ -35959,7 +35959,7 @@
     </row>
     <row r="3538" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3538" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3539" spans="2:7" x14ac:dyDescent="0.2">
@@ -36015,7 +36015,7 @@
     </row>
     <row r="3544" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3544" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3545" spans="2:7" x14ac:dyDescent="0.2">
@@ -36110,7 +36110,7 @@
     </row>
     <row r="3554" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3554" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3555" spans="2:7" x14ac:dyDescent="0.2">
@@ -36285,7 +36285,7 @@
     </row>
     <row r="3567" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3567" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3568" spans="2:7" x14ac:dyDescent="0.2">
@@ -36329,7 +36329,7 @@
     </row>
     <row r="3574" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3574" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3575" spans="2:7" x14ac:dyDescent="0.2">
@@ -36385,7 +36385,7 @@
     </row>
     <row r="3580" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3580" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3581" spans="2:7" x14ac:dyDescent="0.2">
@@ -36458,7 +36458,7 @@
     </row>
     <row r="3587" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3587" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3588" spans="2:7" x14ac:dyDescent="0.2">
@@ -36599,7 +36599,7 @@
     </row>
     <row r="3598" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3598" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3599" spans="2:7" x14ac:dyDescent="0.2">
@@ -36638,7 +36638,7 @@
     </row>
     <row r="3603" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3603" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3604" spans="2:7" x14ac:dyDescent="0.2">
@@ -36716,7 +36716,7 @@
     </row>
     <row r="3612" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3612" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3613" spans="2:7" x14ac:dyDescent="0.2">
@@ -36743,7 +36743,7 @@
     </row>
     <row r="3618" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3618" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3619" spans="2:7" x14ac:dyDescent="0.2">
@@ -36765,7 +36765,7 @@
     </row>
     <row r="3622" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3622" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3623" spans="2:7" x14ac:dyDescent="0.2">
@@ -36821,7 +36821,7 @@
     </row>
     <row r="3628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3628" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3629" spans="2:7" x14ac:dyDescent="0.2">
@@ -36882,7 +36882,7 @@
     </row>
     <row r="3636" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3636" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3637" spans="2:7" x14ac:dyDescent="0.2">
@@ -36938,7 +36938,7 @@
     </row>
     <row r="3642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3642" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3643" spans="2:7" x14ac:dyDescent="0.2">
@@ -37055,7 +37055,7 @@
     </row>
     <row r="3656" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3656" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3657" spans="2:7" x14ac:dyDescent="0.2">
@@ -37094,7 +37094,7 @@
     </row>
     <row r="3661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3661" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3662" spans="2:7" x14ac:dyDescent="0.2">
@@ -37133,7 +37133,7 @@
     </row>
     <row r="3666" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3666" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3667" spans="2:7" x14ac:dyDescent="0.2">
@@ -37274,7 +37274,7 @@
     </row>
     <row r="3677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3677" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3678" spans="2:7" x14ac:dyDescent="0.2">
@@ -37296,7 +37296,7 @@
     </row>
     <row r="3681" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3681" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3682" spans="2:7" x14ac:dyDescent="0.2">
@@ -37374,7 +37374,7 @@
     </row>
     <row r="3690" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3691" spans="2:7" x14ac:dyDescent="0.2">
@@ -37430,7 +37430,7 @@
     </row>
     <row r="3696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3696" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3697" spans="2:7" x14ac:dyDescent="0.2">
@@ -37661,7 +37661,7 @@
     </row>
     <row r="3714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3714" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3715" spans="2:7" x14ac:dyDescent="0.2">
@@ -37683,7 +37683,7 @@
     </row>
     <row r="3718" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3718" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3719" spans="2:7" x14ac:dyDescent="0.2">
@@ -37705,7 +37705,7 @@
     </row>
     <row r="3722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3722" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3723" spans="2:7" x14ac:dyDescent="0.2">
@@ -37795,7 +37795,7 @@
     </row>
     <row r="3730" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3730" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3731" spans="2:7" x14ac:dyDescent="0.2">
@@ -37822,7 +37822,7 @@
     </row>
     <row r="3736" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3736" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3737" spans="2:7" x14ac:dyDescent="0.2">
@@ -37844,7 +37844,7 @@
     </row>
     <row r="3740" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3740" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3741" spans="2:7" x14ac:dyDescent="0.2">
@@ -37866,7 +37866,7 @@
     </row>
     <row r="3744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3744" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3745" spans="2:7" x14ac:dyDescent="0.2">
@@ -37905,7 +37905,7 @@
     </row>
     <row r="3749" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3749" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3750" spans="2:7" x14ac:dyDescent="0.2">
@@ -37978,7 +37978,7 @@
     </row>
     <row r="3756" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3756" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3757" spans="2:7" x14ac:dyDescent="0.2">
@@ -38017,7 +38017,7 @@
     </row>
     <row r="3761" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3761" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3762" spans="2:7" x14ac:dyDescent="0.2">
@@ -38039,7 +38039,7 @@
     </row>
     <row r="3765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3765" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3766" spans="2:7" x14ac:dyDescent="0.2">
@@ -38066,7 +38066,7 @@
     </row>
     <row r="3771" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3771" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3772" spans="2:7" x14ac:dyDescent="0.2">
@@ -38144,7 +38144,7 @@
     </row>
     <row r="3780" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3780" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3781" spans="2:7" x14ac:dyDescent="0.2">
@@ -38183,7 +38183,7 @@
     </row>
     <row r="3785" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3785" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3786" spans="2:7" x14ac:dyDescent="0.2">
@@ -38222,7 +38222,7 @@
     </row>
     <row r="3790" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3790" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3791" spans="2:7" x14ac:dyDescent="0.2">
@@ -38261,7 +38261,7 @@
     </row>
     <row r="3795" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3795" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3796" spans="2:7" x14ac:dyDescent="0.2">
@@ -38475,7 +38475,7 @@
     </row>
     <row r="3812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3812" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3813" spans="2:7" x14ac:dyDescent="0.2">
@@ -38565,7 +38565,7 @@
     </row>
     <row r="3820" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3820" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3821" spans="2:7" x14ac:dyDescent="0.2">
@@ -38660,7 +38660,7 @@
     </row>
     <row r="3830" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3830" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3831" spans="2:7" x14ac:dyDescent="0.2">
@@ -38767,7 +38767,7 @@
     </row>
     <row r="3839" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3839" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3840" spans="2:7" x14ac:dyDescent="0.2">
@@ -38789,7 +38789,7 @@
     </row>
     <row r="3843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3843" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3844" spans="2:7" x14ac:dyDescent="0.2">
@@ -38811,7 +38811,7 @@
     </row>
     <row r="3847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3847" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3848" spans="2:7" x14ac:dyDescent="0.2">
@@ -38833,7 +38833,7 @@
     </row>
     <row r="3851" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3851" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3852" spans="2:7" x14ac:dyDescent="0.2">
@@ -38855,7 +38855,7 @@
     </row>
     <row r="3855" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3855" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3856" spans="2:7" x14ac:dyDescent="0.2">
@@ -38894,7 +38894,7 @@
     </row>
     <row r="3860" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3860" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3861" spans="2:7" x14ac:dyDescent="0.2">
@@ -38916,7 +38916,7 @@
     </row>
     <row r="3864" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3864" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3865" spans="2:7" x14ac:dyDescent="0.2">
@@ -38982,7 +38982,7 @@
     </row>
     <row r="3875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3875" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3876" spans="2:7" x14ac:dyDescent="0.2">
@@ -39004,7 +39004,7 @@
     </row>
     <row r="3879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3879" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3880" spans="2:7" x14ac:dyDescent="0.2">
@@ -39048,7 +39048,7 @@
     </row>
     <row r="3886" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3886" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3887" spans="2:7" x14ac:dyDescent="0.2">
@@ -39070,7 +39070,7 @@
     </row>
     <row r="3890" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3890" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3891" spans="2:7" x14ac:dyDescent="0.2">
@@ -39109,7 +39109,7 @@
     </row>
     <row r="3895" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3895" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3896" spans="2:7" x14ac:dyDescent="0.2">
@@ -39323,7 +39323,7 @@
     </row>
     <row r="3912" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3912" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3913" spans="2:7" x14ac:dyDescent="0.2">
@@ -39401,7 +39401,7 @@
     </row>
     <row r="3922" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3922" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3923" spans="2:7" x14ac:dyDescent="0.2">
@@ -39491,7 +39491,7 @@
     </row>
     <row r="3930" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3930" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3931" spans="2:7" x14ac:dyDescent="0.2">
@@ -39530,7 +39530,7 @@
     </row>
     <row r="3935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3935" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3936" spans="2:7" x14ac:dyDescent="0.2">
@@ -39591,7 +39591,7 @@
     </row>
     <row r="3943" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3943" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3944" spans="2:7" x14ac:dyDescent="0.2">
@@ -39805,7 +39805,7 @@
     </row>
     <row r="3960" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3960" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3961" spans="2:7" x14ac:dyDescent="0.2">
@@ -39968,7 +39968,7 @@
     </row>
     <row r="3974" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3974" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3975" spans="2:7" x14ac:dyDescent="0.2">
@@ -40216,7 +40216,7 @@
     </row>
     <row r="3993" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3993" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3994" spans="2:7" x14ac:dyDescent="0.2">
@@ -40464,7 +40464,7 @@
     </row>
     <row r="4012" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4012" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4013" spans="2:7" x14ac:dyDescent="0.2">
@@ -40724,7 +40724,7 @@
     </row>
     <row r="4030" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4030" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4031" spans="2:7" x14ac:dyDescent="0.2">
@@ -40746,7 +40746,7 @@
     </row>
     <row r="4034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4034" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4035" spans="2:7" x14ac:dyDescent="0.2">
@@ -40943,7 +40943,7 @@
     </row>
     <row r="4050" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4050" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4051" spans="2:7" x14ac:dyDescent="0.2">
@@ -40999,7 +40999,7 @@
     </row>
     <row r="4056" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4056" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4057" spans="2:7" x14ac:dyDescent="0.2">
@@ -41077,7 +41077,7 @@
     </row>
     <row r="4066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4066" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4067" spans="2:7" x14ac:dyDescent="0.2">
@@ -41104,7 +41104,7 @@
     </row>
     <row r="4072" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4072" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4073" spans="2:7" x14ac:dyDescent="0.2">
@@ -41505,7 +41505,7 @@
     </row>
     <row r="4100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4100" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4101" spans="2:7" x14ac:dyDescent="0.2">
@@ -41714,7 +41714,7 @@
     </row>
     <row r="4115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4115" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4116" spans="2:7" x14ac:dyDescent="0.2">
@@ -41792,7 +41792,7 @@
     </row>
     <row r="4124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4124" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4125" spans="2:7" x14ac:dyDescent="0.2">
@@ -41984,7 +41984,7 @@
     </row>
     <row r="4138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4138" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4139" spans="2:7" x14ac:dyDescent="0.2">
@@ -42006,7 +42006,7 @@
     </row>
     <row r="4142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4142" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4143" spans="2:7" x14ac:dyDescent="0.2">
@@ -42045,7 +42045,7 @@
     </row>
     <row r="4147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4147" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4148" spans="2:7" x14ac:dyDescent="0.2">
@@ -42067,7 +42067,7 @@
     </row>
     <row r="4151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4152" spans="2:7" x14ac:dyDescent="0.2">
@@ -42094,7 +42094,7 @@
     </row>
     <row r="4157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4157" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4158" spans="2:7" x14ac:dyDescent="0.2">
@@ -42133,7 +42133,7 @@
     </row>
     <row r="4162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4162" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4163" spans="2:7" x14ac:dyDescent="0.2">
@@ -42223,7 +42223,7 @@
     </row>
     <row r="4170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4170" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4171" spans="2:7" x14ac:dyDescent="0.2">
@@ -42296,7 +42296,7 @@
     </row>
     <row r="4177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4178" spans="2:7" x14ac:dyDescent="0.2">
@@ -42318,7 +42318,7 @@
     </row>
     <row r="4181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4181" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4182" spans="2:7" x14ac:dyDescent="0.2">
@@ -42447,7 +42447,7 @@
     </row>
     <row r="4193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4193" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4194" spans="2:7" x14ac:dyDescent="0.2">
@@ -42537,7 +42537,7 @@
     </row>
     <row r="4201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4201" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4202" spans="2:7" x14ac:dyDescent="0.2">
@@ -42559,7 +42559,7 @@
     </row>
     <row r="4205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4205" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4206" spans="2:7" x14ac:dyDescent="0.2">
@@ -42598,7 +42598,7 @@
     </row>
     <row r="4210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4210" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4211" spans="2:7" x14ac:dyDescent="0.2">
@@ -42671,7 +42671,7 @@
     </row>
     <row r="4217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4217" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4218" spans="2:7" x14ac:dyDescent="0.2">
@@ -42693,7 +42693,7 @@
     </row>
     <row r="4221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4221" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4222" spans="2:7" x14ac:dyDescent="0.2">
@@ -42788,7 +42788,7 @@
     </row>
     <row r="4231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4231" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4232" spans="2:7" x14ac:dyDescent="0.2">
@@ -42810,7 +42810,7 @@
     </row>
     <row r="4235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4235" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4236" spans="2:7" x14ac:dyDescent="0.2">
@@ -42849,7 +42849,7 @@
     </row>
     <row r="4240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4240" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4241" spans="2:7" x14ac:dyDescent="0.2">
@@ -43080,7 +43080,7 @@
     </row>
     <row r="4258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4258" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4259" spans="2:7" x14ac:dyDescent="0.2">
@@ -43187,7 +43187,7 @@
     </row>
     <row r="4267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4267" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4268" spans="2:7" x14ac:dyDescent="0.2">
@@ -43401,7 +43401,7 @@
     </row>
     <row r="4284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4284" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4285" spans="2:7" x14ac:dyDescent="0.2">
@@ -43513,7 +43513,7 @@
     </row>
     <row r="4295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4295" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4296" spans="2:7" x14ac:dyDescent="0.2">
@@ -43710,7 +43710,7 @@
     </row>
     <row r="4311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4311" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4312" spans="2:7" x14ac:dyDescent="0.2">
@@ -43766,7 +43766,7 @@
     </row>
     <row r="4317" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4317" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4318" spans="2:7" x14ac:dyDescent="0.2">
@@ -43788,7 +43788,7 @@
     </row>
     <row r="4321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4321" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4322" spans="2:7" x14ac:dyDescent="0.2">
@@ -44104,7 +44104,7 @@
     </row>
     <row r="4344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4344" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4345" spans="2:7" x14ac:dyDescent="0.2">
@@ -44160,7 +44160,7 @@
     </row>
     <row r="4350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4350" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4351" spans="2:7" x14ac:dyDescent="0.2">
@@ -44216,7 +44216,7 @@
     </row>
     <row r="4356" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4356" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4357" spans="2:7" x14ac:dyDescent="0.2">
@@ -44238,7 +44238,7 @@
     </row>
     <row r="4360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4360" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4361" spans="2:7" x14ac:dyDescent="0.2">
@@ -44260,7 +44260,7 @@
     </row>
     <row r="4364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4364" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4365" spans="2:7" x14ac:dyDescent="0.2">
@@ -44299,7 +44299,7 @@
     </row>
     <row r="4369" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4369" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4370" spans="2:7" x14ac:dyDescent="0.2">
@@ -44411,7 +44411,7 @@
     </row>
     <row r="4380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4380" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4381" spans="2:7" x14ac:dyDescent="0.2">
@@ -44545,7 +44545,7 @@
     </row>
     <row r="4395" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4395" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4396" spans="2:7" x14ac:dyDescent="0.2">
@@ -44601,7 +44601,7 @@
     </row>
     <row r="4401" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4401" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4402" spans="2:7" x14ac:dyDescent="0.2">
@@ -44640,7 +44640,7 @@
     </row>
     <row r="4406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4406" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4407" spans="2:7" x14ac:dyDescent="0.2">
@@ -44922,7 +44922,7 @@
     </row>
     <row r="4427" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4427" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4428" spans="2:7" x14ac:dyDescent="0.2">
@@ -45153,7 +45153,7 @@
     </row>
     <row r="4445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4445" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4446" spans="2:7" x14ac:dyDescent="0.2">
@@ -45226,7 +45226,7 @@
     </row>
     <row r="4452" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4452" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4453" spans="2:7" x14ac:dyDescent="0.2">
@@ -45248,7 +45248,7 @@
     </row>
     <row r="4456" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4456" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4457" spans="2:7" x14ac:dyDescent="0.2">
@@ -45270,7 +45270,7 @@
     </row>
     <row r="4460" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4460" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4461" spans="2:7" x14ac:dyDescent="0.2">
@@ -45292,7 +45292,7 @@
     </row>
     <row r="4464" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4464" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4465" spans="2:7" x14ac:dyDescent="0.2">
@@ -45314,7 +45314,7 @@
     </row>
     <row r="4468" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4468" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4469" spans="2:7" x14ac:dyDescent="0.2">
@@ -45341,7 +45341,7 @@
     </row>
     <row r="4474" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4474" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4475" spans="2:7" x14ac:dyDescent="0.2">
@@ -45397,7 +45397,7 @@
     </row>
     <row r="4480" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4480" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4481" spans="2:7" x14ac:dyDescent="0.2">
@@ -45424,7 +45424,7 @@
     </row>
     <row r="4486" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4486" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4487" spans="2:7" x14ac:dyDescent="0.2">
@@ -45463,7 +45463,7 @@
     </row>
     <row r="4491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4491" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4492" spans="2:7" x14ac:dyDescent="0.2">
@@ -45507,7 +45507,7 @@
     </row>
     <row r="4499" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4499" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4500" spans="2:7" x14ac:dyDescent="0.2">
@@ -45529,7 +45529,7 @@
     </row>
     <row r="4503" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4503" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4504" spans="2:7" x14ac:dyDescent="0.2">
@@ -45551,7 +45551,7 @@
     </row>
     <row r="4507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4507" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4508" spans="2:7" x14ac:dyDescent="0.2">
@@ -45573,7 +45573,7 @@
     </row>
     <row r="4511" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4511" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4512" spans="2:7" x14ac:dyDescent="0.2">
@@ -45595,7 +45595,7 @@
     </row>
     <row r="4515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4515" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4516" spans="2:7" x14ac:dyDescent="0.2">
@@ -45724,7 +45724,7 @@
     </row>
     <row r="4527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4527" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4528" spans="2:7" x14ac:dyDescent="0.2">
@@ -45819,7 +45819,7 @@
     </row>
     <row r="4537" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4537" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4538" spans="2:7" x14ac:dyDescent="0.2">
@@ -45960,7 +45960,7 @@
     </row>
     <row r="4548" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4548" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4549" spans="2:7" x14ac:dyDescent="0.2">
@@ -46145,7 +46145,7 @@
     </row>
     <row r="4566" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4566" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4567" spans="2:7" x14ac:dyDescent="0.2">
@@ -46201,7 +46201,7 @@
     </row>
     <row r="4572" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4573" spans="2:7" x14ac:dyDescent="0.2">
@@ -46240,7 +46240,7 @@
     </row>
     <row r="4577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4577" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4578" spans="2:7" x14ac:dyDescent="0.2">
@@ -46279,7 +46279,7 @@
     </row>
     <row r="4582" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4582" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4583" spans="2:7" x14ac:dyDescent="0.2">
@@ -46367,7 +46367,7 @@
     </row>
     <row r="4597" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4597" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4598" spans="2:7" x14ac:dyDescent="0.2">
@@ -46474,7 +46474,7 @@
     </row>
     <row r="4606" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4606" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4607" spans="2:7" x14ac:dyDescent="0.2">
@@ -46496,7 +46496,7 @@
     </row>
     <row r="4610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4610" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4611" spans="2:7" x14ac:dyDescent="0.2">
@@ -46523,7 +46523,7 @@
     </row>
     <row r="4616" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4616" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4617" spans="2:7" x14ac:dyDescent="0.2">
@@ -46545,7 +46545,7 @@
     </row>
     <row r="4620" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4620" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4621" spans="2:7" x14ac:dyDescent="0.2">
@@ -46567,7 +46567,7 @@
     </row>
     <row r="4624" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4624" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4625" spans="2:7" x14ac:dyDescent="0.2">
@@ -46589,7 +46589,7 @@
     </row>
     <row r="4628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4628" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4629" spans="2:7" x14ac:dyDescent="0.2">
@@ -46655,7 +46655,7 @@
     </row>
     <row r="4639" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4639" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4640" spans="2:7" x14ac:dyDescent="0.2">
@@ -46728,7 +46728,7 @@
     </row>
     <row r="4646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4646" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4647" spans="2:7" x14ac:dyDescent="0.2">
@@ -46784,7 +46784,7 @@
     </row>
     <row r="4652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4652" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4653" spans="2:7" x14ac:dyDescent="0.2">
@@ -46840,7 +46840,7 @@
     </row>
     <row r="4658" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4658" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4659" spans="2:7" x14ac:dyDescent="0.2">
@@ -46969,7 +46969,7 @@
     </row>
     <row r="4671" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4671" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4672" spans="2:7" x14ac:dyDescent="0.2">
@@ -46996,7 +46996,7 @@
     </row>
     <row r="4677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4677" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4678" spans="2:7" x14ac:dyDescent="0.2">
@@ -47035,7 +47035,7 @@
     </row>
     <row r="4682" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4682" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4683" spans="2:7" x14ac:dyDescent="0.2">
@@ -47062,7 +47062,7 @@
     </row>
     <row r="4688" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4688" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4689" spans="2:7" x14ac:dyDescent="0.2">
@@ -47101,7 +47101,7 @@
     </row>
     <row r="4693" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4693" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4694" spans="2:7" x14ac:dyDescent="0.2">
@@ -47123,7 +47123,7 @@
     </row>
     <row r="4697" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4697" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4698" spans="2:7" x14ac:dyDescent="0.2">
@@ -47145,7 +47145,7 @@
     </row>
     <row r="4701" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4701" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4702" spans="2:7" x14ac:dyDescent="0.2">
@@ -47189,7 +47189,7 @@
     </row>
     <row r="4708" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4708" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4709" spans="2:7" x14ac:dyDescent="0.2">
@@ -47228,7 +47228,7 @@
     </row>
     <row r="4713" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4713" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4714" spans="2:7" x14ac:dyDescent="0.2">
@@ -47289,7 +47289,7 @@
     </row>
     <row r="4722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4722" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4723" spans="2:7" x14ac:dyDescent="0.2">
@@ -47384,7 +47384,7 @@
     </row>
     <row r="4732" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4732" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4733" spans="2:7" x14ac:dyDescent="0.2">
@@ -47479,7 +47479,7 @@
     </row>
     <row r="4742" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4742" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4743" spans="2:7" x14ac:dyDescent="0.2">
@@ -47501,7 +47501,7 @@
     </row>
     <row r="4746" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4746" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4747" spans="2:7" x14ac:dyDescent="0.2">
@@ -47523,7 +47523,7 @@
     </row>
     <row r="4750" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4750" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4751" spans="2:7" x14ac:dyDescent="0.2">
@@ -47579,7 +47579,7 @@
     </row>
     <row r="4756" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4756" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4757" spans="2:7" x14ac:dyDescent="0.2">
@@ -47635,7 +47635,7 @@
     </row>
     <row r="4762" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4762" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4763" spans="2:7" x14ac:dyDescent="0.2">
@@ -47696,7 +47696,7 @@
     </row>
     <row r="4771" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4771" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4772" spans="2:7" x14ac:dyDescent="0.2">
@@ -47718,7 +47718,7 @@
     </row>
     <row r="4775" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4775" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4776" spans="2:7" x14ac:dyDescent="0.2">
@@ -47745,7 +47745,7 @@
     </row>
     <row r="4781" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4781" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4782" spans="2:7" x14ac:dyDescent="0.2">
@@ -47869,7 +47869,7 @@
     </row>
     <row r="4791" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4791" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4792" spans="2:7" x14ac:dyDescent="0.2">
@@ -47896,7 +47896,7 @@
     </row>
     <row r="4797" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4797" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4798" spans="2:7" x14ac:dyDescent="0.2">
@@ -48003,7 +48003,7 @@
     </row>
     <row r="4806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4806" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4807" spans="2:7" x14ac:dyDescent="0.2">
@@ -48025,7 +48025,7 @@
     </row>
     <row r="4810" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4810" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4811" spans="2:7" x14ac:dyDescent="0.2">
@@ -48064,7 +48064,7 @@
     </row>
     <row r="4815" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4815" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4816" spans="2:7" x14ac:dyDescent="0.2">
@@ -48086,7 +48086,7 @@
     </row>
     <row r="4819" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4819" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4820" spans="2:7" x14ac:dyDescent="0.2">
@@ -48125,7 +48125,7 @@
     </row>
     <row r="4824" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4824" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4825" spans="2:7" x14ac:dyDescent="0.2">
@@ -48147,7 +48147,7 @@
     </row>
     <row r="4828" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4828" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4829" spans="2:7" x14ac:dyDescent="0.2">
@@ -48235,7 +48235,7 @@
     </row>
     <row r="4843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4843" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4844" spans="2:7" x14ac:dyDescent="0.2">
@@ -48257,7 +48257,7 @@
     </row>
     <row r="4847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4847" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4848" spans="2:7" x14ac:dyDescent="0.2">
@@ -48364,7 +48364,7 @@
     </row>
     <row r="4856" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4856" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4857" spans="2:7" x14ac:dyDescent="0.2">
@@ -48403,7 +48403,7 @@
     </row>
     <row r="4861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4861" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4862" spans="2:7" x14ac:dyDescent="0.2">
@@ -48430,7 +48430,7 @@
     </row>
     <row r="4867" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4867" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4868" spans="2:7" x14ac:dyDescent="0.2">
@@ -48537,7 +48537,7 @@
     </row>
     <row r="4876" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4876" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4877" spans="2:7" x14ac:dyDescent="0.2">
@@ -48559,7 +48559,7 @@
     </row>
     <row r="4880" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4880" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4881" spans="2:7" x14ac:dyDescent="0.2">
@@ -48637,7 +48637,7 @@
     </row>
     <row r="4889" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4889" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4890" spans="2:7" x14ac:dyDescent="0.2">
@@ -48732,7 +48732,7 @@
     </row>
     <row r="4899" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4899" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4900" spans="2:7" x14ac:dyDescent="0.2">
@@ -48771,7 +48771,7 @@
     </row>
     <row r="4904" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4904" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4905" spans="2:7" x14ac:dyDescent="0.2">
@@ -48917,7 +48917,7 @@
     </row>
     <row r="4917" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4917" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4918" spans="2:7" x14ac:dyDescent="0.2">
@@ -48973,7 +48973,7 @@
     </row>
     <row r="4923" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4923" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4924" spans="2:7" x14ac:dyDescent="0.2">
@@ -49068,7 +49068,7 @@
     </row>
     <row r="4934" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4934" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4935" spans="2:7" x14ac:dyDescent="0.2">
@@ -49095,7 +49095,7 @@
     </row>
     <row r="4940" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4940" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4941" spans="2:7" x14ac:dyDescent="0.2">
@@ -49134,7 +49134,7 @@
     </row>
     <row r="4945" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4945" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4946" spans="2:7" x14ac:dyDescent="0.2">
@@ -49190,7 +49190,7 @@
     </row>
     <row r="4951" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4951" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4952" spans="2:7" x14ac:dyDescent="0.2">
@@ -49217,7 +49217,7 @@
     </row>
     <row r="4957" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4957" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4958" spans="2:7" x14ac:dyDescent="0.2">
@@ -49261,7 +49261,7 @@
     </row>
     <row r="4965" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4965" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4966" spans="2:7" x14ac:dyDescent="0.2">
@@ -49300,7 +49300,7 @@
     </row>
     <row r="4970" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4970" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4971" spans="2:7" x14ac:dyDescent="0.2">
@@ -49322,7 +49322,7 @@
     </row>
     <row r="4974" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4974" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4975" spans="2:7" x14ac:dyDescent="0.2">
@@ -49395,7 +49395,7 @@
     </row>
     <row r="4981" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4981" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4982" spans="2:7" x14ac:dyDescent="0.2">
@@ -49417,7 +49417,7 @@
     </row>
     <row r="4985" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4985" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4986" spans="2:7" x14ac:dyDescent="0.2">
@@ -49439,7 +49439,7 @@
     </row>
     <row r="4989" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4989" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4990" spans="2:7" x14ac:dyDescent="0.2">
@@ -49466,7 +49466,7 @@
     </row>
     <row r="4995" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4995" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4996" spans="2:7" x14ac:dyDescent="0.2">
@@ -49556,7 +49556,7 @@
     </row>
     <row r="5003" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5003" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5004" spans="2:7" x14ac:dyDescent="0.2">
@@ -49578,7 +49578,7 @@
     </row>
     <row r="5007" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5007" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5008" spans="2:7" x14ac:dyDescent="0.2">
@@ -49605,7 +49605,7 @@
     </row>
     <row r="5013" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5013" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5014" spans="2:7" x14ac:dyDescent="0.2">
@@ -49644,7 +49644,7 @@
     </row>
     <row r="5018" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5018" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5019" spans="2:7" x14ac:dyDescent="0.2">
@@ -49700,7 +49700,7 @@
     </row>
     <row r="5024" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5024" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5025" spans="2:7" x14ac:dyDescent="0.2">
@@ -49756,7 +49756,7 @@
     </row>
     <row r="5030" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5030" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5031" spans="2:7" x14ac:dyDescent="0.2">
@@ -49778,7 +49778,7 @@
     </row>
     <row r="5034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5034" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5035" spans="2:7" x14ac:dyDescent="0.2">
@@ -49805,7 +49805,7 @@
     </row>
     <row r="5040" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5040" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5041" spans="2:7" x14ac:dyDescent="0.2">
@@ -49878,7 +49878,7 @@
     </row>
     <row r="5047" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5047" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5048" spans="2:7" x14ac:dyDescent="0.2">
@@ -49900,7 +49900,7 @@
     </row>
     <row r="5051" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5051" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5052" spans="2:7" x14ac:dyDescent="0.2">
@@ -49939,7 +49939,7 @@
     </row>
     <row r="5056" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5056" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5057" spans="2:7" x14ac:dyDescent="0.2">
@@ -49961,7 +49961,7 @@
     </row>
     <row r="5060" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5060" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5061" spans="2:7" x14ac:dyDescent="0.2">
@@ -50000,7 +50000,7 @@
     </row>
     <row r="5065" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5065" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5066" spans="2:7" x14ac:dyDescent="0.2">
@@ -50027,7 +50027,7 @@
     </row>
     <row r="5071" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5071" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5072" spans="2:7" x14ac:dyDescent="0.2">
@@ -50066,7 +50066,7 @@
     </row>
     <row r="5076" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5076" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5077" spans="2:7" x14ac:dyDescent="0.2">
@@ -50105,7 +50105,7 @@
     </row>
     <row r="5081" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5081" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5082" spans="2:7" x14ac:dyDescent="0.2">
@@ -50127,7 +50127,7 @@
     </row>
     <row r="5085" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5085" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5086" spans="2:7" x14ac:dyDescent="0.2">
@@ -50149,7 +50149,7 @@
     </row>
     <row r="5089" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5089" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5090" spans="2:7" x14ac:dyDescent="0.2">
@@ -50176,7 +50176,7 @@
     </row>
     <row r="5095" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5095" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5096" spans="2:7" x14ac:dyDescent="0.2">
@@ -50288,7 +50288,7 @@
     </row>
     <row r="5106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5107" spans="2:7" x14ac:dyDescent="0.2">
@@ -50344,7 +50344,7 @@
     </row>
     <row r="5112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5113" spans="2:7" x14ac:dyDescent="0.2">
@@ -50388,7 +50388,7 @@
     </row>
     <row r="5119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5120" spans="2:7" x14ac:dyDescent="0.2">
@@ -50427,7 +50427,7 @@
     </row>
     <row r="5124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5125" spans="2:7" x14ac:dyDescent="0.2">
@@ -50449,7 +50449,7 @@
     </row>
     <row r="5128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5129" spans="2:7" x14ac:dyDescent="0.2">
@@ -50544,7 +50544,7 @@
     </row>
     <row r="5138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5139" spans="2:7" x14ac:dyDescent="0.2">
@@ -50566,7 +50566,7 @@
     </row>
     <row r="5142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5142" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5143" spans="2:7" x14ac:dyDescent="0.2">
@@ -50622,7 +50622,7 @@
     </row>
     <row r="5148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5148" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5149" spans="2:7" x14ac:dyDescent="0.2">
@@ -50666,7 +50666,7 @@
     </row>
     <row r="5155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5155" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5156" spans="2:7" x14ac:dyDescent="0.2">
@@ -50688,7 +50688,7 @@
     </row>
     <row r="5159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5160" spans="2:7" x14ac:dyDescent="0.2">
@@ -50949,7 +50949,7 @@
     </row>
     <row r="5192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5192" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5193" spans="2:7" x14ac:dyDescent="0.2">
@@ -50971,7 +50971,7 @@
     </row>
     <row r="5196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5196" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5197" spans="2:7" x14ac:dyDescent="0.2">
@@ -51015,7 +51015,7 @@
     </row>
     <row r="5203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5203" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5204" spans="2:7" x14ac:dyDescent="0.2">
@@ -51037,7 +51037,7 @@
     </row>
     <row r="5207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5207" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5208" spans="2:7" x14ac:dyDescent="0.2">
@@ -51064,7 +51064,7 @@
     </row>
     <row r="5213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5213" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5214" spans="2:7" x14ac:dyDescent="0.2">
@@ -51103,7 +51103,7 @@
     </row>
     <row r="5218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5218" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5219" spans="2:7" x14ac:dyDescent="0.2">
@@ -51142,7 +51142,7 @@
     </row>
     <row r="5223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5223" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5224" spans="2:7" x14ac:dyDescent="0.2">
@@ -51220,7 +51220,7 @@
     </row>
     <row r="5232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5232" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5233" spans="2:7" x14ac:dyDescent="0.2">
@@ -51242,7 +51242,7 @@
     </row>
     <row r="5236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5236" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5237" spans="2:7" x14ac:dyDescent="0.2">
@@ -51264,7 +51264,7 @@
     </row>
     <row r="5240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5240" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5241" spans="2:7" x14ac:dyDescent="0.2">
@@ -51286,7 +51286,7 @@
     </row>
     <row r="5244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5244" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5245" spans="2:7" x14ac:dyDescent="0.2">
@@ -51313,7 +51313,7 @@
     </row>
     <row r="5250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5250" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5251" spans="2:7" x14ac:dyDescent="0.2">
@@ -51340,7 +51340,7 @@
     </row>
     <row r="5256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5256" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5257" spans="2:7" x14ac:dyDescent="0.2">
@@ -51396,7 +51396,7 @@
     </row>
     <row r="5262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5262" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5263" spans="2:7" x14ac:dyDescent="0.2">
@@ -51435,7 +51435,7 @@
     </row>
     <row r="5267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5267" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5268" spans="2:7" x14ac:dyDescent="0.2">
@@ -51474,7 +51474,7 @@
     </row>
     <row r="5272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5272" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5273" spans="2:7" x14ac:dyDescent="0.2">
@@ -51501,7 +51501,7 @@
     </row>
     <row r="5278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5278" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5279" spans="2:7" x14ac:dyDescent="0.2">
@@ -51523,7 +51523,7 @@
     </row>
     <row r="5282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5282" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5283" spans="2:7" x14ac:dyDescent="0.2">
@@ -51579,7 +51579,7 @@
     </row>
     <row r="5288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5288" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5289" spans="2:7" x14ac:dyDescent="0.2">
@@ -51669,7 +51669,7 @@
     </row>
     <row r="5296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5296" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5297" spans="2:7" x14ac:dyDescent="0.2">
@@ -51735,7 +51735,7 @@
     </row>
     <row r="5307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5307" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5308" spans="2:7" x14ac:dyDescent="0.2">
@@ -51774,7 +51774,7 @@
     </row>
     <row r="5312" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5312" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5313" spans="2:7" x14ac:dyDescent="0.2">
@@ -51881,7 +51881,7 @@
     </row>
     <row r="5321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5321" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5322" spans="2:7" x14ac:dyDescent="0.2">
@@ -51908,7 +51908,7 @@
     </row>
     <row r="5327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5327" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5328" spans="2:7" x14ac:dyDescent="0.2">
@@ -51947,7 +51947,7 @@
     </row>
     <row r="5332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5332" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5333" spans="2:7" x14ac:dyDescent="0.2">
@@ -52003,7 +52003,7 @@
     </row>
     <row r="5338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5338" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5339" spans="2:7" x14ac:dyDescent="0.2">
@@ -52047,7 +52047,7 @@
     </row>
     <row r="5345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5345" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5346" spans="2:7" x14ac:dyDescent="0.2">
@@ -52086,7 +52086,7 @@
     </row>
     <row r="5350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5350" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5351" spans="2:7" x14ac:dyDescent="0.2">
@@ -52108,7 +52108,7 @@
     </row>
     <row r="5354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5354" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5355" spans="2:7" x14ac:dyDescent="0.2">
@@ -52186,7 +52186,7 @@
     </row>
     <row r="5363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5363" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5364" spans="2:7" x14ac:dyDescent="0.2">
@@ -52259,7 +52259,7 @@
     </row>
     <row r="5370" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5370" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5371" spans="2:7" x14ac:dyDescent="0.2">
@@ -52286,7 +52286,7 @@
     </row>
     <row r="5376" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5376" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5377" spans="2:7" x14ac:dyDescent="0.2">
@@ -52308,7 +52308,7 @@
     </row>
     <row r="5380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5380" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5381" spans="2:7" x14ac:dyDescent="0.2">
@@ -52330,7 +52330,7 @@
     </row>
     <row r="5384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5384" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5385" spans="2:7" x14ac:dyDescent="0.2">
@@ -52403,7 +52403,7 @@
     </row>
     <row r="5391" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5391" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5392" spans="2:7" x14ac:dyDescent="0.2">
@@ -52430,7 +52430,7 @@
     </row>
     <row r="5397" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5398" spans="2:7" x14ac:dyDescent="0.2">
@@ -52486,7 +52486,7 @@
     </row>
     <row r="5403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5403" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5404" spans="2:7" x14ac:dyDescent="0.2">
@@ -52576,7 +52576,7 @@
     </row>
     <row r="5411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5411" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5412" spans="2:7" x14ac:dyDescent="0.2">
@@ -52603,7 +52603,7 @@
     </row>
     <row r="5417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5417" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5418" spans="2:7" x14ac:dyDescent="0.2">
@@ -52625,7 +52625,7 @@
     </row>
     <row r="5421" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5421" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5422" spans="2:7" x14ac:dyDescent="0.2">
@@ -52647,7 +52647,7 @@
     </row>
     <row r="5425" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5425" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5426" spans="2:7" x14ac:dyDescent="0.2">
@@ -52669,7 +52669,7 @@
     </row>
     <row r="5429" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5429" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5430" spans="2:7" x14ac:dyDescent="0.2">
@@ -52691,7 +52691,7 @@
     </row>
     <row r="5433" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5433" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5434" spans="2:7" x14ac:dyDescent="0.2">
@@ -52781,7 +52781,7 @@
     </row>
     <row r="5441" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5441" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5442" spans="2:7" x14ac:dyDescent="0.2">
@@ -52803,7 +52803,7 @@
     </row>
     <row r="5445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5445" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5446" spans="2:7" x14ac:dyDescent="0.2">
@@ -52830,7 +52830,7 @@
     </row>
     <row r="5451" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5451" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5452" spans="2:7" x14ac:dyDescent="0.2">
@@ -52852,7 +52852,7 @@
     </row>
     <row r="5455" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5455" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5456" spans="2:7" x14ac:dyDescent="0.2">
@@ -52874,7 +52874,7 @@
     </row>
     <row r="5459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5459" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5460" spans="2:7" x14ac:dyDescent="0.2">
@@ -52896,7 +52896,7 @@
     </row>
     <row r="5463" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5463" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5464" spans="2:7" x14ac:dyDescent="0.2">
@@ -52918,7 +52918,7 @@
     </row>
     <row r="5467" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5467" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5468" spans="2:7" x14ac:dyDescent="0.2">
@@ -52940,7 +52940,7 @@
     </row>
     <row r="5471" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5471" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5472" spans="2:7" x14ac:dyDescent="0.2">
@@ -52979,7 +52979,7 @@
     </row>
     <row r="5476" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5476" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5477" spans="2:7" x14ac:dyDescent="0.2">
@@ -53086,7 +53086,7 @@
     </row>
     <row r="5485" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5485" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5486" spans="2:7" x14ac:dyDescent="0.2">
@@ -53113,7 +53113,7 @@
     </row>
     <row r="5491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5491" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5492" spans="2:7" x14ac:dyDescent="0.2">
@@ -53140,7 +53140,7 @@
     </row>
     <row r="5497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5497" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5498" spans="2:7" x14ac:dyDescent="0.2">
@@ -53235,7 +53235,7 @@
     </row>
     <row r="5507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5507" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5508" spans="2:7" x14ac:dyDescent="0.2">
@@ -53330,7 +53330,7 @@
     </row>
     <row r="5517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5517" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5518" spans="2:7" x14ac:dyDescent="0.2">
@@ -53369,7 +53369,7 @@
     </row>
     <row r="5522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5522" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5523" spans="2:7" x14ac:dyDescent="0.2">
@@ -53408,7 +53408,7 @@
     </row>
     <row r="5527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5527" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5528" spans="2:7" x14ac:dyDescent="0.2">
@@ -53435,7 +53435,7 @@
     </row>
     <row r="5533" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5533" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5534" spans="2:7" x14ac:dyDescent="0.2">
@@ -53491,7 +53491,7 @@
     </row>
     <row r="5539" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5539" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5540" spans="2:7" x14ac:dyDescent="0.2">
@@ -53513,7 +53513,7 @@
     </row>
     <row r="5543" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5543" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5544" spans="2:7" x14ac:dyDescent="0.2">
@@ -53569,7 +53569,7 @@
     </row>
     <row r="5549" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5549" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5550" spans="2:7" x14ac:dyDescent="0.2">
@@ -53596,7 +53596,7 @@
     </row>
     <row r="5555" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5555" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5556" spans="2:7" x14ac:dyDescent="0.2">
@@ -53720,7 +53720,7 @@
     </row>
     <row r="5565" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5565" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5566" spans="2:7" x14ac:dyDescent="0.2">
@@ -53759,7 +53759,7 @@
     </row>
     <row r="5570" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5570" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5571" spans="2:7" x14ac:dyDescent="0.2">
@@ -53832,7 +53832,7 @@
     </row>
     <row r="5577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5577" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5578" spans="2:7" x14ac:dyDescent="0.2">
@@ -53854,7 +53854,7 @@
     </row>
     <row r="5581" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5581" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5582" spans="2:7" x14ac:dyDescent="0.2">
@@ -53893,7 +53893,7 @@
     </row>
     <row r="5586" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5586" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5587" spans="2:7" x14ac:dyDescent="0.2">
@@ -53915,7 +53915,7 @@
     </row>
     <row r="5590" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5590" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5591" spans="2:7" x14ac:dyDescent="0.2">
@@ -53937,7 +53937,7 @@
     </row>
     <row r="5594" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5594" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5595" spans="2:7" x14ac:dyDescent="0.2">
@@ -53964,7 +53964,7 @@
     </row>
     <row r="5600" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5600" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5601" spans="2:7" x14ac:dyDescent="0.2">
@@ -54088,7 +54088,7 @@
     </row>
     <row r="5610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5610" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5611" spans="2:7" x14ac:dyDescent="0.2">
@@ -54110,7 +54110,7 @@
     </row>
     <row r="5614" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5614" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5615" spans="2:7" x14ac:dyDescent="0.2">
@@ -54149,7 +54149,7 @@
     </row>
     <row r="5619" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5619" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5620" spans="2:7" x14ac:dyDescent="0.2">
@@ -54171,7 +54171,7 @@
     </row>
     <row r="5623" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5623" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5624" spans="2:7" x14ac:dyDescent="0.2">
@@ -54244,7 +54244,7 @@
     </row>
     <row r="5630" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5630" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5631" spans="2:7" x14ac:dyDescent="0.2">
@@ -54271,7 +54271,7 @@
     </row>
     <row r="5636" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5636" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5637" spans="2:7" x14ac:dyDescent="0.2">
@@ -54298,7 +54298,7 @@
     </row>
     <row r="5642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5642" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5643" spans="2:7" x14ac:dyDescent="0.2">
@@ -54354,7 +54354,7 @@
     </row>
     <row r="5648" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5648" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5649" spans="2:7" x14ac:dyDescent="0.2">
@@ -54376,7 +54376,7 @@
     </row>
     <row r="5652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5652" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5653" spans="2:7" x14ac:dyDescent="0.2">
@@ -54483,7 +54483,7 @@
     </row>
     <row r="5661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5661" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5662" spans="2:7" x14ac:dyDescent="0.2">
@@ -54573,7 +54573,7 @@
     </row>
     <row r="5669" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5669" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5670" spans="2:7" x14ac:dyDescent="0.2">
@@ -54595,7 +54595,7 @@
     </row>
     <row r="5673" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5673" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5674" spans="2:7" x14ac:dyDescent="0.2">
@@ -54622,7 +54622,7 @@
     </row>
     <row r="5679" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5679" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5680" spans="2:7" x14ac:dyDescent="0.2">
@@ -54644,7 +54644,7 @@
     </row>
     <row r="5683" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5683" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5684" spans="2:7" x14ac:dyDescent="0.2">
@@ -54700,7 +54700,7 @@
     </row>
     <row r="5689" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5689" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5690" spans="2:7" x14ac:dyDescent="0.2">
@@ -54722,7 +54722,7 @@
     </row>
     <row r="5693" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5693" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5694" spans="2:7" x14ac:dyDescent="0.2">
@@ -54749,7 +54749,7 @@
     </row>
     <row r="5699" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5699" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5700" spans="2:7" x14ac:dyDescent="0.2">
@@ -54771,7 +54771,7 @@
     </row>
     <row r="5703" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5703" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5704" spans="2:7" x14ac:dyDescent="0.2">
@@ -54827,7 +54827,7 @@
     </row>
     <row r="5709" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5709" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5710" spans="2:7" x14ac:dyDescent="0.2">
@@ -54866,7 +54866,7 @@
     </row>
     <row r="5714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5714" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5715" spans="2:7" x14ac:dyDescent="0.2">
@@ -54939,7 +54939,7 @@
     </row>
     <row r="5721" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5721" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5722" spans="2:7" x14ac:dyDescent="0.2">
@@ -54961,7 +54961,7 @@
     </row>
     <row r="5725" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5725" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5726" spans="2:7" x14ac:dyDescent="0.2">
@@ -54988,7 +54988,7 @@
     </row>
     <row r="5731" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5731" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5732" spans="2:7" x14ac:dyDescent="0.2">
@@ -55010,7 +55010,7 @@
     </row>
     <row r="5735" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5735" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5736" spans="2:7" x14ac:dyDescent="0.2">
@@ -55032,7 +55032,7 @@
     </row>
     <row r="5739" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5739" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5740" spans="2:7" x14ac:dyDescent="0.2">
@@ -55071,7 +55071,7 @@
     </row>
     <row r="5744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5744" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5745" spans="2:7" x14ac:dyDescent="0.2">
@@ -55144,7 +55144,7 @@
     </row>
     <row r="5751" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5751" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5752" spans="2:7" x14ac:dyDescent="0.2">
@@ -55166,7 +55166,7 @@
     </row>
     <row r="5755" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5755" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5756" spans="2:7" x14ac:dyDescent="0.2">
@@ -55188,7 +55188,7 @@
     </row>
     <row r="5759" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5759" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5760" spans="2:7" x14ac:dyDescent="0.2">
@@ -55244,7 +55244,7 @@
     </row>
     <row r="5765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5765" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5766" spans="2:7" x14ac:dyDescent="0.2">
@@ -55322,7 +55322,7 @@
     </row>
     <row r="5774" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5774" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5775" spans="2:7" x14ac:dyDescent="0.2">
@@ -55383,7 +55383,7 @@
     </row>
     <row r="5782" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5782" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5783" spans="2:7" x14ac:dyDescent="0.2">
@@ -55405,7 +55405,7 @@
     </row>
     <row r="5786" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5786" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5787" spans="2:7" x14ac:dyDescent="0.2">
@@ -55427,7 +55427,7 @@
     </row>
     <row r="5790" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5790" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5791" spans="2:7" x14ac:dyDescent="0.2">
@@ -55449,7 +55449,7 @@
     </row>
     <row r="5794" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5794" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5795" spans="2:7" x14ac:dyDescent="0.2">
@@ -55505,7 +55505,7 @@
     </row>
     <row r="5800" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5800" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5801" spans="2:7" x14ac:dyDescent="0.2">
@@ -55561,7 +55561,7 @@
     </row>
     <row r="5806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5806" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5807" spans="2:7" x14ac:dyDescent="0.2">
@@ -55617,7 +55617,7 @@
     </row>
     <row r="5812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5812" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5813" spans="2:7" x14ac:dyDescent="0.2">
@@ -55695,7 +55695,7 @@
     </row>
     <row r="5821" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5821" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5822" spans="2:7" x14ac:dyDescent="0.2">
@@ -55717,7 +55717,7 @@
     </row>
     <row r="5825" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5825" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5826" spans="2:7" x14ac:dyDescent="0.2">
@@ -55892,7 +55892,7 @@
     </row>
     <row r="5838" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5838" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5839" spans="2:7" x14ac:dyDescent="0.2">
@@ -56055,7 +56055,7 @@
     </row>
     <row r="5852" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5852" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5853" spans="2:7" x14ac:dyDescent="0.2">
@@ -56073,7 +56073,7 @@
     </row>
     <row r="5857" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5857" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5858" spans="2:7" x14ac:dyDescent="0.2">
@@ -56095,7 +56095,7 @@
     </row>
     <row r="5861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5861" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5862" spans="2:7" x14ac:dyDescent="0.2">
@@ -56139,7 +56139,7 @@
     </row>
     <row r="5868" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5868" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5869" spans="2:7" x14ac:dyDescent="0.2">
@@ -56212,7 +56212,7 @@
     </row>
     <row r="5875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5875" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5876" spans="2:7" x14ac:dyDescent="0.2">
@@ -56234,7 +56234,7 @@
     </row>
     <row r="5879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5879" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5880" spans="2:7" x14ac:dyDescent="0.2">
@@ -56312,7 +56312,7 @@
     </row>
     <row r="5888" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5888" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5889" spans="2:7" x14ac:dyDescent="0.2">
@@ -56390,7 +56390,7 @@
     </row>
     <row r="5897" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5897" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5898" spans="2:7" x14ac:dyDescent="0.2">
@@ -56480,7 +56480,7 @@
     </row>
     <row r="5905" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5905" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5906" spans="2:7" x14ac:dyDescent="0.2">
@@ -56524,7 +56524,7 @@
     </row>
     <row r="5913" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5913" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5914" spans="2:7" x14ac:dyDescent="0.2">
@@ -56580,7 +56580,7 @@
     </row>
     <row r="5919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5919" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5920" spans="2:7" x14ac:dyDescent="0.2">
@@ -56619,7 +56619,7 @@
     </row>
     <row r="5924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5924" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5925" spans="2:7" x14ac:dyDescent="0.2">
@@ -56658,7 +56658,7 @@
     </row>
     <row r="5929" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5929" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5930" spans="2:7" x14ac:dyDescent="0.2">
@@ -56685,7 +56685,7 @@
     </row>
     <row r="5935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5935" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5936" spans="2:7" x14ac:dyDescent="0.2">
@@ -56741,7 +56741,7 @@
     </row>
     <row r="5941" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5941" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5942" spans="2:7" x14ac:dyDescent="0.2">
@@ -56763,7 +56763,7 @@
     </row>
     <row r="5945" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5945" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5946" spans="2:7" x14ac:dyDescent="0.2">
@@ -56785,7 +56785,7 @@
     </row>
     <row r="5949" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5949" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5950" spans="2:7" x14ac:dyDescent="0.2">
@@ -56841,7 +56841,7 @@
     </row>
     <row r="5955" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5955" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5956" spans="2:7" x14ac:dyDescent="0.2">
@@ -56868,7 +56868,7 @@
     </row>
     <row r="5961" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5961" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5962" spans="2:7" x14ac:dyDescent="0.2">
@@ -56907,7 +56907,7 @@
     </row>
     <row r="5966" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5966" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5967" spans="2:7" x14ac:dyDescent="0.2">
@@ -56946,7 +56946,7 @@
     </row>
     <row r="5971" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5971" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5972" spans="2:7" x14ac:dyDescent="0.2">
@@ -56968,7 +56968,7 @@
     </row>
     <row r="5975" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5975" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5976" spans="2:7" x14ac:dyDescent="0.2">
@@ -56990,7 +56990,7 @@
     </row>
     <row r="5979" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5979" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5980" spans="2:7" x14ac:dyDescent="0.2">
@@ -57012,7 +57012,7 @@
     </row>
     <row r="5983" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5983" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5984" spans="2:7" x14ac:dyDescent="0.2">
@@ -57034,7 +57034,7 @@
     </row>
     <row r="5987" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5987" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5988" spans="2:7" x14ac:dyDescent="0.2">
@@ -57056,7 +57056,7 @@
     </row>
     <row r="5991" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5991" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5992" spans="2:7" x14ac:dyDescent="0.2">
@@ -57083,7 +57083,7 @@
     </row>
     <row r="5997" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5997" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5998" spans="2:7" x14ac:dyDescent="0.2">
@@ -57122,7 +57122,7 @@
     </row>
     <row r="6002" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6002" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6003" spans="2:7" x14ac:dyDescent="0.2">
@@ -57200,7 +57200,7 @@
     </row>
     <row r="6012" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6012" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6013" spans="2:7" x14ac:dyDescent="0.2">
@@ -57239,7 +57239,7 @@
     </row>
     <row r="6017" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6017" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6018" spans="2:7" x14ac:dyDescent="0.2">
@@ -57278,7 +57278,7 @@
     </row>
     <row r="6022" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6022" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6023" spans="2:7" x14ac:dyDescent="0.2">
@@ -57305,7 +57305,7 @@
     </row>
     <row r="6028" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6028" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6029" spans="2:7" x14ac:dyDescent="0.2">
@@ -57361,7 +57361,7 @@
     </row>
     <row r="6034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6034" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6035" spans="2:7" x14ac:dyDescent="0.2">
@@ -57451,7 +57451,7 @@
     </row>
     <row r="6042" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6042" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6043" spans="2:7" x14ac:dyDescent="0.2">
@@ -57473,7 +57473,7 @@
     </row>
     <row r="6046" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6046" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6047" spans="2:7" x14ac:dyDescent="0.2">
@@ -57546,7 +57546,7 @@
     </row>
     <row r="6053" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6053" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6054" spans="2:7" x14ac:dyDescent="0.2">
@@ -57624,7 +57624,7 @@
     </row>
     <row r="6062" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6062" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6063" spans="2:7" x14ac:dyDescent="0.2">
@@ -57646,7 +57646,7 @@
     </row>
     <row r="6066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6066" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6067" spans="2:7" x14ac:dyDescent="0.2">
@@ -57668,7 +57668,7 @@
     </row>
     <row r="6070" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6070" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6071" spans="2:7" x14ac:dyDescent="0.2">
@@ -57707,7 +57707,7 @@
     </row>
     <row r="6075" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6075" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6076" spans="2:7" x14ac:dyDescent="0.2">
@@ -57768,7 +57768,7 @@
     </row>
     <row r="6084" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6084" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6085" spans="2:7" x14ac:dyDescent="0.2">
@@ -57841,7 +57841,7 @@
     </row>
     <row r="6091" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6091" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6092" spans="2:7" x14ac:dyDescent="0.2">
@@ -57885,7 +57885,7 @@
     </row>
     <row r="6098" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6098" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6099" spans="2:7" x14ac:dyDescent="0.2">
@@ -57907,7 +57907,7 @@
     </row>
     <row r="6102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6103" spans="2:7" x14ac:dyDescent="0.2">
@@ -57929,7 +57929,7 @@
     </row>
     <row r="6106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6107" spans="2:7" x14ac:dyDescent="0.2">
@@ -58053,7 +58053,7 @@
     </row>
     <row r="6116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6117" spans="2:7" x14ac:dyDescent="0.2">
@@ -58075,7 +58075,7 @@
     </row>
     <row r="6120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6121" spans="2:7" x14ac:dyDescent="0.2">
@@ -58153,7 +58153,7 @@
     </row>
     <row r="6129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6130" spans="2:7" x14ac:dyDescent="0.2">
@@ -58175,7 +58175,7 @@
     </row>
     <row r="6133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6133" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6134" spans="2:7" x14ac:dyDescent="0.2">
@@ -58214,7 +58214,7 @@
     </row>
     <row r="6138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6138" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6139" spans="2:7" x14ac:dyDescent="0.2">
@@ -58253,7 +58253,7 @@
     </row>
     <row r="6143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6143" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6144" spans="2:7" x14ac:dyDescent="0.2">
@@ -58292,7 +58292,7 @@
     </row>
     <row r="6148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6149" spans="2:7" x14ac:dyDescent="0.2">
@@ -58358,7 +58358,7 @@
     </row>
     <row r="6159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6159" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6160" spans="2:7" x14ac:dyDescent="0.2">
@@ -58380,7 +58380,7 @@
     </row>
     <row r="6163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6164" spans="2:7" x14ac:dyDescent="0.2">
@@ -58419,7 +58419,7 @@
     </row>
     <row r="6168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6169" spans="2:7" x14ac:dyDescent="0.2">
@@ -58441,7 +58441,7 @@
     </row>
     <row r="6172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6172" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6173" spans="2:7" x14ac:dyDescent="0.2">
@@ -58536,7 +58536,7 @@
     </row>
     <row r="6182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6182" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6183" spans="2:7" x14ac:dyDescent="0.2">
@@ -58609,7 +58609,7 @@
     </row>
     <row r="6189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6189" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6190" spans="2:7" x14ac:dyDescent="0.2">
@@ -58631,7 +58631,7 @@
     </row>
     <row r="6193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6193" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6194" spans="2:7" x14ac:dyDescent="0.2">
@@ -58653,7 +58653,7 @@
     </row>
     <row r="6197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6197" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6198" spans="2:7" x14ac:dyDescent="0.2">
@@ -58675,7 +58675,7 @@
     </row>
     <row r="6201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6201" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6202" spans="2:7" x14ac:dyDescent="0.2">
@@ -58702,7 +58702,7 @@
     </row>
     <row r="6207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6208" spans="2:7" x14ac:dyDescent="0.2">
@@ -58741,7 +58741,7 @@
     </row>
     <row r="6212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6212" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6213" spans="2:7" x14ac:dyDescent="0.2">
@@ -58780,7 +58780,7 @@
     </row>
     <row r="6217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6217" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6218" spans="2:7" x14ac:dyDescent="0.2">
@@ -58802,7 +58802,7 @@
     </row>
     <row r="6221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6221" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6222" spans="2:7" x14ac:dyDescent="0.2">
@@ -58880,7 +58880,7 @@
     </row>
     <row r="6230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6230" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6231" spans="2:7" x14ac:dyDescent="0.2">
@@ -58936,7 +58936,7 @@
     </row>
     <row r="6236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6236" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6237" spans="2:7" x14ac:dyDescent="0.2">
@@ -58980,7 +58980,7 @@
     </row>
     <row r="6243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6243" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6244" spans="2:7" x14ac:dyDescent="0.2">
@@ -59002,7 +59002,7 @@
     </row>
     <row r="6247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6247" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6248" spans="2:7" x14ac:dyDescent="0.2">
@@ -59041,7 +59041,7 @@
     </row>
     <row r="6252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6252" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6253" spans="2:7" x14ac:dyDescent="0.2">
@@ -59063,7 +59063,7 @@
     </row>
     <row r="6256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6256" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6257" spans="2:7" x14ac:dyDescent="0.2">
@@ -59085,7 +59085,7 @@
     </row>
     <row r="6260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6260" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6261" spans="2:7" x14ac:dyDescent="0.2">
@@ -59124,7 +59124,7 @@
     </row>
     <row r="6265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6265" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6266" spans="2:7" x14ac:dyDescent="0.2">
@@ -59146,7 +59146,7 @@
     </row>
     <row r="6269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6269" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6270" spans="2:7" x14ac:dyDescent="0.2">
@@ -59202,7 +59202,7 @@
     </row>
     <row r="6275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6275" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6276" spans="2:7" x14ac:dyDescent="0.2">
@@ -59229,7 +59229,7 @@
     </row>
     <row r="6281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6281" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6282" spans="2:7" x14ac:dyDescent="0.2">
@@ -59285,7 +59285,7 @@
     </row>
     <row r="6287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6287" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6288" spans="2:7" x14ac:dyDescent="0.2">
@@ -59341,7 +59341,7 @@
     </row>
     <row r="6293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6293" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6294" spans="2:7" x14ac:dyDescent="0.2">
@@ -59363,7 +59363,7 @@
     </row>
     <row r="6297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6297" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6298" spans="2:7" x14ac:dyDescent="0.2">
@@ -59385,7 +59385,7 @@
     </row>
     <row r="6301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6301" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6302" spans="2:7" x14ac:dyDescent="0.2">
@@ -59412,7 +59412,7 @@
     </row>
     <row r="6307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6307" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6308" spans="2:7" x14ac:dyDescent="0.2">
@@ -59434,7 +59434,7 @@
     </row>
     <row r="6311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6311" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6312" spans="2:7" x14ac:dyDescent="0.2">
@@ -59495,7 +59495,7 @@
     </row>
     <row r="6320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6320" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6321" spans="2:7" x14ac:dyDescent="0.2">
@@ -59517,7 +59517,7 @@
     </row>
     <row r="6324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6324" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6325" spans="2:7" x14ac:dyDescent="0.2">
@@ -59556,7 +59556,7 @@
     </row>
     <row r="6329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6329" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6330" spans="2:7" x14ac:dyDescent="0.2">
@@ -59578,7 +59578,7 @@
     </row>
     <row r="6333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6333" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6334" spans="2:7" x14ac:dyDescent="0.2">
@@ -59685,7 +59685,7 @@
     </row>
     <row r="6342" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6342" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6343" spans="2:7" x14ac:dyDescent="0.2">
@@ -59707,7 +59707,7 @@
     </row>
     <row r="6346" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6346" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6347" spans="2:7" x14ac:dyDescent="0.2">
@@ -59768,7 +59768,7 @@
     </row>
     <row r="6354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6354" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6355" spans="2:7" x14ac:dyDescent="0.2">
@@ -59824,7 +59824,7 @@
     </row>
     <row r="6360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6360" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6361" spans="2:7" x14ac:dyDescent="0.2">
@@ -59846,7 +59846,7 @@
     </row>
     <row r="6364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6364" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6365" spans="2:7" x14ac:dyDescent="0.2">
@@ -59868,7 +59868,7 @@
     </row>
     <row r="6368" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6368" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6369" spans="2:7" x14ac:dyDescent="0.2">
@@ -59951,7 +59951,7 @@
     </row>
     <row r="6380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6380" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6381" spans="2:7" x14ac:dyDescent="0.2">
@@ -59973,7 +59973,7 @@
     </row>
     <row r="6384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6384" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6385" spans="2:7" x14ac:dyDescent="0.2">
@@ -59995,7 +59995,7 @@
     </row>
     <row r="6388" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6388" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6389" spans="2:7" x14ac:dyDescent="0.2">
@@ -60017,7 +60017,7 @@
     </row>
     <row r="6392" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6392" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6393" spans="2:7" x14ac:dyDescent="0.2">
@@ -60039,7 +60039,7 @@
     </row>
     <row r="6396" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6396" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6397" spans="2:7" x14ac:dyDescent="0.2">
@@ -60061,7 +60061,7 @@
     </row>
     <row r="6400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6400" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6401" spans="2:7" x14ac:dyDescent="0.2">
@@ -60083,7 +60083,7 @@
     </row>
     <row r="6404" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6404" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6405" spans="2:7" x14ac:dyDescent="0.2">
@@ -60122,7 +60122,7 @@
     </row>
     <row r="6409" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6409" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6410" spans="2:7" x14ac:dyDescent="0.2">
@@ -60144,7 +60144,7 @@
     </row>
     <row r="6413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6413" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6414" spans="2:7" x14ac:dyDescent="0.2">
@@ -60166,7 +60166,7 @@
     </row>
     <row r="6417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6417" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6418" spans="2:7" x14ac:dyDescent="0.2">

--- a/data/masterlistdatacopy.xlsx
+++ b/data/masterlistdatacopy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehrakaya/Documents/GitHub/study-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2DB7D2-BCF3-A147-BF26-F10CE2CCE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64460EEC-C9B0-D041-8D72-B0796DD8785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="1060" windowWidth="24000" windowHeight="16940" xr2:uid="{DEF68C45-6EF4-C54D-A0C4-D2FF29DE90DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="414">
   <si>
     <t>--- 22 January Sun ---</t>
   </si>
@@ -1073,9 +1073,6 @@
     <t>firebase</t>
   </si>
   <si>
-    <t>Deneme öğrenme</t>
-  </si>
-  <si>
     <t>Local storage</t>
   </si>
   <si>
@@ -1184,12 +1181,6 @@
     <t>Py</t>
   </si>
   <si>
-    <t>medicine course</t>
-  </si>
-  <si>
-    <t>video career</t>
-  </si>
-  <si>
     <t xml:space="preserve">Math problem </t>
   </si>
   <si>
@@ -1197,9 +1188,6 @@
   </si>
   <si>
     <t>Listening podcast / news…</t>
-  </si>
-  <si>
-    <t>Erasmus things</t>
   </si>
   <si>
     <t>Study Reading 📖</t>
@@ -1287,6 +1275,9 @@
   </si>
   <si>
     <t>Programming</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C6BFD7-D7FA-AE4E-90F7-62CC941DE68E}">
   <dimension ref="A1:G6425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A880" workbookViewId="0">
-      <selection activeCell="B899" sqref="B899"/>
+    <sheetView tabSelected="1" topLeftCell="A4646" workbookViewId="0">
+      <selection activeCell="B4671" sqref="B4671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9923,7 +9914,7 @@
     </row>
     <row r="899" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="900" spans="2:7" x14ac:dyDescent="0.2">
@@ -10247,7 +10238,7 @@
     </row>
     <row r="935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="936" spans="2:7" x14ac:dyDescent="0.2">
@@ -11007,7 +10998,7 @@
     </row>
     <row r="1019" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1019" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1020" spans="2:7" x14ac:dyDescent="0.2">
@@ -11090,7 +11081,7 @@
     </row>
     <row r="1031" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1031" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1032" spans="2:7" x14ac:dyDescent="0.2">
@@ -11224,7 +11215,7 @@
     </row>
     <row r="1047" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1047" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1048" spans="2:7" x14ac:dyDescent="0.2">
@@ -11879,7 +11870,7 @@
     </row>
     <row r="1115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1115" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1116" spans="2:7" x14ac:dyDescent="0.2">
@@ -12098,7 +12089,7 @@
     </row>
     <row r="1135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1135" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1136" spans="2:7" x14ac:dyDescent="0.2">
@@ -15155,7 +15146,7 @@
     </row>
     <row r="1469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1469" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1470" spans="2:7" x14ac:dyDescent="0.2">
@@ -16115,7 +16106,7 @@
     </row>
     <row r="1578" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1578" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1579" spans="2:7" x14ac:dyDescent="0.2">
@@ -17187,7 +17178,7 @@
     </row>
     <row r="1700" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1700" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1701" spans="2:7" x14ac:dyDescent="0.2">
@@ -17360,7 +17351,7 @@
     </row>
     <row r="1720" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1720" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1721" spans="2:7" x14ac:dyDescent="0.2">
@@ -17755,7 +17746,7 @@
     </row>
     <row r="1770" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1770" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1771" spans="2:7" x14ac:dyDescent="0.2">
@@ -21304,7 +21295,7 @@
     </row>
     <row r="2160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2160" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2161" spans="2:7" x14ac:dyDescent="0.2">
@@ -21443,7 +21434,7 @@
     </row>
     <row r="2178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2178" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2179" spans="2:7" x14ac:dyDescent="0.2">
@@ -22530,7 +22521,7 @@
     </row>
     <row r="2266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2266" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2267" spans="2:7" x14ac:dyDescent="0.2">
@@ -23364,7 +23355,7 @@
     </row>
     <row r="2332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2332" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2333" spans="2:7" x14ac:dyDescent="0.2">
@@ -23486,7 +23477,7 @@
     </row>
     <row r="2349" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2350" spans="2:7" x14ac:dyDescent="0.2">
@@ -23508,7 +23499,7 @@
     </row>
     <row r="2353" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2353" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2354" spans="2:7" x14ac:dyDescent="0.2">
@@ -23535,7 +23526,7 @@
     </row>
     <row r="2359" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2359" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2360" spans="2:7" x14ac:dyDescent="0.2">
@@ -23973,7 +23964,7 @@
     </row>
     <row r="2400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2400" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2401" spans="2:7" x14ac:dyDescent="0.2">
@@ -24000,7 +23991,7 @@
     </row>
     <row r="2406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2406" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2407" spans="2:7" x14ac:dyDescent="0.2">
@@ -24180,7 +24171,7 @@
     </row>
     <row r="2422" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2422" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2423" spans="2:7" x14ac:dyDescent="0.2">
@@ -24270,7 +24261,7 @@
     </row>
     <row r="2430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2430" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2431" spans="2:7" x14ac:dyDescent="0.2">
@@ -24886,7 +24877,7 @@
     </row>
     <row r="2493" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2493" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2494" spans="2:7" x14ac:dyDescent="0.2">
@@ -24930,7 +24921,7 @@
     </row>
     <row r="2501" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2501" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2502" spans="2:7" x14ac:dyDescent="0.2">
@@ -24991,7 +24982,7 @@
     </row>
     <row r="2510" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2510" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2511" spans="2:7" x14ac:dyDescent="0.2">
@@ -25030,7 +25021,7 @@
     </row>
     <row r="2515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2515" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2516" spans="2:7" x14ac:dyDescent="0.2">
@@ -25103,7 +25094,7 @@
     </row>
     <row r="2522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2522" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2523" spans="2:7" x14ac:dyDescent="0.2">
@@ -25524,7 +25515,7 @@
     </row>
     <row r="2561" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2561" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2562" spans="2:7" x14ac:dyDescent="0.2">
@@ -26441,7 +26432,7 @@
     </row>
     <row r="2638" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2638" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2639" spans="2:7" x14ac:dyDescent="0.2">
@@ -26485,7 +26476,7 @@
     </row>
     <row r="2646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2646" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2647" spans="2:7" x14ac:dyDescent="0.2">
@@ -26794,7 +26785,7 @@
     </row>
     <row r="2674" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2674" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2675" spans="2:7" x14ac:dyDescent="0.2">
@@ -26916,7 +26907,7 @@
     </row>
     <row r="2691" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2691" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2692" spans="2:7" x14ac:dyDescent="0.2">
@@ -26955,7 +26946,7 @@
     </row>
     <row r="2696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2696" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2697" spans="2:7" x14ac:dyDescent="0.2">
@@ -27045,7 +27036,7 @@
     </row>
     <row r="2704" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2704" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2705" spans="2:7" x14ac:dyDescent="0.2">
@@ -28847,7 +28838,7 @@
     </row>
     <row r="2850" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2850" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2851" spans="2:7" x14ac:dyDescent="0.2">
@@ -29567,7 +29558,7 @@
     </row>
     <row r="2911" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2911" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2912" spans="2:7" x14ac:dyDescent="0.2">
@@ -29589,7 +29580,7 @@
     </row>
     <row r="2915" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2915" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2916" spans="2:7" x14ac:dyDescent="0.2">
@@ -29611,7 +29602,7 @@
     </row>
     <row r="2919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2919" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2920" spans="2:7" x14ac:dyDescent="0.2">
@@ -29650,7 +29641,7 @@
     </row>
     <row r="2924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2924" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2925" spans="2:7" x14ac:dyDescent="0.2">
@@ -29689,7 +29680,7 @@
     </row>
     <row r="2929" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2929" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2930" spans="2:7" x14ac:dyDescent="0.2">
@@ -29767,7 +29758,7 @@
     </row>
     <row r="2938" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2938" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2939" spans="2:7" x14ac:dyDescent="0.2">
@@ -29857,7 +29848,7 @@
     </row>
     <row r="2946" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2946" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2947" spans="2:7" x14ac:dyDescent="0.2">
@@ -29935,7 +29926,7 @@
     </row>
     <row r="2955" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2955" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2956" spans="2:7" x14ac:dyDescent="0.2">
@@ -29957,7 +29948,7 @@
     </row>
     <row r="2959" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2959" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2960" spans="2:7" x14ac:dyDescent="0.2">
@@ -30013,7 +30004,7 @@
     </row>
     <row r="2965" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2965" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2966" spans="2:7" x14ac:dyDescent="0.2">
@@ -30125,7 +30116,7 @@
     </row>
     <row r="2976" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2976" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2977" spans="2:7" x14ac:dyDescent="0.2">
@@ -30220,7 +30211,7 @@
     </row>
     <row r="2986" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2986" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2987" spans="2:7" x14ac:dyDescent="0.2">
@@ -30293,7 +30284,7 @@
     </row>
     <row r="2993" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2993" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2994" spans="2:7" x14ac:dyDescent="0.2">
@@ -30354,7 +30345,7 @@
     </row>
     <row r="3001" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3001" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3002" spans="2:7" x14ac:dyDescent="0.2">
@@ -30551,7 +30542,7 @@
     </row>
     <row r="3018" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3018" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3019" spans="2:7" x14ac:dyDescent="0.2">
@@ -30590,7 +30581,7 @@
     </row>
     <row r="3023" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3023" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3024" spans="2:7" x14ac:dyDescent="0.2">
@@ -30629,7 +30620,7 @@
     </row>
     <row r="3028" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3028" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3029" spans="2:7" x14ac:dyDescent="0.2">
@@ -30651,7 +30642,7 @@
     </row>
     <row r="3032" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3032" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3033" spans="2:7" x14ac:dyDescent="0.2">
@@ -30841,7 +30832,7 @@
     </row>
     <row r="3053" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3053" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3054" spans="2:7" x14ac:dyDescent="0.2">
@@ -30880,7 +30871,7 @@
     </row>
     <row r="3058" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3058" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3059" spans="2:7" x14ac:dyDescent="0.2">
@@ -30941,7 +30932,7 @@
     </row>
     <row r="3066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3066" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3067" spans="2:7" x14ac:dyDescent="0.2">
@@ -31235,7 +31226,7 @@
     </row>
     <row r="3086" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3086" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3087" spans="2:7" x14ac:dyDescent="0.2">
@@ -31262,7 +31253,7 @@
     </row>
     <row r="3092" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3092" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3093" spans="2:7" x14ac:dyDescent="0.2">
@@ -31386,7 +31377,7 @@
     </row>
     <row r="3102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3103" spans="2:7" x14ac:dyDescent="0.2">
@@ -31408,7 +31399,7 @@
     </row>
     <row r="3106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3107" spans="2:7" x14ac:dyDescent="0.2">
@@ -31673,7 +31664,7 @@
     </row>
     <row r="3126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3126" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3127" spans="2:7" x14ac:dyDescent="0.2">
@@ -31795,7 +31786,7 @@
     </row>
     <row r="3143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3143" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3144" spans="2:7" x14ac:dyDescent="0.2">
@@ -32094,7 +32085,7 @@
     </row>
     <row r="3165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3165" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3166" spans="2:7" x14ac:dyDescent="0.2">
@@ -32376,7 +32367,7 @@
     </row>
     <row r="3186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3186" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3187" spans="2:7" x14ac:dyDescent="0.2">
@@ -32500,7 +32491,7 @@
     </row>
     <row r="3196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3196" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3197" spans="2:7" x14ac:dyDescent="0.2">
@@ -32561,7 +32552,7 @@
     </row>
     <row r="3204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3204" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3205" spans="2:7" x14ac:dyDescent="0.2">
@@ -32668,7 +32659,7 @@
     </row>
     <row r="3213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3213" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3214" spans="2:7" x14ac:dyDescent="0.2">
@@ -32707,7 +32698,7 @@
     </row>
     <row r="3218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3218" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3219" spans="2:7" x14ac:dyDescent="0.2">
@@ -32729,7 +32720,7 @@
     </row>
     <row r="3222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3222" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3223" spans="2:7" x14ac:dyDescent="0.2">
@@ -32802,7 +32793,7 @@
     </row>
     <row r="3229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3230" spans="2:7" x14ac:dyDescent="0.2">
@@ -32858,7 +32849,7 @@
     </row>
     <row r="3235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3235" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3236" spans="2:7" x14ac:dyDescent="0.2">
@@ -32897,7 +32888,7 @@
     </row>
     <row r="3240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3240" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3241" spans="2:7" x14ac:dyDescent="0.2">
@@ -32924,7 +32915,7 @@
     </row>
     <row r="3246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3246" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3247" spans="2:7" x14ac:dyDescent="0.2">
@@ -33048,7 +33039,7 @@
     </row>
     <row r="3256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3256" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3257" spans="2:7" x14ac:dyDescent="0.2">
@@ -33070,7 +33061,7 @@
     </row>
     <row r="3260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3260" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3261" spans="2:7" x14ac:dyDescent="0.2">
@@ -33109,7 +33100,7 @@
     </row>
     <row r="3265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3265" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3266" spans="2:7" x14ac:dyDescent="0.2">
@@ -33165,7 +33156,7 @@
     </row>
     <row r="3271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3271" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3272" spans="2:7" x14ac:dyDescent="0.2">
@@ -33345,7 +33336,7 @@
     </row>
     <row r="3286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3286" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3287" spans="2:7" x14ac:dyDescent="0.2">
@@ -33389,7 +33380,7 @@
     </row>
     <row r="3293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3293" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3294" spans="2:7" x14ac:dyDescent="0.2">
@@ -33479,7 +33470,7 @@
     </row>
     <row r="3301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3301" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3302" spans="2:7" x14ac:dyDescent="0.2">
@@ -33569,7 +33560,7 @@
     </row>
     <row r="3309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3309" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3310" spans="2:7" x14ac:dyDescent="0.2">
@@ -33698,7 +33689,7 @@
     </row>
     <row r="3321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3321" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3322" spans="2:7" x14ac:dyDescent="0.2">
@@ -33737,7 +33728,7 @@
     </row>
     <row r="3326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3326" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3327" spans="2:7" x14ac:dyDescent="0.2">
@@ -33793,7 +33784,7 @@
     </row>
     <row r="3332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3332" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3333" spans="2:7" x14ac:dyDescent="0.2">
@@ -33939,7 +33930,7 @@
     </row>
     <row r="3345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3345" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3346" spans="2:7" x14ac:dyDescent="0.2">
@@ -34063,7 +34054,7 @@
     </row>
     <row r="3355" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3355" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3356" spans="2:7" x14ac:dyDescent="0.2">
@@ -34141,7 +34132,7 @@
     </row>
     <row r="3364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3364" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3365" spans="2:7" x14ac:dyDescent="0.2">
@@ -34265,7 +34256,7 @@
     </row>
     <row r="3374" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3374" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3375" spans="2:7" x14ac:dyDescent="0.2">
@@ -34338,7 +34329,7 @@
     </row>
     <row r="3381" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3381" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3382" spans="2:7" x14ac:dyDescent="0.2">
@@ -34365,7 +34356,7 @@
     </row>
     <row r="3387" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3387" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3388" spans="2:7" x14ac:dyDescent="0.2">
@@ -34591,7 +34582,7 @@
     </row>
     <row r="3403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3403" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3404" spans="2:7" x14ac:dyDescent="0.2">
@@ -34681,7 +34672,7 @@
     </row>
     <row r="3411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3411" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3412" spans="2:7" x14ac:dyDescent="0.2">
@@ -34708,7 +34699,7 @@
     </row>
     <row r="3417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3417" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3418" spans="2:7" x14ac:dyDescent="0.2">
@@ -34781,7 +34772,7 @@
     </row>
     <row r="3424" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3424" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3425" spans="2:7" x14ac:dyDescent="0.2">
@@ -34837,7 +34828,7 @@
     </row>
     <row r="3430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3430" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3431" spans="2:7" x14ac:dyDescent="0.2">
@@ -34893,7 +34884,7 @@
     </row>
     <row r="3436" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3436" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3437" spans="2:7" x14ac:dyDescent="0.2">
@@ -34983,7 +34974,7 @@
     </row>
     <row r="3444" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3444" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3445" spans="2:7" x14ac:dyDescent="0.2">
@@ -35163,7 +35154,7 @@
     </row>
     <row r="3459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3459" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3460" spans="2:7" x14ac:dyDescent="0.2">
@@ -35287,7 +35278,7 @@
     </row>
     <row r="3469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3469" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3470" spans="2:7" x14ac:dyDescent="0.2">
@@ -35309,7 +35300,7 @@
     </row>
     <row r="3473" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3473" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3474" spans="2:7" x14ac:dyDescent="0.2">
@@ -35370,7 +35361,7 @@
     </row>
     <row r="3481" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3481" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3482" spans="2:7" x14ac:dyDescent="0.2">
@@ -35460,7 +35451,7 @@
     </row>
     <row r="3489" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3489" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3490" spans="2:7" x14ac:dyDescent="0.2">
@@ -35584,7 +35575,7 @@
     </row>
     <row r="3499" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3499" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3500" spans="2:7" x14ac:dyDescent="0.2">
@@ -35742,7 +35733,7 @@
     </row>
     <row r="3511" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3511" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3512" spans="2:7" x14ac:dyDescent="0.2">
@@ -35769,7 +35760,7 @@
     </row>
     <row r="3517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3517" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3518" spans="2:7" x14ac:dyDescent="0.2">
@@ -35893,7 +35884,7 @@
     </row>
     <row r="3527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3527" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3528" spans="2:7" x14ac:dyDescent="0.2">
@@ -35959,7 +35950,7 @@
     </row>
     <row r="3538" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3538" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3539" spans="2:7" x14ac:dyDescent="0.2">
@@ -36015,7 +36006,7 @@
     </row>
     <row r="3544" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3544" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3545" spans="2:7" x14ac:dyDescent="0.2">
@@ -36110,7 +36101,7 @@
     </row>
     <row r="3554" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3554" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3555" spans="2:7" x14ac:dyDescent="0.2">
@@ -36285,7 +36276,7 @@
     </row>
     <row r="3567" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3567" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3568" spans="2:7" x14ac:dyDescent="0.2">
@@ -36329,7 +36320,7 @@
     </row>
     <row r="3574" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3574" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3575" spans="2:7" x14ac:dyDescent="0.2">
@@ -36458,7 +36449,7 @@
     </row>
     <row r="3587" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3587" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3588" spans="2:7" x14ac:dyDescent="0.2">
@@ -36599,7 +36590,7 @@
     </row>
     <row r="3598" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3598" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3599" spans="2:7" x14ac:dyDescent="0.2">
@@ -36638,7 +36629,7 @@
     </row>
     <row r="3603" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3603" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3604" spans="2:7" x14ac:dyDescent="0.2">
@@ -36716,7 +36707,7 @@
     </row>
     <row r="3612" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3612" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3613" spans="2:7" x14ac:dyDescent="0.2">
@@ -36743,7 +36734,7 @@
     </row>
     <row r="3618" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3618" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3619" spans="2:7" x14ac:dyDescent="0.2">
@@ -36821,7 +36812,7 @@
     </row>
     <row r="3628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3628" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3629" spans="2:7" x14ac:dyDescent="0.2">
@@ -36882,7 +36873,7 @@
     </row>
     <row r="3636" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3636" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3637" spans="2:7" x14ac:dyDescent="0.2">
@@ -36938,7 +36929,7 @@
     </row>
     <row r="3642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3642" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3643" spans="2:7" x14ac:dyDescent="0.2">
@@ -37055,7 +37046,7 @@
     </row>
     <row r="3656" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3656" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3657" spans="2:7" x14ac:dyDescent="0.2">
@@ -37094,7 +37085,7 @@
     </row>
     <row r="3661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3661" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3662" spans="2:7" x14ac:dyDescent="0.2">
@@ -37133,7 +37124,7 @@
     </row>
     <row r="3666" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3666" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3667" spans="2:7" x14ac:dyDescent="0.2">
@@ -37274,7 +37265,7 @@
     </row>
     <row r="3677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3677" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3678" spans="2:7" x14ac:dyDescent="0.2">
@@ -37296,7 +37287,7 @@
     </row>
     <row r="3681" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3681" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3682" spans="2:7" x14ac:dyDescent="0.2">
@@ -37374,7 +37365,7 @@
     </row>
     <row r="3690" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3690" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3691" spans="2:7" x14ac:dyDescent="0.2">
@@ -37430,7 +37421,7 @@
     </row>
     <row r="3696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3696" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3697" spans="2:7" x14ac:dyDescent="0.2">
@@ -37661,7 +37652,7 @@
     </row>
     <row r="3714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3714" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3715" spans="2:7" x14ac:dyDescent="0.2">
@@ -37683,7 +37674,7 @@
     </row>
     <row r="3718" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3718" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3719" spans="2:7" x14ac:dyDescent="0.2">
@@ -37705,7 +37696,7 @@
     </row>
     <row r="3722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3722" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3723" spans="2:7" x14ac:dyDescent="0.2">
@@ -37795,7 +37786,7 @@
     </row>
     <row r="3730" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3730" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3731" spans="2:7" x14ac:dyDescent="0.2">
@@ -37822,7 +37813,7 @@
     </row>
     <row r="3736" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3736" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3737" spans="2:7" x14ac:dyDescent="0.2">
@@ -37844,7 +37835,7 @@
     </row>
     <row r="3740" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3740" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3741" spans="2:7" x14ac:dyDescent="0.2">
@@ -37866,7 +37857,7 @@
     </row>
     <row r="3744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3744" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3745" spans="2:7" x14ac:dyDescent="0.2">
@@ -37905,7 +37896,7 @@
     </row>
     <row r="3749" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3749" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3750" spans="2:7" x14ac:dyDescent="0.2">
@@ -38017,7 +38008,7 @@
     </row>
     <row r="3761" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3761" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3762" spans="2:7" x14ac:dyDescent="0.2">
@@ -38039,7 +38030,7 @@
     </row>
     <row r="3765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3765" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3766" spans="2:7" x14ac:dyDescent="0.2">
@@ -38066,7 +38057,7 @@
     </row>
     <row r="3771" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3771" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3772" spans="2:7" x14ac:dyDescent="0.2">
@@ -38144,7 +38135,7 @@
     </row>
     <row r="3780" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3780" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3781" spans="2:7" x14ac:dyDescent="0.2">
@@ -38183,7 +38174,7 @@
     </row>
     <row r="3785" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3785" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3786" spans="2:7" x14ac:dyDescent="0.2">
@@ -38261,7 +38252,7 @@
     </row>
     <row r="3795" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3795" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3796" spans="2:7" x14ac:dyDescent="0.2">
@@ -38475,7 +38466,7 @@
     </row>
     <row r="3812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3812" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3813" spans="2:7" x14ac:dyDescent="0.2">
@@ -38565,7 +38556,7 @@
     </row>
     <row r="3820" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3820" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3821" spans="2:7" x14ac:dyDescent="0.2">
@@ -38660,7 +38651,7 @@
     </row>
     <row r="3830" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3830" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3831" spans="2:7" x14ac:dyDescent="0.2">
@@ -38767,7 +38758,7 @@
     </row>
     <row r="3839" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3839" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3840" spans="2:7" x14ac:dyDescent="0.2">
@@ -38789,7 +38780,7 @@
     </row>
     <row r="3843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3843" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3844" spans="2:7" x14ac:dyDescent="0.2">
@@ -38811,7 +38802,7 @@
     </row>
     <row r="3847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3847" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3848" spans="2:7" x14ac:dyDescent="0.2">
@@ -38855,7 +38846,7 @@
     </row>
     <row r="3855" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3855" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3856" spans="2:7" x14ac:dyDescent="0.2">
@@ -38894,7 +38885,7 @@
     </row>
     <row r="3860" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3860" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3861" spans="2:7" x14ac:dyDescent="0.2">
@@ -38916,7 +38907,7 @@
     </row>
     <row r="3864" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3864" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3865" spans="2:7" x14ac:dyDescent="0.2">
@@ -38982,7 +38973,7 @@
     </row>
     <row r="3875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3875" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3876" spans="2:7" x14ac:dyDescent="0.2">
@@ -39004,7 +38995,7 @@
     </row>
     <row r="3879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3879" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3880" spans="2:7" x14ac:dyDescent="0.2">
@@ -39048,7 +39039,7 @@
     </row>
     <row r="3886" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3886" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3887" spans="2:7" x14ac:dyDescent="0.2">
@@ -39070,7 +39061,7 @@
     </row>
     <row r="3890" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3890" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3891" spans="2:7" x14ac:dyDescent="0.2">
@@ -39109,7 +39100,7 @@
     </row>
     <row r="3895" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3895" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3896" spans="2:7" x14ac:dyDescent="0.2">
@@ -39323,7 +39314,7 @@
     </row>
     <row r="3912" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3912" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3913" spans="2:7" x14ac:dyDescent="0.2">
@@ -39401,7 +39392,7 @@
     </row>
     <row r="3922" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3922" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3923" spans="2:7" x14ac:dyDescent="0.2">
@@ -39491,7 +39482,7 @@
     </row>
     <row r="3930" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3930" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3931" spans="2:7" x14ac:dyDescent="0.2">
@@ -39530,7 +39521,7 @@
     </row>
     <row r="3935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3935" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3936" spans="2:7" x14ac:dyDescent="0.2">
@@ -39591,7 +39582,7 @@
     </row>
     <row r="3943" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3943" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3944" spans="2:7" x14ac:dyDescent="0.2">
@@ -39805,7 +39796,7 @@
     </row>
     <row r="3960" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3960" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3961" spans="2:7" x14ac:dyDescent="0.2">
@@ -39968,7 +39959,7 @@
     </row>
     <row r="3974" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3974" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3975" spans="2:7" x14ac:dyDescent="0.2">
@@ -40216,7 +40207,7 @@
     </row>
     <row r="3993" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3993" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3994" spans="2:7" x14ac:dyDescent="0.2">
@@ -40464,7 +40455,7 @@
     </row>
     <row r="4012" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4012" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4013" spans="2:7" x14ac:dyDescent="0.2">
@@ -40746,7 +40737,7 @@
     </row>
     <row r="4034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4034" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4035" spans="2:7" x14ac:dyDescent="0.2">
@@ -40943,7 +40934,7 @@
     </row>
     <row r="4050" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4050" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4051" spans="2:7" x14ac:dyDescent="0.2">
@@ -40999,7 +40990,7 @@
     </row>
     <row r="4056" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4056" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4057" spans="2:7" x14ac:dyDescent="0.2">
@@ -41077,7 +41068,7 @@
     </row>
     <row r="4066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4066" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4067" spans="2:7" x14ac:dyDescent="0.2">
@@ -41104,7 +41095,7 @@
     </row>
     <row r="4072" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4072" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4073" spans="2:7" x14ac:dyDescent="0.2">
@@ -41505,7 +41496,7 @@
     </row>
     <row r="4100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4100" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4101" spans="2:7" x14ac:dyDescent="0.2">
@@ -41714,7 +41705,7 @@
     </row>
     <row r="4115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4115" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4116" spans="2:7" x14ac:dyDescent="0.2">
@@ -41792,7 +41783,7 @@
     </row>
     <row r="4124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4124" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4125" spans="2:7" x14ac:dyDescent="0.2">
@@ -41984,7 +41975,7 @@
     </row>
     <row r="4138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4139" spans="2:7" x14ac:dyDescent="0.2">
@@ -42006,7 +41997,7 @@
     </row>
     <row r="4142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4142" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4143" spans="2:7" x14ac:dyDescent="0.2">
@@ -42045,7 +42036,7 @@
     </row>
     <row r="4147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4148" spans="2:7" x14ac:dyDescent="0.2">
@@ -42094,7 +42085,7 @@
     </row>
     <row r="4157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4158" spans="2:7" x14ac:dyDescent="0.2">
@@ -42133,7 +42124,7 @@
     </row>
     <row r="4162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4162" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4163" spans="2:7" x14ac:dyDescent="0.2">
@@ -42223,7 +42214,7 @@
     </row>
     <row r="4170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4170" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4171" spans="2:7" x14ac:dyDescent="0.2">
@@ -42318,7 +42309,7 @@
     </row>
     <row r="4181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4181" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4182" spans="2:7" x14ac:dyDescent="0.2">
@@ -42447,7 +42438,7 @@
     </row>
     <row r="4193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4193" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4194" spans="2:7" x14ac:dyDescent="0.2">
@@ -42537,7 +42528,7 @@
     </row>
     <row r="4201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4201" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4202" spans="2:7" x14ac:dyDescent="0.2">
@@ -42559,7 +42550,7 @@
     </row>
     <row r="4205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4205" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4206" spans="2:7" x14ac:dyDescent="0.2">
@@ -42598,7 +42589,7 @@
     </row>
     <row r="4210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4210" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4211" spans="2:7" x14ac:dyDescent="0.2">
@@ -42671,7 +42662,7 @@
     </row>
     <row r="4217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4217" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4218" spans="2:7" x14ac:dyDescent="0.2">
@@ -42693,7 +42684,7 @@
     </row>
     <row r="4221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4221" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4222" spans="2:7" x14ac:dyDescent="0.2">
@@ -42788,7 +42779,7 @@
     </row>
     <row r="4231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4231" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4232" spans="2:7" x14ac:dyDescent="0.2">
@@ -42810,7 +42801,7 @@
     </row>
     <row r="4235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4235" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4236" spans="2:7" x14ac:dyDescent="0.2">
@@ -42849,7 +42840,7 @@
     </row>
     <row r="4240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4240" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4241" spans="2:7" x14ac:dyDescent="0.2">
@@ -43080,7 +43071,7 @@
     </row>
     <row r="4258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4258" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4259" spans="2:7" x14ac:dyDescent="0.2">
@@ -43187,7 +43178,7 @@
     </row>
     <row r="4267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4268" spans="2:7" x14ac:dyDescent="0.2">
@@ -43401,7 +43392,7 @@
     </row>
     <row r="4284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4284" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4285" spans="2:7" x14ac:dyDescent="0.2">
@@ -43513,7 +43504,7 @@
     </row>
     <row r="4295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4295" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4296" spans="2:7" x14ac:dyDescent="0.2">
@@ -43710,7 +43701,7 @@
     </row>
     <row r="4311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4311" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4312" spans="2:7" x14ac:dyDescent="0.2">
@@ -43788,7 +43779,7 @@
     </row>
     <row r="4321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4321" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4322" spans="2:7" x14ac:dyDescent="0.2">
@@ -44160,7 +44151,7 @@
     </row>
     <row r="4350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4350" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4351" spans="2:7" x14ac:dyDescent="0.2">
@@ -44238,7 +44229,7 @@
     </row>
     <row r="4360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4360" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4361" spans="2:7" x14ac:dyDescent="0.2">
@@ -44299,7 +44290,7 @@
     </row>
     <row r="4369" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4369" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4370" spans="2:7" x14ac:dyDescent="0.2">
@@ -44411,7 +44402,7 @@
     </row>
     <row r="4380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4380" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4381" spans="2:7" x14ac:dyDescent="0.2">
@@ -44545,7 +44536,7 @@
     </row>
     <row r="4395" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4395" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4396" spans="2:7" x14ac:dyDescent="0.2">
@@ -44601,7 +44592,7 @@
     </row>
     <row r="4401" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4401" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4402" spans="2:7" x14ac:dyDescent="0.2">
@@ -44640,7 +44631,7 @@
     </row>
     <row r="4406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4406" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4407" spans="2:7" x14ac:dyDescent="0.2">
@@ -44922,7 +44913,7 @@
     </row>
     <row r="4427" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4427" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4428" spans="2:7" x14ac:dyDescent="0.2">
@@ -45153,7 +45144,7 @@
     </row>
     <row r="4445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4445" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4446" spans="2:7" x14ac:dyDescent="0.2">
@@ -45226,7 +45217,7 @@
     </row>
     <row r="4452" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4452" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4453" spans="2:7" x14ac:dyDescent="0.2">
@@ -45248,7 +45239,7 @@
     </row>
     <row r="4456" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4456" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4457" spans="2:7" x14ac:dyDescent="0.2">
@@ -45270,7 +45261,7 @@
     </row>
     <row r="4460" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4460" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4461" spans="2:7" x14ac:dyDescent="0.2">
@@ -45292,7 +45283,7 @@
     </row>
     <row r="4464" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4464" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4465" spans="2:7" x14ac:dyDescent="0.2">
@@ -45341,7 +45332,7 @@
     </row>
     <row r="4474" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4474" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4475" spans="2:7" x14ac:dyDescent="0.2">
@@ -45424,7 +45415,7 @@
     </row>
     <row r="4486" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4486" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4487" spans="2:7" x14ac:dyDescent="0.2">
@@ -45463,7 +45454,7 @@
     </row>
     <row r="4491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4491" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4492" spans="2:7" x14ac:dyDescent="0.2">
@@ -45529,7 +45520,7 @@
     </row>
     <row r="4503" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4503" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4504" spans="2:7" x14ac:dyDescent="0.2">
@@ -45551,7 +45542,7 @@
     </row>
     <row r="4507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4507" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4508" spans="2:7" x14ac:dyDescent="0.2">
@@ -45595,7 +45586,7 @@
     </row>
     <row r="4515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4515" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4516" spans="2:7" x14ac:dyDescent="0.2">
@@ -45724,7 +45715,7 @@
     </row>
     <row r="4527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4527" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4528" spans="2:7" x14ac:dyDescent="0.2">
@@ -45819,7 +45810,7 @@
     </row>
     <row r="4537" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4537" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4538" spans="2:7" x14ac:dyDescent="0.2">
@@ -45960,7 +45951,7 @@
     </row>
     <row r="4548" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4548" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4549" spans="2:7" x14ac:dyDescent="0.2">
@@ -46145,7 +46136,7 @@
     </row>
     <row r="4566" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4566" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4567" spans="2:7" x14ac:dyDescent="0.2">
@@ -46240,7 +46231,7 @@
     </row>
     <row r="4577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4577" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4578" spans="2:7" x14ac:dyDescent="0.2">
@@ -46474,7 +46465,7 @@
     </row>
     <row r="4606" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4606" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4607" spans="2:7" x14ac:dyDescent="0.2">
@@ -46496,7 +46487,7 @@
     </row>
     <row r="4610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4610" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4611" spans="2:7" x14ac:dyDescent="0.2">
@@ -46523,7 +46514,7 @@
     </row>
     <row r="4616" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4616" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4617" spans="2:7" x14ac:dyDescent="0.2">
@@ -46545,7 +46536,7 @@
     </row>
     <row r="4620" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4620" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4621" spans="2:7" x14ac:dyDescent="0.2">
@@ -46567,7 +46558,7 @@
     </row>
     <row r="4624" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4624" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4625" spans="2:7" x14ac:dyDescent="0.2">
@@ -46589,7 +46580,7 @@
     </row>
     <row r="4628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4628" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4629" spans="2:7" x14ac:dyDescent="0.2">
@@ -46655,7 +46646,7 @@
     </row>
     <row r="4639" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4639" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4640" spans="2:7" x14ac:dyDescent="0.2">
@@ -46728,7 +46719,7 @@
     </row>
     <row r="4646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4646" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4647" spans="2:7" x14ac:dyDescent="0.2">
@@ -46784,7 +46775,7 @@
     </row>
     <row r="4652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4652" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4653" spans="2:7" x14ac:dyDescent="0.2">
@@ -46969,7 +46960,7 @@
     </row>
     <row r="4671" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4671" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4672" spans="2:7" x14ac:dyDescent="0.2">
@@ -46996,7 +46987,7 @@
     </row>
     <row r="4677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4677" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4678" spans="2:7" x14ac:dyDescent="0.2">
@@ -47035,7 +47026,7 @@
     </row>
     <row r="4682" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4682" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4683" spans="2:7" x14ac:dyDescent="0.2">
@@ -47123,7 +47114,7 @@
     </row>
     <row r="4697" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4697" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4698" spans="2:7" x14ac:dyDescent="0.2">
@@ -47189,7 +47180,7 @@
     </row>
     <row r="4708" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4708" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4709" spans="2:7" x14ac:dyDescent="0.2">
@@ -47228,7 +47219,7 @@
     </row>
     <row r="4713" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4713" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4714" spans="2:7" x14ac:dyDescent="0.2">
@@ -47289,7 +47280,7 @@
     </row>
     <row r="4722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4722" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4723" spans="2:7" x14ac:dyDescent="0.2">
@@ -47384,7 +47375,7 @@
     </row>
     <row r="4732" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4732" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4733" spans="2:7" x14ac:dyDescent="0.2">
@@ -47479,7 +47470,7 @@
     </row>
     <row r="4742" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4742" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4743" spans="2:7" x14ac:dyDescent="0.2">
@@ -47501,7 +47492,7 @@
     </row>
     <row r="4746" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4746" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4747" spans="2:7" x14ac:dyDescent="0.2">
@@ -47579,7 +47570,7 @@
     </row>
     <row r="4756" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4756" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4757" spans="2:7" x14ac:dyDescent="0.2">
@@ -47718,7 +47709,7 @@
     </row>
     <row r="4775" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4775" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4776" spans="2:7" x14ac:dyDescent="0.2">
@@ -47745,7 +47736,7 @@
     </row>
     <row r="4781" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4781" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4782" spans="2:7" x14ac:dyDescent="0.2">
@@ -47896,7 +47887,7 @@
     </row>
     <row r="4797" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4797" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4798" spans="2:7" x14ac:dyDescent="0.2">
@@ -48003,7 +47994,7 @@
     </row>
     <row r="4806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4806" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4807" spans="2:7" x14ac:dyDescent="0.2">
@@ -48086,7 +48077,7 @@
     </row>
     <row r="4819" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4819" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4820" spans="2:7" x14ac:dyDescent="0.2">
@@ -48147,7 +48138,7 @@
     </row>
     <row r="4828" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4828" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4829" spans="2:7" x14ac:dyDescent="0.2">
@@ -48235,7 +48226,7 @@
     </row>
     <row r="4843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4843" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4844" spans="2:7" x14ac:dyDescent="0.2">
@@ -48257,7 +48248,7 @@
     </row>
     <row r="4847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4847" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4848" spans="2:7" x14ac:dyDescent="0.2">
@@ -48403,7 +48394,7 @@
     </row>
     <row r="4861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4861" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4862" spans="2:7" x14ac:dyDescent="0.2">
@@ -48430,7 +48421,7 @@
     </row>
     <row r="4867" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4867" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4868" spans="2:7" x14ac:dyDescent="0.2">
@@ -48537,7 +48528,7 @@
     </row>
     <row r="4876" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4876" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4877" spans="2:7" x14ac:dyDescent="0.2">
@@ -48559,7 +48550,7 @@
     </row>
     <row r="4880" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4880" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4881" spans="2:7" x14ac:dyDescent="0.2">
@@ -48637,7 +48628,7 @@
     </row>
     <row r="4889" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4889" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4890" spans="2:7" x14ac:dyDescent="0.2">
@@ -48771,7 +48762,7 @@
     </row>
     <row r="4904" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4904" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4905" spans="2:7" x14ac:dyDescent="0.2">
@@ -48973,7 +48964,7 @@
     </row>
     <row r="4923" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4923" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4924" spans="2:7" x14ac:dyDescent="0.2">
@@ -49095,7 +49086,7 @@
     </row>
     <row r="4940" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4940" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4941" spans="2:7" x14ac:dyDescent="0.2">
@@ -49217,7 +49208,7 @@
     </row>
     <row r="4957" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4957" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4958" spans="2:7" x14ac:dyDescent="0.2">
@@ -49261,7 +49252,7 @@
     </row>
     <row r="4965" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4965" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4966" spans="2:7" x14ac:dyDescent="0.2">
@@ -49300,7 +49291,7 @@
     </row>
     <row r="4970" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4970" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4971" spans="2:7" x14ac:dyDescent="0.2">
@@ -49322,7 +49313,7 @@
     </row>
     <row r="4974" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4974" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4975" spans="2:7" x14ac:dyDescent="0.2">
@@ -49417,7 +49408,7 @@
     </row>
     <row r="4985" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4985" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4986" spans="2:7" x14ac:dyDescent="0.2">
@@ -49439,7 +49430,7 @@
     </row>
     <row r="4989" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4989" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4990" spans="2:7" x14ac:dyDescent="0.2">
@@ -49466,7 +49457,7 @@
     </row>
     <row r="4995" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4995" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4996" spans="2:7" x14ac:dyDescent="0.2">
@@ -49605,7 +49596,7 @@
     </row>
     <row r="5013" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5013" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5014" spans="2:7" x14ac:dyDescent="0.2">
@@ -49644,7 +49635,7 @@
     </row>
     <row r="5018" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5018" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5019" spans="2:7" x14ac:dyDescent="0.2">
@@ -49700,7 +49691,7 @@
     </row>
     <row r="5024" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5024" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5025" spans="2:7" x14ac:dyDescent="0.2">
@@ -49805,7 +49796,7 @@
     </row>
     <row r="5040" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5040" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5041" spans="2:7" x14ac:dyDescent="0.2">
@@ -49878,7 +49869,7 @@
     </row>
     <row r="5047" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5047" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5048" spans="2:7" x14ac:dyDescent="0.2">
@@ -49961,7 +49952,7 @@
     </row>
     <row r="5060" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5060" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5061" spans="2:7" x14ac:dyDescent="0.2">
@@ -50027,7 +50018,7 @@
     </row>
     <row r="5071" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5071" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5072" spans="2:7" x14ac:dyDescent="0.2">
@@ -50066,7 +50057,7 @@
     </row>
     <row r="5076" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5076" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5077" spans="2:7" x14ac:dyDescent="0.2">
@@ -50127,7 +50118,7 @@
     </row>
     <row r="5085" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5085" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5086" spans="2:7" x14ac:dyDescent="0.2">
@@ -50344,7 +50335,7 @@
     </row>
     <row r="5112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5113" spans="2:7" x14ac:dyDescent="0.2">
@@ -50427,7 +50418,7 @@
     </row>
     <row r="5124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5125" spans="2:7" x14ac:dyDescent="0.2">
@@ -50449,7 +50440,7 @@
     </row>
     <row r="5128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5128" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5129" spans="2:7" x14ac:dyDescent="0.2">
@@ -50544,7 +50535,7 @@
     </row>
     <row r="5138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5138" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5139" spans="2:7" x14ac:dyDescent="0.2">
@@ -50566,7 +50557,7 @@
     </row>
     <row r="5142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5143" spans="2:7" x14ac:dyDescent="0.2">
@@ -50688,7 +50679,7 @@
     </row>
     <row r="5159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5160" spans="2:7" x14ac:dyDescent="0.2">
@@ -51037,7 +51028,7 @@
     </row>
     <row r="5207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5207" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5208" spans="2:7" x14ac:dyDescent="0.2">
@@ -51064,7 +51055,7 @@
     </row>
     <row r="5213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5213" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5214" spans="2:7" x14ac:dyDescent="0.2">
@@ -51103,7 +51094,7 @@
     </row>
     <row r="5218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5218" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5219" spans="2:7" x14ac:dyDescent="0.2">
@@ -51142,7 +51133,7 @@
     </row>
     <row r="5223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5223" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5224" spans="2:7" x14ac:dyDescent="0.2">
@@ -51242,7 +51233,7 @@
     </row>
     <row r="5236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5236" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5237" spans="2:7" x14ac:dyDescent="0.2">
@@ -51286,7 +51277,7 @@
     </row>
     <row r="5244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5244" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5245" spans="2:7" x14ac:dyDescent="0.2">
@@ -51340,7 +51331,7 @@
     </row>
     <row r="5256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5256" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5257" spans="2:7" x14ac:dyDescent="0.2">
@@ -51396,7 +51387,7 @@
     </row>
     <row r="5262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5262" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5263" spans="2:7" x14ac:dyDescent="0.2">
@@ -51435,7 +51426,7 @@
     </row>
     <row r="5267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5267" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5268" spans="2:7" x14ac:dyDescent="0.2">
@@ -51501,7 +51492,7 @@
     </row>
     <row r="5278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5278" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5279" spans="2:7" x14ac:dyDescent="0.2">
@@ -51523,7 +51514,7 @@
     </row>
     <row r="5282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5282" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5283" spans="2:7" x14ac:dyDescent="0.2">
@@ -51579,7 +51570,7 @@
     </row>
     <row r="5288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5288" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5289" spans="2:7" x14ac:dyDescent="0.2">
@@ -51669,7 +51660,7 @@
     </row>
     <row r="5296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5296" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5297" spans="2:7" x14ac:dyDescent="0.2">
@@ -51735,7 +51726,7 @@
     </row>
     <row r="5307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5307" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5308" spans="2:7" x14ac:dyDescent="0.2">
@@ -51774,7 +51765,7 @@
     </row>
     <row r="5312" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5312" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5313" spans="2:7" x14ac:dyDescent="0.2">
@@ -51908,7 +51899,7 @@
     </row>
     <row r="5327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5327" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5328" spans="2:7" x14ac:dyDescent="0.2">
@@ -51947,7 +51938,7 @@
     </row>
     <row r="5332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5332" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5333" spans="2:7" x14ac:dyDescent="0.2">
@@ -52047,7 +52038,7 @@
     </row>
     <row r="5345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5345" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5346" spans="2:7" x14ac:dyDescent="0.2">
@@ -52108,7 +52099,7 @@
     </row>
     <row r="5354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5354" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5355" spans="2:7" x14ac:dyDescent="0.2">
@@ -52186,7 +52177,7 @@
     </row>
     <row r="5363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5363" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5364" spans="2:7" x14ac:dyDescent="0.2">
@@ -52286,7 +52277,7 @@
     </row>
     <row r="5376" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5376" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5377" spans="2:7" x14ac:dyDescent="0.2">
@@ -52308,7 +52299,7 @@
     </row>
     <row r="5380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5380" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5381" spans="2:7" x14ac:dyDescent="0.2">
@@ -52330,7 +52321,7 @@
     </row>
     <row r="5384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5384" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5385" spans="2:7" x14ac:dyDescent="0.2">
@@ -52430,7 +52421,7 @@
     </row>
     <row r="5397" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5397" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5398" spans="2:7" x14ac:dyDescent="0.2">
@@ -52486,7 +52477,7 @@
     </row>
     <row r="5403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5403" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5404" spans="2:7" x14ac:dyDescent="0.2">
@@ -52603,7 +52594,7 @@
     </row>
     <row r="5417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5417" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5418" spans="2:7" x14ac:dyDescent="0.2">
@@ -52625,7 +52616,7 @@
     </row>
     <row r="5421" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5421" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5422" spans="2:7" x14ac:dyDescent="0.2">
@@ -52647,7 +52638,7 @@
     </row>
     <row r="5425" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5425" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5426" spans="2:7" x14ac:dyDescent="0.2">
@@ -52669,7 +52660,7 @@
     </row>
     <row r="5429" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5429" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5430" spans="2:7" x14ac:dyDescent="0.2">
@@ -52691,7 +52682,7 @@
     </row>
     <row r="5433" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5433" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5434" spans="2:7" x14ac:dyDescent="0.2">
@@ -52803,7 +52794,7 @@
     </row>
     <row r="5445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5445" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5446" spans="2:7" x14ac:dyDescent="0.2">
@@ -52830,7 +52821,7 @@
     </row>
     <row r="5451" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5451" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5452" spans="2:7" x14ac:dyDescent="0.2">
@@ -52852,7 +52843,7 @@
     </row>
     <row r="5455" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5455" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5456" spans="2:7" x14ac:dyDescent="0.2">
@@ -52874,7 +52865,7 @@
     </row>
     <row r="5459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5459" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5460" spans="2:7" x14ac:dyDescent="0.2">
@@ -52896,7 +52887,7 @@
     </row>
     <row r="5463" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5463" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5464" spans="2:7" x14ac:dyDescent="0.2">
@@ -52918,7 +52909,7 @@
     </row>
     <row r="5467" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5467" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5468" spans="2:7" x14ac:dyDescent="0.2">
@@ -52940,7 +52931,7 @@
     </row>
     <row r="5471" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5471" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5472" spans="2:7" x14ac:dyDescent="0.2">
@@ -52979,7 +52970,7 @@
     </row>
     <row r="5476" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5476" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5477" spans="2:7" x14ac:dyDescent="0.2">
@@ -53113,7 +53104,7 @@
     </row>
     <row r="5491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5491" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5492" spans="2:7" x14ac:dyDescent="0.2">
@@ -53140,7 +53131,7 @@
     </row>
     <row r="5497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5497" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5498" spans="2:7" x14ac:dyDescent="0.2">
@@ -53235,7 +53226,7 @@
     </row>
     <row r="5507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5507" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5508" spans="2:7" x14ac:dyDescent="0.2">
@@ -53330,7 +53321,7 @@
     </row>
     <row r="5517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5517" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5518" spans="2:7" x14ac:dyDescent="0.2">
@@ -53369,7 +53360,7 @@
     </row>
     <row r="5522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5522" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5523" spans="2:7" x14ac:dyDescent="0.2">
@@ -53435,7 +53426,7 @@
     </row>
     <row r="5533" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5533" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5534" spans="2:7" x14ac:dyDescent="0.2">
@@ -53491,7 +53482,7 @@
     </row>
     <row r="5539" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5539" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5540" spans="2:7" x14ac:dyDescent="0.2">
@@ -53513,7 +53504,7 @@
     </row>
     <row r="5543" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5543" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5544" spans="2:7" x14ac:dyDescent="0.2">
@@ -53569,7 +53560,7 @@
     </row>
     <row r="5549" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5549" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5550" spans="2:7" x14ac:dyDescent="0.2">
@@ -53596,7 +53587,7 @@
     </row>
     <row r="5555" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5555" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5556" spans="2:7" x14ac:dyDescent="0.2">
@@ -53720,7 +53711,7 @@
     </row>
     <row r="5565" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5565" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5566" spans="2:7" x14ac:dyDescent="0.2">
@@ -53759,7 +53750,7 @@
     </row>
     <row r="5570" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5570" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5571" spans="2:7" x14ac:dyDescent="0.2">
@@ -53832,7 +53823,7 @@
     </row>
     <row r="5577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5577" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5578" spans="2:7" x14ac:dyDescent="0.2">
@@ -53854,7 +53845,7 @@
     </row>
     <row r="5581" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5581" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5582" spans="2:7" x14ac:dyDescent="0.2">
@@ -53915,7 +53906,7 @@
     </row>
     <row r="5590" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5590" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5591" spans="2:7" x14ac:dyDescent="0.2">
@@ -53937,7 +53928,7 @@
     </row>
     <row r="5594" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5594" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5595" spans="2:7" x14ac:dyDescent="0.2">
@@ -53964,7 +53955,7 @@
     </row>
     <row r="5600" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5600" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5601" spans="2:7" x14ac:dyDescent="0.2">
@@ -54088,7 +54079,7 @@
     </row>
     <row r="5610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5610" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5611" spans="2:7" x14ac:dyDescent="0.2">
@@ -54110,7 +54101,7 @@
     </row>
     <row r="5614" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5614" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5615" spans="2:7" x14ac:dyDescent="0.2">
@@ -54171,7 +54162,7 @@
     </row>
     <row r="5623" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5623" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5624" spans="2:7" x14ac:dyDescent="0.2">
@@ -54298,7 +54289,7 @@
     </row>
     <row r="5642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5642" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5643" spans="2:7" x14ac:dyDescent="0.2">
@@ -54354,7 +54345,7 @@
     </row>
     <row r="5648" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5648" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5649" spans="2:7" x14ac:dyDescent="0.2">
@@ -54376,7 +54367,7 @@
     </row>
     <row r="5652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5652" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5653" spans="2:7" x14ac:dyDescent="0.2">
@@ -54483,7 +54474,7 @@
     </row>
     <row r="5661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5661" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5662" spans="2:7" x14ac:dyDescent="0.2">
@@ -54595,7 +54586,7 @@
     </row>
     <row r="5673" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5673" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5674" spans="2:7" x14ac:dyDescent="0.2">
@@ -54622,7 +54613,7 @@
     </row>
     <row r="5679" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5679" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5680" spans="2:7" x14ac:dyDescent="0.2">
@@ -54644,7 +54635,7 @@
     </row>
     <row r="5683" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5683" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5684" spans="2:7" x14ac:dyDescent="0.2">
@@ -54722,7 +54713,7 @@
     </row>
     <row r="5693" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5693" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5694" spans="2:7" x14ac:dyDescent="0.2">
@@ -54771,7 +54762,7 @@
     </row>
     <row r="5703" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5703" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5704" spans="2:7" x14ac:dyDescent="0.2">
@@ -54827,7 +54818,7 @@
     </row>
     <row r="5709" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5709" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5710" spans="2:7" x14ac:dyDescent="0.2">
@@ -54866,7 +54857,7 @@
     </row>
     <row r="5714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5714" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5715" spans="2:7" x14ac:dyDescent="0.2">
@@ -54939,7 +54930,7 @@
     </row>
     <row r="5721" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5721" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5722" spans="2:7" x14ac:dyDescent="0.2">
@@ -54961,7 +54952,7 @@
     </row>
     <row r="5725" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5725" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5726" spans="2:7" x14ac:dyDescent="0.2">
@@ -54988,7 +54979,7 @@
     </row>
     <row r="5731" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5731" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5732" spans="2:7" x14ac:dyDescent="0.2">
@@ -55010,7 +55001,7 @@
     </row>
     <row r="5735" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5735" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5736" spans="2:7" x14ac:dyDescent="0.2">
@@ -55032,7 +55023,7 @@
     </row>
     <row r="5739" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5739" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5740" spans="2:7" x14ac:dyDescent="0.2">
@@ -55071,7 +55062,7 @@
     </row>
     <row r="5744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5744" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5745" spans="2:7" x14ac:dyDescent="0.2">
@@ -55166,7 +55157,7 @@
     </row>
     <row r="5755" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5755" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5756" spans="2:7" x14ac:dyDescent="0.2">
@@ -55188,7 +55179,7 @@
     </row>
     <row r="5759" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5759" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5760" spans="2:7" x14ac:dyDescent="0.2">
@@ -55244,7 +55235,7 @@
     </row>
     <row r="5765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5765" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5766" spans="2:7" x14ac:dyDescent="0.2">
@@ -55322,7 +55313,7 @@
     </row>
     <row r="5774" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5774" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5775" spans="2:7" x14ac:dyDescent="0.2">
@@ -55405,7 +55396,7 @@
     </row>
     <row r="5786" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5786" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5787" spans="2:7" x14ac:dyDescent="0.2">
@@ -55427,7 +55418,7 @@
     </row>
     <row r="5790" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5790" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5791" spans="2:7" x14ac:dyDescent="0.2">
@@ -55449,7 +55440,7 @@
     </row>
     <row r="5794" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5794" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5795" spans="2:7" x14ac:dyDescent="0.2">
@@ -55505,7 +55496,7 @@
     </row>
     <row r="5800" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5800" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5801" spans="2:7" x14ac:dyDescent="0.2">
@@ -55561,7 +55552,7 @@
     </row>
     <row r="5806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5806" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5807" spans="2:7" x14ac:dyDescent="0.2">
@@ -55617,7 +55608,7 @@
     </row>
     <row r="5812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5812" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5813" spans="2:7" x14ac:dyDescent="0.2">
@@ -55717,7 +55708,7 @@
     </row>
     <row r="5825" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5825" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5826" spans="2:7" x14ac:dyDescent="0.2">
@@ -55892,7 +55883,7 @@
     </row>
     <row r="5838" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5838" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5839" spans="2:7" x14ac:dyDescent="0.2">
@@ -56055,7 +56046,7 @@
     </row>
     <row r="5852" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5852" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5853" spans="2:7" x14ac:dyDescent="0.2">
@@ -56073,7 +56064,7 @@
     </row>
     <row r="5857" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5857" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5858" spans="2:7" x14ac:dyDescent="0.2">
@@ -56095,7 +56086,7 @@
     </row>
     <row r="5861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5861" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5862" spans="2:7" x14ac:dyDescent="0.2">
@@ -56139,7 +56130,7 @@
     </row>
     <row r="5868" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5868" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5869" spans="2:7" x14ac:dyDescent="0.2">
@@ -56212,7 +56203,7 @@
     </row>
     <row r="5875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5875" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5876" spans="2:7" x14ac:dyDescent="0.2">
@@ -56234,7 +56225,7 @@
     </row>
     <row r="5879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5879" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5880" spans="2:7" x14ac:dyDescent="0.2">
@@ -56312,7 +56303,7 @@
     </row>
     <row r="5888" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5888" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5889" spans="2:7" x14ac:dyDescent="0.2">
@@ -56390,7 +56381,7 @@
     </row>
     <row r="5897" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5897" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5898" spans="2:7" x14ac:dyDescent="0.2">
@@ -56524,7 +56515,7 @@
     </row>
     <row r="5913" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5913" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5914" spans="2:7" x14ac:dyDescent="0.2">
@@ -56580,7 +56571,7 @@
     </row>
     <row r="5919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5919" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5920" spans="2:7" x14ac:dyDescent="0.2">
@@ -56619,7 +56610,7 @@
     </row>
     <row r="5924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5924" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5925" spans="2:7" x14ac:dyDescent="0.2">
@@ -56685,7 +56676,7 @@
     </row>
     <row r="5935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5935" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5936" spans="2:7" x14ac:dyDescent="0.2">
@@ -56763,7 +56754,7 @@
     </row>
     <row r="5945" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5945" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5946" spans="2:7" x14ac:dyDescent="0.2">
@@ -56785,7 +56776,7 @@
     </row>
     <row r="5949" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5949" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5950" spans="2:7" x14ac:dyDescent="0.2">
@@ -56868,7 +56859,7 @@
     </row>
     <row r="5961" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5961" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5962" spans="2:7" x14ac:dyDescent="0.2">
@@ -56907,7 +56898,7 @@
     </row>
     <row r="5966" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5966" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5967" spans="2:7" x14ac:dyDescent="0.2">
@@ -56946,7 +56937,7 @@
     </row>
     <row r="5971" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5971" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5972" spans="2:7" x14ac:dyDescent="0.2">
@@ -56990,7 +56981,7 @@
     </row>
     <row r="5979" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5979" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5980" spans="2:7" x14ac:dyDescent="0.2">
@@ -57034,7 +57025,7 @@
     </row>
     <row r="5987" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5987" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5988" spans="2:7" x14ac:dyDescent="0.2">
@@ -57083,7 +57074,7 @@
     </row>
     <row r="5997" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5997" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5998" spans="2:7" x14ac:dyDescent="0.2">
@@ -57122,7 +57113,7 @@
     </row>
     <row r="6002" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6002" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6003" spans="2:7" x14ac:dyDescent="0.2">
@@ -57200,7 +57191,7 @@
     </row>
     <row r="6012" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6012" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6013" spans="2:7" x14ac:dyDescent="0.2">
@@ -57239,7 +57230,7 @@
     </row>
     <row r="6017" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6017" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6018" spans="2:7" x14ac:dyDescent="0.2">
@@ -57305,7 +57296,7 @@
     </row>
     <row r="6028" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6028" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6029" spans="2:7" x14ac:dyDescent="0.2">
@@ -57361,7 +57352,7 @@
     </row>
     <row r="6034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6034" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6035" spans="2:7" x14ac:dyDescent="0.2">
@@ -57451,7 +57442,7 @@
     </row>
     <row r="6042" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6042" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6043" spans="2:7" x14ac:dyDescent="0.2">
@@ -57473,7 +57464,7 @@
     </row>
     <row r="6046" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6046" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6047" spans="2:7" x14ac:dyDescent="0.2">
@@ -57546,7 +57537,7 @@
     </row>
     <row r="6053" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6053" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6054" spans="2:7" x14ac:dyDescent="0.2">
@@ -57624,7 +57615,7 @@
     </row>
     <row r="6062" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6062" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6063" spans="2:7" x14ac:dyDescent="0.2">
@@ -57668,7 +57659,7 @@
     </row>
     <row r="6070" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6070" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6071" spans="2:7" x14ac:dyDescent="0.2">
@@ -57707,7 +57698,7 @@
     </row>
     <row r="6075" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6075" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6076" spans="2:7" x14ac:dyDescent="0.2">
@@ -57768,7 +57759,7 @@
     </row>
     <row r="6084" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6084" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6085" spans="2:7" x14ac:dyDescent="0.2">
@@ -57841,7 +57832,7 @@
     </row>
     <row r="6091" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6091" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6092" spans="2:7" x14ac:dyDescent="0.2">
@@ -57885,7 +57876,7 @@
     </row>
     <row r="6098" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6098" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6099" spans="2:7" x14ac:dyDescent="0.2">
@@ -57907,7 +57898,7 @@
     </row>
     <row r="6102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6102" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6103" spans="2:7" x14ac:dyDescent="0.2">
@@ -57929,7 +57920,7 @@
     </row>
     <row r="6106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6106" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6107" spans="2:7" x14ac:dyDescent="0.2">
@@ -58075,7 +58066,7 @@
     </row>
     <row r="6120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6120" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6121" spans="2:7" x14ac:dyDescent="0.2">
@@ -58175,7 +58166,7 @@
     </row>
     <row r="6133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6133" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6134" spans="2:7" x14ac:dyDescent="0.2">
@@ -58214,7 +58205,7 @@
     </row>
     <row r="6138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6138" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6139" spans="2:7" x14ac:dyDescent="0.2">
@@ -58253,7 +58244,7 @@
     </row>
     <row r="6143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6143" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6144" spans="2:7" x14ac:dyDescent="0.2">
@@ -58292,7 +58283,7 @@
     </row>
     <row r="6148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6148" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6149" spans="2:7" x14ac:dyDescent="0.2">
@@ -58380,7 +58371,7 @@
     </row>
     <row r="6163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6163" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6164" spans="2:7" x14ac:dyDescent="0.2">
@@ -58419,7 +58410,7 @@
     </row>
     <row r="6168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6168" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6169" spans="2:7" x14ac:dyDescent="0.2">
@@ -58441,7 +58432,7 @@
     </row>
     <row r="6172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6172" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6173" spans="2:7" x14ac:dyDescent="0.2">
@@ -58536,7 +58527,7 @@
     </row>
     <row r="6182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6182" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6183" spans="2:7" x14ac:dyDescent="0.2">
@@ -58631,7 +58622,7 @@
     </row>
     <row r="6193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6193" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6194" spans="2:7" x14ac:dyDescent="0.2">
@@ -58653,7 +58644,7 @@
     </row>
     <row r="6197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6197" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6198" spans="2:7" x14ac:dyDescent="0.2">
@@ -58675,7 +58666,7 @@
     </row>
     <row r="6201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6201" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6202" spans="2:7" x14ac:dyDescent="0.2">
@@ -58702,7 +58693,7 @@
     </row>
     <row r="6207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6207" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6208" spans="2:7" x14ac:dyDescent="0.2">
@@ -58741,7 +58732,7 @@
     </row>
     <row r="6212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6212" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6213" spans="2:7" x14ac:dyDescent="0.2">
@@ -58780,7 +58771,7 @@
     </row>
     <row r="6217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6217" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6218" spans="2:7" x14ac:dyDescent="0.2">
@@ -58802,7 +58793,7 @@
     </row>
     <row r="6221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6221" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6222" spans="2:7" x14ac:dyDescent="0.2">
@@ -58880,7 +58871,7 @@
     </row>
     <row r="6230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6230" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6231" spans="2:7" x14ac:dyDescent="0.2">
@@ -58936,7 +58927,7 @@
     </row>
     <row r="6236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6236" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6237" spans="2:7" x14ac:dyDescent="0.2">
@@ -58980,7 +58971,7 @@
     </row>
     <row r="6243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6243" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6244" spans="2:7" x14ac:dyDescent="0.2">
@@ -59002,7 +58993,7 @@
     </row>
     <row r="6247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6247" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6248" spans="2:7" x14ac:dyDescent="0.2">
@@ -59041,7 +59032,7 @@
     </row>
     <row r="6252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6252" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6253" spans="2:7" x14ac:dyDescent="0.2">
@@ -59085,7 +59076,7 @@
     </row>
     <row r="6260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6260" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6261" spans="2:7" x14ac:dyDescent="0.2">
@@ -59146,7 +59137,7 @@
     </row>
     <row r="6269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6269" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6270" spans="2:7" x14ac:dyDescent="0.2">
@@ -59202,7 +59193,7 @@
     </row>
     <row r="6275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6275" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6276" spans="2:7" x14ac:dyDescent="0.2">
@@ -59229,7 +59220,7 @@
     </row>
     <row r="6281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6281" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6282" spans="2:7" x14ac:dyDescent="0.2">
@@ -59285,7 +59276,7 @@
     </row>
     <row r="6287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6287" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6288" spans="2:7" x14ac:dyDescent="0.2">
@@ -59363,7 +59354,7 @@
     </row>
     <row r="6297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6297" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6298" spans="2:7" x14ac:dyDescent="0.2">
@@ -59385,7 +59376,7 @@
     </row>
     <row r="6301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6301" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6302" spans="2:7" x14ac:dyDescent="0.2">
@@ -59412,7 +59403,7 @@
     </row>
     <row r="6307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6307" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6308" spans="2:7" x14ac:dyDescent="0.2">
@@ -59434,7 +59425,7 @@
     </row>
     <row r="6311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6311" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6312" spans="2:7" x14ac:dyDescent="0.2">
@@ -59495,7 +59486,7 @@
     </row>
     <row r="6320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6320" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6321" spans="2:7" x14ac:dyDescent="0.2">
@@ -59517,7 +59508,7 @@
     </row>
     <row r="6324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6324" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6325" spans="2:7" x14ac:dyDescent="0.2">
@@ -59556,7 +59547,7 @@
     </row>
     <row r="6329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6329" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6330" spans="2:7" x14ac:dyDescent="0.2">
@@ -59578,7 +59569,7 @@
     </row>
     <row r="6333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6333" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6334" spans="2:7" x14ac:dyDescent="0.2">
@@ -59707,7 +59698,7 @@
     </row>
     <row r="6346" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6346" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6347" spans="2:7" x14ac:dyDescent="0.2">
@@ -59768,7 +59759,7 @@
     </row>
     <row r="6354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6354" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6355" spans="2:7" x14ac:dyDescent="0.2">
@@ -59824,7 +59815,7 @@
     </row>
     <row r="6360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6360" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6361" spans="2:7" x14ac:dyDescent="0.2">
@@ -59846,7 +59837,7 @@
     </row>
     <row r="6364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6364" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6365" spans="2:7" x14ac:dyDescent="0.2">
@@ -59868,7 +59859,7 @@
     </row>
     <row r="6368" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6368" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6369" spans="2:7" x14ac:dyDescent="0.2">
@@ -59951,7 +59942,7 @@
     </row>
     <row r="6380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6380" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6381" spans="2:7" x14ac:dyDescent="0.2">
@@ -59973,7 +59964,7 @@
     </row>
     <row r="6384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6384" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6385" spans="2:7" x14ac:dyDescent="0.2">
@@ -59995,7 +59986,7 @@
     </row>
     <row r="6388" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6388" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6389" spans="2:7" x14ac:dyDescent="0.2">
@@ -60017,7 +60008,7 @@
     </row>
     <row r="6392" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6392" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6393" spans="2:7" x14ac:dyDescent="0.2">
@@ -60039,7 +60030,7 @@
     </row>
     <row r="6396" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6396" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6397" spans="2:7" x14ac:dyDescent="0.2">
@@ -60061,7 +60052,7 @@
     </row>
     <row r="6400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6400" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6401" spans="2:7" x14ac:dyDescent="0.2">
@@ -60083,7 +60074,7 @@
     </row>
     <row r="6404" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6404" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6405" spans="2:7" x14ac:dyDescent="0.2">
@@ -60122,7 +60113,7 @@
     </row>
     <row r="6409" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6409" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6410" spans="2:7" x14ac:dyDescent="0.2">
@@ -60144,7 +60135,7 @@
     </row>
     <row r="6413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6413" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6414" spans="2:7" x14ac:dyDescent="0.2">
@@ -60166,7 +60157,7 @@
     </row>
     <row r="6417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6417" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6418" spans="2:7" x14ac:dyDescent="0.2">

--- a/data/masterlistdatacopy.xlsx
+++ b/data/masterlistdatacopy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehrakaya/Documents/GitHub/study-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64460EEC-C9B0-D041-8D72-B0796DD8785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C648DA-FE1D-4C4E-9C46-EBD18F4BD829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="1060" windowWidth="24000" windowHeight="16940" xr2:uid="{DEF68C45-6EF4-C54D-A0C4-D2FF29DE90DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="413">
   <si>
     <t>--- 22 January Sun ---</t>
   </si>
@@ -1040,9 +1040,6 @@
     <t xml:space="preserve">General </t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>Violin Course</t>
   </si>
   <si>
@@ -1187,9 +1184,6 @@
     <t>Personal statement</t>
   </si>
   <si>
-    <t>Listening podcast / news…</t>
-  </si>
-  <si>
     <t>Study Reading 📖</t>
   </si>
   <si>
@@ -1278,6 +1272,9 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>Chores</t>
   </si>
 </sst>
 </file>
@@ -1633,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C6BFD7-D7FA-AE4E-90F7-62CC941DE68E}">
   <dimension ref="A1:G6425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4646" workbookViewId="0">
-      <selection activeCell="B4671" sqref="B4671"/>
+    <sheetView tabSelected="1" topLeftCell="A4948" workbookViewId="0">
+      <selection activeCell="B4985" sqref="B4985"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9914,7 +9911,7 @@
     </row>
     <row r="899" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="900" spans="2:7" x14ac:dyDescent="0.2">
@@ -10238,7 +10235,7 @@
     </row>
     <row r="935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="936" spans="2:7" x14ac:dyDescent="0.2">
@@ -10998,7 +10995,7 @@
     </row>
     <row r="1019" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1019" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1020" spans="2:7" x14ac:dyDescent="0.2">
@@ -11081,7 +11078,7 @@
     </row>
     <row r="1031" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1031" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1032" spans="2:7" x14ac:dyDescent="0.2">
@@ -11215,7 +11212,7 @@
     </row>
     <row r="1047" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1047" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1048" spans="2:7" x14ac:dyDescent="0.2">
@@ -11870,7 +11867,7 @@
     </row>
     <row r="1115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1115" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1116" spans="2:7" x14ac:dyDescent="0.2">
@@ -12089,7 +12086,7 @@
     </row>
     <row r="1135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1135" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="1136" spans="2:7" x14ac:dyDescent="0.2">
@@ -15146,7 +15143,7 @@
     </row>
     <row r="1469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1469" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1470" spans="2:7" x14ac:dyDescent="0.2">
@@ -16106,7 +16103,7 @@
     </row>
     <row r="1578" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1578" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1579" spans="2:7" x14ac:dyDescent="0.2">
@@ -17178,7 +17175,7 @@
     </row>
     <row r="1700" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1700" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1701" spans="2:7" x14ac:dyDescent="0.2">
@@ -17351,7 +17348,7 @@
     </row>
     <row r="1720" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1720" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1721" spans="2:7" x14ac:dyDescent="0.2">
@@ -17746,7 +17743,7 @@
     </row>
     <row r="1770" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1770" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1771" spans="2:7" x14ac:dyDescent="0.2">
@@ -18224,7 +18221,7 @@
     </row>
     <row r="1833" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1833" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1834" spans="2:7" x14ac:dyDescent="0.2">
@@ -18397,7 +18394,7 @@
     </row>
     <row r="1853" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1853" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1854" spans="2:7" x14ac:dyDescent="0.2">
@@ -18909,7 +18906,7 @@
     </row>
     <row r="1918" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1918" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1919" spans="2:7" x14ac:dyDescent="0.2">
@@ -19225,7 +19222,7 @@
     </row>
     <row r="1941" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1941" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1942" spans="2:7" x14ac:dyDescent="0.2">
@@ -19405,7 +19402,7 @@
     </row>
     <row r="1957" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1957" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1958" spans="2:7" x14ac:dyDescent="0.2">
@@ -19432,7 +19429,7 @@
     </row>
     <row r="1963" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1963" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1964" spans="2:7" x14ac:dyDescent="0.2">
@@ -19542,7 +19539,7 @@
     </row>
     <row r="1982" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1982" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1983" spans="2:7" x14ac:dyDescent="0.2">
@@ -19564,7 +19561,7 @@
     </row>
     <row r="1986" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1986" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1987" spans="2:7" x14ac:dyDescent="0.2">
@@ -19914,7 +19911,7 @@
     </row>
     <row r="2011" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2011" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2012" spans="2:7" x14ac:dyDescent="0.2">
@@ -19953,7 +19950,7 @@
     </row>
     <row r="2016" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2016" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2017" spans="2:7" x14ac:dyDescent="0.2">
@@ -19975,7 +19972,7 @@
     </row>
     <row r="2020" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2020" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2021" spans="2:7" x14ac:dyDescent="0.2">
@@ -20121,7 +20118,7 @@
     </row>
     <row r="2033" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2033" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2034" spans="2:7" x14ac:dyDescent="0.2">
@@ -20194,7 +20191,7 @@
     </row>
     <row r="2040" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2040" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2041" spans="2:7" x14ac:dyDescent="0.2">
@@ -20216,7 +20213,7 @@
     </row>
     <row r="2044" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2044" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2045" spans="2:7" x14ac:dyDescent="0.2">
@@ -20243,7 +20240,7 @@
     </row>
     <row r="2050" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2050" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2051" spans="2:7" x14ac:dyDescent="0.2">
@@ -20406,7 +20403,7 @@
     </row>
     <row r="2064" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2064" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2065" spans="2:7" x14ac:dyDescent="0.2">
@@ -20462,7 +20459,7 @@
     </row>
     <row r="2070" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2070" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2071" spans="2:7" x14ac:dyDescent="0.2">
@@ -20484,7 +20481,7 @@
     </row>
     <row r="2074" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2074" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2075" spans="2:7" x14ac:dyDescent="0.2">
@@ -20506,7 +20503,7 @@
     </row>
     <row r="2078" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2078" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2079" spans="2:7" x14ac:dyDescent="0.2">
@@ -20601,7 +20598,7 @@
     </row>
     <row r="2088" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2088" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2089" spans="2:7" x14ac:dyDescent="0.2">
@@ -20623,7 +20620,7 @@
     </row>
     <row r="2092" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2092" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2093" spans="2:7" x14ac:dyDescent="0.2">
@@ -20684,7 +20681,7 @@
     </row>
     <row r="2100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2101" spans="2:7" x14ac:dyDescent="0.2">
@@ -20711,7 +20708,7 @@
     </row>
     <row r="2106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2107" spans="2:7" x14ac:dyDescent="0.2">
@@ -20750,7 +20747,7 @@
     </row>
     <row r="2111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2111" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2112" spans="2:7" x14ac:dyDescent="0.2">
@@ -20777,7 +20774,7 @@
     </row>
     <row r="2117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2118" spans="2:7" x14ac:dyDescent="0.2">
@@ -20850,7 +20847,7 @@
     </row>
     <row r="2124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2124" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2125" spans="2:7" x14ac:dyDescent="0.2">
@@ -21127,7 +21124,7 @@
     </row>
     <row r="2143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2144" spans="2:7" x14ac:dyDescent="0.2">
@@ -21154,7 +21151,7 @@
     </row>
     <row r="2149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2150" spans="2:7" x14ac:dyDescent="0.2">
@@ -21295,7 +21292,7 @@
     </row>
     <row r="2160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2160" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2161" spans="2:7" x14ac:dyDescent="0.2">
@@ -21317,7 +21314,7 @@
     </row>
     <row r="2164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2164" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2165" spans="2:7" x14ac:dyDescent="0.2">
@@ -21412,7 +21409,7 @@
     </row>
     <row r="2174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2174" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2175" spans="2:7" x14ac:dyDescent="0.2">
@@ -21434,7 +21431,7 @@
     </row>
     <row r="2178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2178" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2179" spans="2:7" x14ac:dyDescent="0.2">
@@ -21558,7 +21555,7 @@
     </row>
     <row r="2188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2188" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2189" spans="2:7" x14ac:dyDescent="0.2">
@@ -21721,7 +21718,7 @@
     </row>
     <row r="2202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2202" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2203" spans="2:7" x14ac:dyDescent="0.2">
@@ -21760,7 +21757,7 @@
     </row>
     <row r="2207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2207" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2208" spans="2:7" x14ac:dyDescent="0.2">
@@ -21799,7 +21796,7 @@
     </row>
     <row r="2212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2212" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2213" spans="2:7" x14ac:dyDescent="0.2">
@@ -22098,7 +22095,7 @@
     </row>
     <row r="2234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2234" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2235" spans="2:7" x14ac:dyDescent="0.2">
@@ -22329,7 +22326,7 @@
     </row>
     <row r="2252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2252" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2253" spans="2:7" x14ac:dyDescent="0.2">
@@ -22521,7 +22518,7 @@
     </row>
     <row r="2266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2266" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2267" spans="2:7" x14ac:dyDescent="0.2">
@@ -22628,7 +22625,7 @@
     </row>
     <row r="2275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2275" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2276" spans="2:7" x14ac:dyDescent="0.2">
@@ -22774,7 +22771,7 @@
     </row>
     <row r="2288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2288" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2289" spans="3:7" x14ac:dyDescent="0.2">
@@ -23124,7 +23121,7 @@
     </row>
     <row r="2313" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2313" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2314" spans="2:7" x14ac:dyDescent="0.2">
@@ -23333,7 +23330,7 @@
     </row>
     <row r="2328" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2328" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2329" spans="2:7" x14ac:dyDescent="0.2">
@@ -23355,7 +23352,7 @@
     </row>
     <row r="2332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2332" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2333" spans="2:7" x14ac:dyDescent="0.2">
@@ -23411,7 +23408,7 @@
     </row>
     <row r="2338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2338" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2339" spans="2:7" x14ac:dyDescent="0.2">
@@ -23438,7 +23435,7 @@
     </row>
     <row r="2344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2344" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2345" spans="2:7" x14ac:dyDescent="0.2">
@@ -23477,7 +23474,7 @@
     </row>
     <row r="2349" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2349" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2350" spans="2:7" x14ac:dyDescent="0.2">
@@ -23499,7 +23496,7 @@
     </row>
     <row r="2353" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2354" spans="2:7" x14ac:dyDescent="0.2">
@@ -23526,7 +23523,7 @@
     </row>
     <row r="2359" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2359" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2360" spans="2:7" x14ac:dyDescent="0.2">
@@ -23548,7 +23545,7 @@
     </row>
     <row r="2363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2363" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2364" spans="2:7" x14ac:dyDescent="0.2">
@@ -23757,7 +23754,7 @@
     </row>
     <row r="2378" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2378" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2379" spans="2:7" x14ac:dyDescent="0.2">
@@ -23784,7 +23781,7 @@
     </row>
     <row r="2384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2384" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2385" spans="2:7" x14ac:dyDescent="0.2">
@@ -23891,7 +23888,7 @@
     </row>
     <row r="2393" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2393" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2394" spans="2:7" x14ac:dyDescent="0.2">
@@ -23964,7 +23961,7 @@
     </row>
     <row r="2400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2400" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2401" spans="2:7" x14ac:dyDescent="0.2">
@@ -23991,7 +23988,7 @@
     </row>
     <row r="2406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2406" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2407" spans="2:7" x14ac:dyDescent="0.2">
@@ -24064,7 +24061,7 @@
     </row>
     <row r="2413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2413" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2414" spans="2:7" x14ac:dyDescent="0.2">
@@ -24171,7 +24168,7 @@
     </row>
     <row r="2422" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2422" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2423" spans="2:7" x14ac:dyDescent="0.2">
@@ -24261,7 +24258,7 @@
     </row>
     <row r="2430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2430" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2431" spans="2:7" x14ac:dyDescent="0.2">
@@ -24334,7 +24331,7 @@
     </row>
     <row r="2437" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2437" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2438" spans="2:7" x14ac:dyDescent="0.2">
@@ -24361,7 +24358,7 @@
     </row>
     <row r="2443" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2443" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2444" spans="2:7" x14ac:dyDescent="0.2">
@@ -24587,7 +24584,7 @@
     </row>
     <row r="2459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2459" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2460" spans="2:7" x14ac:dyDescent="0.2">
@@ -24609,7 +24606,7 @@
     </row>
     <row r="2463" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2463" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2464" spans="2:7" x14ac:dyDescent="0.2">
@@ -24670,7 +24667,7 @@
     </row>
     <row r="2471" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2471" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2472" spans="2:7" x14ac:dyDescent="0.2">
@@ -24777,7 +24774,7 @@
     </row>
     <row r="2480" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2480" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2481" spans="2:7" x14ac:dyDescent="0.2">
@@ -24804,7 +24801,7 @@
     </row>
     <row r="2486" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2486" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2487" spans="2:7" x14ac:dyDescent="0.2">
@@ -24877,7 +24874,7 @@
     </row>
     <row r="2493" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2493" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2494" spans="2:7" x14ac:dyDescent="0.2">
@@ -24899,7 +24896,7 @@
     </row>
     <row r="2497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2497" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2498" spans="2:7" x14ac:dyDescent="0.2">
@@ -24921,7 +24918,7 @@
     </row>
     <row r="2501" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2501" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2502" spans="2:7" x14ac:dyDescent="0.2">
@@ -24960,7 +24957,7 @@
     </row>
     <row r="2506" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2506" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2507" spans="2:7" x14ac:dyDescent="0.2">
@@ -24982,7 +24979,7 @@
     </row>
     <row r="2510" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2510" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2511" spans="2:7" x14ac:dyDescent="0.2">
@@ -25021,7 +25018,7 @@
     </row>
     <row r="2515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2515" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2516" spans="2:7" x14ac:dyDescent="0.2">
@@ -25094,7 +25091,7 @@
     </row>
     <row r="2522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2522" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2523" spans="2:7" x14ac:dyDescent="0.2">
@@ -25116,7 +25113,7 @@
     </row>
     <row r="2526" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2526" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2527" spans="2:7" x14ac:dyDescent="0.2">
@@ -25143,7 +25140,7 @@
     </row>
     <row r="2532" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2532" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2533" spans="2:7" x14ac:dyDescent="0.2">
@@ -25459,7 +25456,7 @@
     </row>
     <row r="2555" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2555" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2556" spans="2:7" x14ac:dyDescent="0.2">
@@ -25515,7 +25512,7 @@
     </row>
     <row r="2561" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2561" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2562" spans="2:7" x14ac:dyDescent="0.2">
@@ -25571,7 +25568,7 @@
     </row>
     <row r="2567" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2567" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2568" spans="2:7" x14ac:dyDescent="0.2">
@@ -25666,7 +25663,7 @@
     </row>
     <row r="2577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2577" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2578" spans="2:7" x14ac:dyDescent="0.2">
@@ -25875,7 +25872,7 @@
     </row>
     <row r="2592" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2592" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2593" spans="2:7" x14ac:dyDescent="0.2">
@@ -25902,7 +25899,7 @@
     </row>
     <row r="2598" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2598" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2599" spans="2:7" x14ac:dyDescent="0.2">
@@ -26150,7 +26147,7 @@
     </row>
     <row r="2617" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2617" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2618" spans="2:7" x14ac:dyDescent="0.2">
@@ -26432,7 +26429,7 @@
     </row>
     <row r="2638" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2638" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2639" spans="2:7" x14ac:dyDescent="0.2">
@@ -26454,7 +26451,7 @@
     </row>
     <row r="2642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2642" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2643" spans="2:7" x14ac:dyDescent="0.2">
@@ -26476,7 +26473,7 @@
     </row>
     <row r="2646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2646" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2647" spans="2:7" x14ac:dyDescent="0.2">
@@ -26498,7 +26495,7 @@
     </row>
     <row r="2650" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2650" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2651" spans="2:7" x14ac:dyDescent="0.2">
@@ -26712,7 +26709,7 @@
     </row>
     <row r="2667" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2667" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2668" spans="2:7" x14ac:dyDescent="0.2">
@@ -26785,7 +26782,7 @@
     </row>
     <row r="2674" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2674" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2675" spans="2:7" x14ac:dyDescent="0.2">
@@ -26824,7 +26821,7 @@
     </row>
     <row r="2679" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2679" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2680" spans="2:7" x14ac:dyDescent="0.2">
@@ -26885,7 +26882,7 @@
     </row>
     <row r="2687" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2687" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2688" spans="2:7" x14ac:dyDescent="0.2">
@@ -26907,7 +26904,7 @@
     </row>
     <row r="2691" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2691" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2692" spans="2:7" x14ac:dyDescent="0.2">
@@ -26946,7 +26943,7 @@
     </row>
     <row r="2696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2696" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2697" spans="2:7" x14ac:dyDescent="0.2">
@@ -27036,7 +27033,7 @@
     </row>
     <row r="2704" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2704" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2705" spans="2:7" x14ac:dyDescent="0.2">
@@ -27058,7 +27055,7 @@
     </row>
     <row r="2708" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2708" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2709" spans="2:7" x14ac:dyDescent="0.2">
@@ -27080,7 +27077,7 @@
     </row>
     <row r="2712" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2712" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2713" spans="2:7" x14ac:dyDescent="0.2">
@@ -27277,7 +27274,7 @@
     </row>
     <row r="2728" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2728" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2729" spans="2:7" x14ac:dyDescent="0.2">
@@ -27367,7 +27364,7 @@
     </row>
     <row r="2736" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2736" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2737" spans="2:7" x14ac:dyDescent="0.2">
@@ -27389,7 +27386,7 @@
     </row>
     <row r="2740" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2740" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2741" spans="2:7" x14ac:dyDescent="0.2">
@@ -27569,7 +27566,7 @@
     </row>
     <row r="2755" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2755" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2756" spans="2:7" x14ac:dyDescent="0.2">
@@ -27681,7 +27678,7 @@
     </row>
     <row r="2766" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2766" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2767" spans="2:7" x14ac:dyDescent="0.2">
@@ -28082,7 +28079,7 @@
     </row>
     <row r="2794" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2794" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2795" spans="2:7" x14ac:dyDescent="0.2">
@@ -28381,7 +28378,7 @@
     </row>
     <row r="2816" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2816" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2817" spans="3:7" x14ac:dyDescent="0.2">
@@ -28765,7 +28762,7 @@
     </row>
     <row r="2843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2843" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2844" spans="2:7" x14ac:dyDescent="0.2">
@@ -28838,7 +28835,7 @@
     </row>
     <row r="2850" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2850" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2851" spans="2:7" x14ac:dyDescent="0.2">
@@ -28877,7 +28874,7 @@
     </row>
     <row r="2855" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2855" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2856" spans="2:7" x14ac:dyDescent="0.2">
@@ -29023,7 +29020,7 @@
     </row>
     <row r="2868" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2868" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2869" spans="2:7" x14ac:dyDescent="0.2">
@@ -29237,7 +29234,7 @@
     </row>
     <row r="2885" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2885" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2886" spans="2:7" x14ac:dyDescent="0.2">
@@ -29536,7 +29533,7 @@
     </row>
     <row r="2907" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2907" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2908" spans="2:7" x14ac:dyDescent="0.2">
@@ -29558,7 +29555,7 @@
     </row>
     <row r="2911" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2911" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2912" spans="2:7" x14ac:dyDescent="0.2">
@@ -29580,7 +29577,7 @@
     </row>
     <row r="2915" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2915" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2916" spans="2:7" x14ac:dyDescent="0.2">
@@ -29602,7 +29599,7 @@
     </row>
     <row r="2919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2919" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2920" spans="2:7" x14ac:dyDescent="0.2">
@@ -29641,7 +29638,7 @@
     </row>
     <row r="2924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2924" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2925" spans="2:7" x14ac:dyDescent="0.2">
@@ -29680,7 +29677,7 @@
     </row>
     <row r="2929" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2929" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2930" spans="2:7" x14ac:dyDescent="0.2">
@@ -29758,7 +29755,7 @@
     </row>
     <row r="2938" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2938" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2939" spans="2:7" x14ac:dyDescent="0.2">
@@ -29848,7 +29845,7 @@
     </row>
     <row r="2946" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2946" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2947" spans="2:7" x14ac:dyDescent="0.2">
@@ -29926,7 +29923,7 @@
     </row>
     <row r="2955" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2955" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2956" spans="2:7" x14ac:dyDescent="0.2">
@@ -29948,7 +29945,7 @@
     </row>
     <row r="2959" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2959" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2960" spans="2:7" x14ac:dyDescent="0.2">
@@ -30004,7 +30001,7 @@
     </row>
     <row r="2965" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2965" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2966" spans="2:7" x14ac:dyDescent="0.2">
@@ -30116,7 +30113,7 @@
     </row>
     <row r="2976" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2976" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2977" spans="2:7" x14ac:dyDescent="0.2">
@@ -30211,7 +30208,7 @@
     </row>
     <row r="2986" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2986" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2987" spans="2:7" x14ac:dyDescent="0.2">
@@ -30284,7 +30281,7 @@
     </row>
     <row r="2993" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2993" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2994" spans="2:7" x14ac:dyDescent="0.2">
@@ -30345,7 +30342,7 @@
     </row>
     <row r="3001" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3001" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3002" spans="2:7" x14ac:dyDescent="0.2">
@@ -30469,7 +30466,7 @@
     </row>
     <row r="3011" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3011" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3012" spans="2:7" x14ac:dyDescent="0.2">
@@ -30542,7 +30539,7 @@
     </row>
     <row r="3018" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3018" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3019" spans="2:7" x14ac:dyDescent="0.2">
@@ -30581,7 +30578,7 @@
     </row>
     <row r="3023" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3023" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3024" spans="2:7" x14ac:dyDescent="0.2">
@@ -30620,7 +30617,7 @@
     </row>
     <row r="3028" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3028" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3029" spans="2:7" x14ac:dyDescent="0.2">
@@ -30642,7 +30639,7 @@
     </row>
     <row r="3032" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3032" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3033" spans="2:7" x14ac:dyDescent="0.2">
@@ -30664,7 +30661,7 @@
     </row>
     <row r="3036" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3036" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3037" spans="2:7" x14ac:dyDescent="0.2">
@@ -30742,7 +30739,7 @@
     </row>
     <row r="3045" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3045" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3046" spans="2:7" x14ac:dyDescent="0.2">
@@ -30832,7 +30829,7 @@
     </row>
     <row r="3053" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3053" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3054" spans="2:7" x14ac:dyDescent="0.2">
@@ -30871,7 +30868,7 @@
     </row>
     <row r="3058" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3058" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3059" spans="2:7" x14ac:dyDescent="0.2">
@@ -30932,7 +30929,7 @@
     </row>
     <row r="3066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3066" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3067" spans="2:7" x14ac:dyDescent="0.2">
@@ -31226,7 +31223,7 @@
     </row>
     <row r="3086" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3086" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3087" spans="2:7" x14ac:dyDescent="0.2">
@@ -31253,7 +31250,7 @@
     </row>
     <row r="3092" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3092" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3093" spans="2:7" x14ac:dyDescent="0.2">
@@ -31377,7 +31374,7 @@
     </row>
     <row r="3102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3103" spans="2:7" x14ac:dyDescent="0.2">
@@ -31399,7 +31396,7 @@
     </row>
     <row r="3106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3107" spans="2:7" x14ac:dyDescent="0.2">
@@ -31664,7 +31661,7 @@
     </row>
     <row r="3126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3126" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3127" spans="2:7" x14ac:dyDescent="0.2">
@@ -31737,7 +31734,7 @@
     </row>
     <row r="3133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3134" spans="2:7" x14ac:dyDescent="0.2">
@@ -31764,7 +31761,7 @@
     </row>
     <row r="3139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3140" spans="2:7" x14ac:dyDescent="0.2">
@@ -31786,7 +31783,7 @@
     </row>
     <row r="3143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3144" spans="2:7" x14ac:dyDescent="0.2">
@@ -32085,7 +32082,7 @@
     </row>
     <row r="3165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3165" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3166" spans="2:7" x14ac:dyDescent="0.2">
@@ -32367,7 +32364,7 @@
     </row>
     <row r="3186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3186" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3187" spans="2:7" x14ac:dyDescent="0.2">
@@ -32491,7 +32488,7 @@
     </row>
     <row r="3196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3196" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3197" spans="2:7" x14ac:dyDescent="0.2">
@@ -32552,7 +32549,7 @@
     </row>
     <row r="3204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3204" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3205" spans="2:7" x14ac:dyDescent="0.2">
@@ -32659,7 +32656,7 @@
     </row>
     <row r="3213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3213" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3214" spans="2:7" x14ac:dyDescent="0.2">
@@ -32698,7 +32695,7 @@
     </row>
     <row r="3218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3218" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3219" spans="2:7" x14ac:dyDescent="0.2">
@@ -32720,7 +32717,7 @@
     </row>
     <row r="3222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3222" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3223" spans="2:7" x14ac:dyDescent="0.2">
@@ -32793,7 +32790,7 @@
     </row>
     <row r="3229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3229" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3230" spans="2:7" x14ac:dyDescent="0.2">
@@ -32849,7 +32846,7 @@
     </row>
     <row r="3235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3235" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3236" spans="2:7" x14ac:dyDescent="0.2">
@@ -32888,7 +32885,7 @@
     </row>
     <row r="3240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3240" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3241" spans="2:7" x14ac:dyDescent="0.2">
@@ -32915,7 +32912,7 @@
     </row>
     <row r="3246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3246" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3247" spans="2:7" x14ac:dyDescent="0.2">
@@ -33039,7 +33036,7 @@
     </row>
     <row r="3256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3256" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3257" spans="2:7" x14ac:dyDescent="0.2">
@@ -33061,7 +33058,7 @@
     </row>
     <row r="3260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3260" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3261" spans="2:7" x14ac:dyDescent="0.2">
@@ -33100,7 +33097,7 @@
     </row>
     <row r="3265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3265" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3266" spans="2:7" x14ac:dyDescent="0.2">
@@ -33156,7 +33153,7 @@
     </row>
     <row r="3271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3271" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3272" spans="2:7" x14ac:dyDescent="0.2">
@@ -33336,7 +33333,7 @@
     </row>
     <row r="3286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3286" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3287" spans="2:7" x14ac:dyDescent="0.2">
@@ -33380,7 +33377,7 @@
     </row>
     <row r="3293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3293" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3294" spans="2:7" x14ac:dyDescent="0.2">
@@ -33470,7 +33467,7 @@
     </row>
     <row r="3301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3301" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3302" spans="2:7" x14ac:dyDescent="0.2">
@@ -33560,7 +33557,7 @@
     </row>
     <row r="3309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3309" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3310" spans="2:7" x14ac:dyDescent="0.2">
@@ -33689,7 +33686,7 @@
     </row>
     <row r="3321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3321" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3322" spans="2:7" x14ac:dyDescent="0.2">
@@ -33728,7 +33725,7 @@
     </row>
     <row r="3326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3326" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3327" spans="2:7" x14ac:dyDescent="0.2">
@@ -33784,7 +33781,7 @@
     </row>
     <row r="3332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3332" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3333" spans="2:7" x14ac:dyDescent="0.2">
@@ -33930,7 +33927,7 @@
     </row>
     <row r="3345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3345" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3346" spans="2:7" x14ac:dyDescent="0.2">
@@ -34054,7 +34051,7 @@
     </row>
     <row r="3355" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3355" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3356" spans="2:7" x14ac:dyDescent="0.2">
@@ -34132,7 +34129,7 @@
     </row>
     <row r="3364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3364" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3365" spans="2:7" x14ac:dyDescent="0.2">
@@ -34256,7 +34253,7 @@
     </row>
     <row r="3374" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3374" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3375" spans="2:7" x14ac:dyDescent="0.2">
@@ -34329,7 +34326,7 @@
     </row>
     <row r="3381" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3381" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3382" spans="2:7" x14ac:dyDescent="0.2">
@@ -34356,7 +34353,7 @@
     </row>
     <row r="3387" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3387" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3388" spans="2:7" x14ac:dyDescent="0.2">
@@ -34582,7 +34579,7 @@
     </row>
     <row r="3403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3403" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3404" spans="2:7" x14ac:dyDescent="0.2">
@@ -34672,7 +34669,7 @@
     </row>
     <row r="3411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3411" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3412" spans="2:7" x14ac:dyDescent="0.2">
@@ -34699,7 +34696,7 @@
     </row>
     <row r="3417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3417" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3418" spans="2:7" x14ac:dyDescent="0.2">
@@ -34772,7 +34769,7 @@
     </row>
     <row r="3424" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3424" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3425" spans="2:7" x14ac:dyDescent="0.2">
@@ -34828,7 +34825,7 @@
     </row>
     <row r="3430" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3430" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3431" spans="2:7" x14ac:dyDescent="0.2">
@@ -34884,7 +34881,7 @@
     </row>
     <row r="3436" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3436" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3437" spans="2:7" x14ac:dyDescent="0.2">
@@ -34974,7 +34971,7 @@
     </row>
     <row r="3444" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3444" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3445" spans="2:7" x14ac:dyDescent="0.2">
@@ -35154,7 +35151,7 @@
     </row>
     <row r="3459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3459" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3460" spans="2:7" x14ac:dyDescent="0.2">
@@ -35278,7 +35275,7 @@
     </row>
     <row r="3469" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3469" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3470" spans="2:7" x14ac:dyDescent="0.2">
@@ -35300,7 +35297,7 @@
     </row>
     <row r="3473" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3473" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3474" spans="2:7" x14ac:dyDescent="0.2">
@@ -35361,7 +35358,7 @@
     </row>
     <row r="3481" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3481" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3482" spans="2:7" x14ac:dyDescent="0.2">
@@ -35451,7 +35448,7 @@
     </row>
     <row r="3489" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3489" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3490" spans="2:7" x14ac:dyDescent="0.2">
@@ -35575,7 +35572,7 @@
     </row>
     <row r="3499" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3499" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3500" spans="2:7" x14ac:dyDescent="0.2">
@@ -35733,7 +35730,7 @@
     </row>
     <row r="3511" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3511" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3512" spans="2:7" x14ac:dyDescent="0.2">
@@ -35760,7 +35757,7 @@
     </row>
     <row r="3517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3517" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3518" spans="2:7" x14ac:dyDescent="0.2">
@@ -35884,7 +35881,7 @@
     </row>
     <row r="3527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3527" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3528" spans="2:7" x14ac:dyDescent="0.2">
@@ -35923,7 +35920,7 @@
     </row>
     <row r="3532" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3532" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3533" spans="2:7" x14ac:dyDescent="0.2">
@@ -35950,7 +35947,7 @@
     </row>
     <row r="3538" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3538" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3539" spans="2:7" x14ac:dyDescent="0.2">
@@ -36006,7 +36003,7 @@
     </row>
     <row r="3544" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3544" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3545" spans="2:7" x14ac:dyDescent="0.2">
@@ -36101,7 +36098,7 @@
     </row>
     <row r="3554" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3554" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3555" spans="2:7" x14ac:dyDescent="0.2">
@@ -36276,7 +36273,7 @@
     </row>
     <row r="3567" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3567" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3568" spans="2:7" x14ac:dyDescent="0.2">
@@ -36320,7 +36317,7 @@
     </row>
     <row r="3574" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3574" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3575" spans="2:7" x14ac:dyDescent="0.2">
@@ -36376,7 +36373,7 @@
     </row>
     <row r="3580" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3580" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3581" spans="2:7" x14ac:dyDescent="0.2">
@@ -36449,7 +36446,7 @@
     </row>
     <row r="3587" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3587" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3588" spans="2:7" x14ac:dyDescent="0.2">
@@ -36590,7 +36587,7 @@
     </row>
     <row r="3598" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3598" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3599" spans="2:7" x14ac:dyDescent="0.2">
@@ -36629,7 +36626,7 @@
     </row>
     <row r="3603" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3603" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3604" spans="2:7" x14ac:dyDescent="0.2">
@@ -36707,7 +36704,7 @@
     </row>
     <row r="3612" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3612" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3613" spans="2:7" x14ac:dyDescent="0.2">
@@ -36734,7 +36731,7 @@
     </row>
     <row r="3618" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3618" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3619" spans="2:7" x14ac:dyDescent="0.2">
@@ -36756,7 +36753,7 @@
     </row>
     <row r="3622" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3622" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3623" spans="2:7" x14ac:dyDescent="0.2">
@@ -36812,7 +36809,7 @@
     </row>
     <row r="3628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3628" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3629" spans="2:7" x14ac:dyDescent="0.2">
@@ -36873,7 +36870,7 @@
     </row>
     <row r="3636" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3636" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3637" spans="2:7" x14ac:dyDescent="0.2">
@@ -36929,7 +36926,7 @@
     </row>
     <row r="3642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3642" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3643" spans="2:7" x14ac:dyDescent="0.2">
@@ -37046,7 +37043,7 @@
     </row>
     <row r="3656" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3656" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3657" spans="2:7" x14ac:dyDescent="0.2">
@@ -37085,7 +37082,7 @@
     </row>
     <row r="3661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3661" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3662" spans="2:7" x14ac:dyDescent="0.2">
@@ -37124,7 +37121,7 @@
     </row>
     <row r="3666" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3666" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3667" spans="2:7" x14ac:dyDescent="0.2">
@@ -37265,7 +37262,7 @@
     </row>
     <row r="3677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3677" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3678" spans="2:7" x14ac:dyDescent="0.2">
@@ -37287,7 +37284,7 @@
     </row>
     <row r="3681" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3681" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3682" spans="2:7" x14ac:dyDescent="0.2">
@@ -37365,7 +37362,7 @@
     </row>
     <row r="3690" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3690" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3691" spans="2:7" x14ac:dyDescent="0.2">
@@ -37421,7 +37418,7 @@
     </row>
     <row r="3696" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3696" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3697" spans="2:7" x14ac:dyDescent="0.2">
@@ -37652,7 +37649,7 @@
     </row>
     <row r="3714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3714" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3715" spans="2:7" x14ac:dyDescent="0.2">
@@ -37674,7 +37671,7 @@
     </row>
     <row r="3718" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3718" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3719" spans="2:7" x14ac:dyDescent="0.2">
@@ -37696,7 +37693,7 @@
     </row>
     <row r="3722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3722" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3723" spans="2:7" x14ac:dyDescent="0.2">
@@ -37786,7 +37783,7 @@
     </row>
     <row r="3730" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3730" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3731" spans="2:7" x14ac:dyDescent="0.2">
@@ -37813,7 +37810,7 @@
     </row>
     <row r="3736" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3736" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3737" spans="2:7" x14ac:dyDescent="0.2">
@@ -37835,7 +37832,7 @@
     </row>
     <row r="3740" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3740" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3741" spans="2:7" x14ac:dyDescent="0.2">
@@ -37857,7 +37854,7 @@
     </row>
     <row r="3744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3744" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3745" spans="2:7" x14ac:dyDescent="0.2">
@@ -37896,7 +37893,7 @@
     </row>
     <row r="3749" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3749" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3750" spans="2:7" x14ac:dyDescent="0.2">
@@ -37969,7 +37966,7 @@
     </row>
     <row r="3756" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3756" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3757" spans="2:7" x14ac:dyDescent="0.2">
@@ -38008,7 +38005,7 @@
     </row>
     <row r="3761" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3761" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3762" spans="2:7" x14ac:dyDescent="0.2">
@@ -38030,7 +38027,7 @@
     </row>
     <row r="3765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3765" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3766" spans="2:7" x14ac:dyDescent="0.2">
@@ -38057,7 +38054,7 @@
     </row>
     <row r="3771" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3771" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3772" spans="2:7" x14ac:dyDescent="0.2">
@@ -38135,7 +38132,7 @@
     </row>
     <row r="3780" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3780" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3781" spans="2:7" x14ac:dyDescent="0.2">
@@ -38174,7 +38171,7 @@
     </row>
     <row r="3785" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3785" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3786" spans="2:7" x14ac:dyDescent="0.2">
@@ -38213,7 +38210,7 @@
     </row>
     <row r="3790" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3790" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3791" spans="2:7" x14ac:dyDescent="0.2">
@@ -38252,7 +38249,7 @@
     </row>
     <row r="3795" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3795" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3796" spans="2:7" x14ac:dyDescent="0.2">
@@ -38466,7 +38463,7 @@
     </row>
     <row r="3812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3812" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3813" spans="2:7" x14ac:dyDescent="0.2">
@@ -38556,7 +38553,7 @@
     </row>
     <row r="3820" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3820" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3821" spans="2:7" x14ac:dyDescent="0.2">
@@ -38651,7 +38648,7 @@
     </row>
     <row r="3830" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3830" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3831" spans="2:7" x14ac:dyDescent="0.2">
@@ -38758,7 +38755,7 @@
     </row>
     <row r="3839" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3839" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3840" spans="2:7" x14ac:dyDescent="0.2">
@@ -38780,7 +38777,7 @@
     </row>
     <row r="3843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3843" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3844" spans="2:7" x14ac:dyDescent="0.2">
@@ -38802,7 +38799,7 @@
     </row>
     <row r="3847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3847" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3848" spans="2:7" x14ac:dyDescent="0.2">
@@ -38824,7 +38821,7 @@
     </row>
     <row r="3851" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3851" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3852" spans="2:7" x14ac:dyDescent="0.2">
@@ -38846,7 +38843,7 @@
     </row>
     <row r="3855" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3855" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3856" spans="2:7" x14ac:dyDescent="0.2">
@@ -38885,7 +38882,7 @@
     </row>
     <row r="3860" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3860" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3861" spans="2:7" x14ac:dyDescent="0.2">
@@ -38907,7 +38904,7 @@
     </row>
     <row r="3864" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3864" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3865" spans="2:7" x14ac:dyDescent="0.2">
@@ -38973,7 +38970,7 @@
     </row>
     <row r="3875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3875" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3876" spans="2:7" x14ac:dyDescent="0.2">
@@ -38995,7 +38992,7 @@
     </row>
     <row r="3879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3879" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3880" spans="2:7" x14ac:dyDescent="0.2">
@@ -39039,7 +39036,7 @@
     </row>
     <row r="3886" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3886" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3887" spans="2:7" x14ac:dyDescent="0.2">
@@ -39061,7 +39058,7 @@
     </row>
     <row r="3890" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3890" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3891" spans="2:7" x14ac:dyDescent="0.2">
@@ -39100,7 +39097,7 @@
     </row>
     <row r="3895" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3895" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3896" spans="2:7" x14ac:dyDescent="0.2">
@@ -39314,7 +39311,7 @@
     </row>
     <row r="3912" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3912" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3913" spans="2:7" x14ac:dyDescent="0.2">
@@ -39392,7 +39389,7 @@
     </row>
     <row r="3922" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3922" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3923" spans="2:7" x14ac:dyDescent="0.2">
@@ -39482,7 +39479,7 @@
     </row>
     <row r="3930" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3930" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3931" spans="2:7" x14ac:dyDescent="0.2">
@@ -39521,7 +39518,7 @@
     </row>
     <row r="3935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3935" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3936" spans="2:7" x14ac:dyDescent="0.2">
@@ -39582,7 +39579,7 @@
     </row>
     <row r="3943" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3943" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3944" spans="2:7" x14ac:dyDescent="0.2">
@@ -39796,7 +39793,7 @@
     </row>
     <row r="3960" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3960" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3961" spans="2:7" x14ac:dyDescent="0.2">
@@ -39959,7 +39956,7 @@
     </row>
     <row r="3974" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3974" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3975" spans="2:7" x14ac:dyDescent="0.2">
@@ -40207,7 +40204,7 @@
     </row>
     <row r="3993" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3993" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3994" spans="2:7" x14ac:dyDescent="0.2">
@@ -40455,7 +40452,7 @@
     </row>
     <row r="4012" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4012" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4013" spans="2:7" x14ac:dyDescent="0.2">
@@ -40715,7 +40712,7 @@
     </row>
     <row r="4030" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4030" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4031" spans="2:7" x14ac:dyDescent="0.2">
@@ -40737,7 +40734,7 @@
     </row>
     <row r="4034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4034" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4035" spans="2:7" x14ac:dyDescent="0.2">
@@ -40934,7 +40931,7 @@
     </row>
     <row r="4050" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4050" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4051" spans="2:7" x14ac:dyDescent="0.2">
@@ -40990,7 +40987,7 @@
     </row>
     <row r="4056" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4056" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4057" spans="2:7" x14ac:dyDescent="0.2">
@@ -41068,7 +41065,7 @@
     </row>
     <row r="4066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4066" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4067" spans="2:7" x14ac:dyDescent="0.2">
@@ -41095,7 +41092,7 @@
     </row>
     <row r="4072" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4072" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4073" spans="2:7" x14ac:dyDescent="0.2">
@@ -41496,7 +41493,7 @@
     </row>
     <row r="4100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4101" spans="2:7" x14ac:dyDescent="0.2">
@@ -41705,7 +41702,7 @@
     </row>
     <row r="4115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4116" spans="2:7" x14ac:dyDescent="0.2">
@@ -41783,7 +41780,7 @@
     </row>
     <row r="4124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4125" spans="2:7" x14ac:dyDescent="0.2">
@@ -41975,7 +41972,7 @@
     </row>
     <row r="4138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4139" spans="2:7" x14ac:dyDescent="0.2">
@@ -41997,7 +41994,7 @@
     </row>
     <row r="4142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4143" spans="2:7" x14ac:dyDescent="0.2">
@@ -42036,7 +42033,7 @@
     </row>
     <row r="4147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4148" spans="2:7" x14ac:dyDescent="0.2">
@@ -42058,7 +42055,7 @@
     </row>
     <row r="4151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4151" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4152" spans="2:7" x14ac:dyDescent="0.2">
@@ -42085,7 +42082,7 @@
     </row>
     <row r="4157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4158" spans="2:7" x14ac:dyDescent="0.2">
@@ -42124,7 +42121,7 @@
     </row>
     <row r="4162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4163" spans="2:7" x14ac:dyDescent="0.2">
@@ -42214,7 +42211,7 @@
     </row>
     <row r="4170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4171" spans="2:7" x14ac:dyDescent="0.2">
@@ -42287,7 +42284,7 @@
     </row>
     <row r="4177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4178" spans="2:7" x14ac:dyDescent="0.2">
@@ -42309,7 +42306,7 @@
     </row>
     <row r="4181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4182" spans="2:7" x14ac:dyDescent="0.2">
@@ -42438,7 +42435,7 @@
     </row>
     <row r="4193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4194" spans="2:7" x14ac:dyDescent="0.2">
@@ -42528,7 +42525,7 @@
     </row>
     <row r="4201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4201" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4202" spans="2:7" x14ac:dyDescent="0.2">
@@ -42550,7 +42547,7 @@
     </row>
     <row r="4205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4205" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4206" spans="2:7" x14ac:dyDescent="0.2">
@@ -42589,7 +42586,7 @@
     </row>
     <row r="4210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4210" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4211" spans="2:7" x14ac:dyDescent="0.2">
@@ -42662,7 +42659,7 @@
     </row>
     <row r="4217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4217" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4218" spans="2:7" x14ac:dyDescent="0.2">
@@ -42684,7 +42681,7 @@
     </row>
     <row r="4221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4221" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4222" spans="2:7" x14ac:dyDescent="0.2">
@@ -42779,7 +42776,7 @@
     </row>
     <row r="4231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4231" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4232" spans="2:7" x14ac:dyDescent="0.2">
@@ -42801,7 +42798,7 @@
     </row>
     <row r="4235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4235" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4236" spans="2:7" x14ac:dyDescent="0.2">
@@ -42840,7 +42837,7 @@
     </row>
     <row r="4240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4240" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4241" spans="2:7" x14ac:dyDescent="0.2">
@@ -43071,7 +43068,7 @@
     </row>
     <row r="4258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4258" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4259" spans="2:7" x14ac:dyDescent="0.2">
@@ -43178,7 +43175,7 @@
     </row>
     <row r="4267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4267" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4268" spans="2:7" x14ac:dyDescent="0.2">
@@ -43392,7 +43389,7 @@
     </row>
     <row r="4284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4284" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4285" spans="2:7" x14ac:dyDescent="0.2">
@@ -43504,7 +43501,7 @@
     </row>
     <row r="4295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4295" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4296" spans="2:7" x14ac:dyDescent="0.2">
@@ -43701,7 +43698,7 @@
     </row>
     <row r="4311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4311" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4312" spans="2:7" x14ac:dyDescent="0.2">
@@ -43757,7 +43754,7 @@
     </row>
     <row r="4317" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4317" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4318" spans="2:7" x14ac:dyDescent="0.2">
@@ -43779,7 +43776,7 @@
     </row>
     <row r="4321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4321" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4322" spans="2:7" x14ac:dyDescent="0.2">
@@ -44095,7 +44092,7 @@
     </row>
     <row r="4344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4344" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4345" spans="2:7" x14ac:dyDescent="0.2">
@@ -44151,7 +44148,7 @@
     </row>
     <row r="4350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4350" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4351" spans="2:7" x14ac:dyDescent="0.2">
@@ -44207,7 +44204,7 @@
     </row>
     <row r="4356" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4356" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4357" spans="2:7" x14ac:dyDescent="0.2">
@@ -44229,7 +44226,7 @@
     </row>
     <row r="4360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4360" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4361" spans="2:7" x14ac:dyDescent="0.2">
@@ -44251,7 +44248,7 @@
     </row>
     <row r="4364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4364" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4365" spans="2:7" x14ac:dyDescent="0.2">
@@ -44290,7 +44287,7 @@
     </row>
     <row r="4369" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4369" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4370" spans="2:7" x14ac:dyDescent="0.2">
@@ -44402,7 +44399,7 @@
     </row>
     <row r="4380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4380" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4381" spans="2:7" x14ac:dyDescent="0.2">
@@ -44536,7 +44533,7 @@
     </row>
     <row r="4395" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4395" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4396" spans="2:7" x14ac:dyDescent="0.2">
@@ -44592,7 +44589,7 @@
     </row>
     <row r="4401" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4401" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4402" spans="2:7" x14ac:dyDescent="0.2">
@@ -44631,7 +44628,7 @@
     </row>
     <row r="4406" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4406" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4407" spans="2:7" x14ac:dyDescent="0.2">
@@ -44913,7 +44910,7 @@
     </row>
     <row r="4427" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4427" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4428" spans="2:7" x14ac:dyDescent="0.2">
@@ -45144,7 +45141,7 @@
     </row>
     <row r="4445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4445" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4446" spans="2:7" x14ac:dyDescent="0.2">
@@ -45217,7 +45214,7 @@
     </row>
     <row r="4452" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4452" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4453" spans="2:7" x14ac:dyDescent="0.2">
@@ -45239,7 +45236,7 @@
     </row>
     <row r="4456" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4456" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4457" spans="2:7" x14ac:dyDescent="0.2">
@@ -45261,7 +45258,7 @@
     </row>
     <row r="4460" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4460" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4461" spans="2:7" x14ac:dyDescent="0.2">
@@ -45283,7 +45280,7 @@
     </row>
     <row r="4464" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4464" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4465" spans="2:7" x14ac:dyDescent="0.2">
@@ -45305,7 +45302,7 @@
     </row>
     <row r="4468" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4468" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4469" spans="2:7" x14ac:dyDescent="0.2">
@@ -45332,7 +45329,7 @@
     </row>
     <row r="4474" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4474" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4475" spans="2:7" x14ac:dyDescent="0.2">
@@ -45388,7 +45385,7 @@
     </row>
     <row r="4480" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4480" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4481" spans="2:7" x14ac:dyDescent="0.2">
@@ -45415,7 +45412,7 @@
     </row>
     <row r="4486" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4486" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4487" spans="2:7" x14ac:dyDescent="0.2">
@@ -45454,7 +45451,7 @@
     </row>
     <row r="4491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4491" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4492" spans="2:7" x14ac:dyDescent="0.2">
@@ -45498,7 +45495,7 @@
     </row>
     <row r="4499" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4499" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4500" spans="2:7" x14ac:dyDescent="0.2">
@@ -45520,7 +45517,7 @@
     </row>
     <row r="4503" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4503" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4504" spans="2:7" x14ac:dyDescent="0.2">
@@ -45542,7 +45539,7 @@
     </row>
     <row r="4507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4507" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4508" spans="2:7" x14ac:dyDescent="0.2">
@@ -45564,7 +45561,7 @@
     </row>
     <row r="4511" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4511" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4512" spans="2:7" x14ac:dyDescent="0.2">
@@ -45586,7 +45583,7 @@
     </row>
     <row r="4515" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4515" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4516" spans="2:7" x14ac:dyDescent="0.2">
@@ -45715,7 +45712,7 @@
     </row>
     <row r="4527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4527" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4528" spans="2:7" x14ac:dyDescent="0.2">
@@ -45810,7 +45807,7 @@
     </row>
     <row r="4537" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4537" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4538" spans="2:7" x14ac:dyDescent="0.2">
@@ -45951,7 +45948,7 @@
     </row>
     <row r="4548" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4548" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4549" spans="2:7" x14ac:dyDescent="0.2">
@@ -46136,7 +46133,7 @@
     </row>
     <row r="4566" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4566" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4567" spans="2:7" x14ac:dyDescent="0.2">
@@ -46192,7 +46189,7 @@
     </row>
     <row r="4572" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4572" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4573" spans="2:7" x14ac:dyDescent="0.2">
@@ -46231,7 +46228,7 @@
     </row>
     <row r="4577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4577" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4578" spans="2:7" x14ac:dyDescent="0.2">
@@ -46270,7 +46267,7 @@
     </row>
     <row r="4582" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4582" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4583" spans="2:7" x14ac:dyDescent="0.2">
@@ -46358,7 +46355,7 @@
     </row>
     <row r="4597" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4597" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4598" spans="2:7" x14ac:dyDescent="0.2">
@@ -46465,7 +46462,7 @@
     </row>
     <row r="4606" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4606" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4607" spans="2:7" x14ac:dyDescent="0.2">
@@ -46487,7 +46484,7 @@
     </row>
     <row r="4610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4610" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4611" spans="2:7" x14ac:dyDescent="0.2">
@@ -46514,7 +46511,7 @@
     </row>
     <row r="4616" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4616" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4617" spans="2:7" x14ac:dyDescent="0.2">
@@ -46536,7 +46533,7 @@
     </row>
     <row r="4620" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4620" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4621" spans="2:7" x14ac:dyDescent="0.2">
@@ -46558,7 +46555,7 @@
     </row>
     <row r="4624" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4624" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4625" spans="2:7" x14ac:dyDescent="0.2">
@@ -46580,7 +46577,7 @@
     </row>
     <row r="4628" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4628" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4629" spans="2:7" x14ac:dyDescent="0.2">
@@ -46646,7 +46643,7 @@
     </row>
     <row r="4639" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4639" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4640" spans="2:7" x14ac:dyDescent="0.2">
@@ -46719,7 +46716,7 @@
     </row>
     <row r="4646" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4646" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4647" spans="2:7" x14ac:dyDescent="0.2">
@@ -46775,7 +46772,7 @@
     </row>
     <row r="4652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4652" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4653" spans="2:7" x14ac:dyDescent="0.2">
@@ -46831,7 +46828,7 @@
     </row>
     <row r="4658" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4658" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4659" spans="2:7" x14ac:dyDescent="0.2">
@@ -46960,7 +46957,7 @@
     </row>
     <row r="4671" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4671" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4672" spans="2:7" x14ac:dyDescent="0.2">
@@ -46987,7 +46984,7 @@
     </row>
     <row r="4677" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4677" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4678" spans="2:7" x14ac:dyDescent="0.2">
@@ -47026,7 +47023,7 @@
     </row>
     <row r="4682" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4682" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4683" spans="2:7" x14ac:dyDescent="0.2">
@@ -47053,7 +47050,7 @@
     </row>
     <row r="4688" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4688" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4689" spans="2:7" x14ac:dyDescent="0.2">
@@ -47092,7 +47089,7 @@
     </row>
     <row r="4693" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4693" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4694" spans="2:7" x14ac:dyDescent="0.2">
@@ -47114,7 +47111,7 @@
     </row>
     <row r="4697" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4697" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4698" spans="2:7" x14ac:dyDescent="0.2">
@@ -47136,7 +47133,7 @@
     </row>
     <row r="4701" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4701" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4702" spans="2:7" x14ac:dyDescent="0.2">
@@ -47180,7 +47177,7 @@
     </row>
     <row r="4708" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4708" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4709" spans="2:7" x14ac:dyDescent="0.2">
@@ -47219,7 +47216,7 @@
     </row>
     <row r="4713" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4713" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4714" spans="2:7" x14ac:dyDescent="0.2">
@@ -47280,7 +47277,7 @@
     </row>
     <row r="4722" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4722" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4723" spans="2:7" x14ac:dyDescent="0.2">
@@ -47375,7 +47372,7 @@
     </row>
     <row r="4732" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4732" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4733" spans="2:7" x14ac:dyDescent="0.2">
@@ -47470,7 +47467,7 @@
     </row>
     <row r="4742" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4742" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4743" spans="2:7" x14ac:dyDescent="0.2">
@@ -47492,7 +47489,7 @@
     </row>
     <row r="4746" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4746" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4747" spans="2:7" x14ac:dyDescent="0.2">
@@ -47514,7 +47511,7 @@
     </row>
     <row r="4750" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4750" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4751" spans="2:7" x14ac:dyDescent="0.2">
@@ -47570,7 +47567,7 @@
     </row>
     <row r="4756" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4756" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4757" spans="2:7" x14ac:dyDescent="0.2">
@@ -47626,7 +47623,7 @@
     </row>
     <row r="4762" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4762" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4763" spans="2:7" x14ac:dyDescent="0.2">
@@ -47687,7 +47684,7 @@
     </row>
     <row r="4771" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4771" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4772" spans="2:7" x14ac:dyDescent="0.2">
@@ -47709,7 +47706,7 @@
     </row>
     <row r="4775" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4775" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4776" spans="2:7" x14ac:dyDescent="0.2">
@@ -47736,7 +47733,7 @@
     </row>
     <row r="4781" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4781" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4782" spans="2:7" x14ac:dyDescent="0.2">
@@ -47860,7 +47857,7 @@
     </row>
     <row r="4791" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4791" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4792" spans="2:7" x14ac:dyDescent="0.2">
@@ -47887,7 +47884,7 @@
     </row>
     <row r="4797" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4797" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4798" spans="2:7" x14ac:dyDescent="0.2">
@@ -47994,7 +47991,7 @@
     </row>
     <row r="4806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4806" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4807" spans="2:7" x14ac:dyDescent="0.2">
@@ -48016,7 +48013,7 @@
     </row>
     <row r="4810" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4810" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4811" spans="2:7" x14ac:dyDescent="0.2">
@@ -48055,7 +48052,7 @@
     </row>
     <row r="4815" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4815" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4816" spans="2:7" x14ac:dyDescent="0.2">
@@ -48077,7 +48074,7 @@
     </row>
     <row r="4819" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4819" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4820" spans="2:7" x14ac:dyDescent="0.2">
@@ -48116,7 +48113,7 @@
     </row>
     <row r="4824" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4824" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4825" spans="2:7" x14ac:dyDescent="0.2">
@@ -48138,7 +48135,7 @@
     </row>
     <row r="4828" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4828" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4829" spans="2:7" x14ac:dyDescent="0.2">
@@ -48226,7 +48223,7 @@
     </row>
     <row r="4843" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4843" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4844" spans="2:7" x14ac:dyDescent="0.2">
@@ -48248,7 +48245,7 @@
     </row>
     <row r="4847" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4847" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4848" spans="2:7" x14ac:dyDescent="0.2">
@@ -48355,7 +48352,7 @@
     </row>
     <row r="4856" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4856" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4857" spans="2:7" x14ac:dyDescent="0.2">
@@ -48394,7 +48391,7 @@
     </row>
     <row r="4861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4861" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4862" spans="2:7" x14ac:dyDescent="0.2">
@@ -48421,7 +48418,7 @@
     </row>
     <row r="4867" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4867" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4868" spans="2:7" x14ac:dyDescent="0.2">
@@ -48528,7 +48525,7 @@
     </row>
     <row r="4876" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4876" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4877" spans="2:7" x14ac:dyDescent="0.2">
@@ -48550,7 +48547,7 @@
     </row>
     <row r="4880" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4880" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4881" spans="2:7" x14ac:dyDescent="0.2">
@@ -48628,7 +48625,7 @@
     </row>
     <row r="4889" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4889" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4890" spans="2:7" x14ac:dyDescent="0.2">
@@ -48723,7 +48720,7 @@
     </row>
     <row r="4899" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4899" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4900" spans="2:7" x14ac:dyDescent="0.2">
@@ -48762,7 +48759,7 @@
     </row>
     <row r="4904" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4904" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4905" spans="2:7" x14ac:dyDescent="0.2">
@@ -48908,7 +48905,7 @@
     </row>
     <row r="4917" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4917" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4918" spans="2:7" x14ac:dyDescent="0.2">
@@ -48964,7 +48961,7 @@
     </row>
     <row r="4923" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4923" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4924" spans="2:7" x14ac:dyDescent="0.2">
@@ -49059,7 +49056,7 @@
     </row>
     <row r="4934" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4934" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4935" spans="2:7" x14ac:dyDescent="0.2">
@@ -49086,7 +49083,7 @@
     </row>
     <row r="4940" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4940" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4941" spans="2:7" x14ac:dyDescent="0.2">
@@ -49125,7 +49122,7 @@
     </row>
     <row r="4945" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4945" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4946" spans="2:7" x14ac:dyDescent="0.2">
@@ -49181,7 +49178,7 @@
     </row>
     <row r="4951" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4951" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4952" spans="2:7" x14ac:dyDescent="0.2">
@@ -49208,7 +49205,7 @@
     </row>
     <row r="4957" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4957" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4958" spans="2:7" x14ac:dyDescent="0.2">
@@ -49252,7 +49249,7 @@
     </row>
     <row r="4965" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4965" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4966" spans="2:7" x14ac:dyDescent="0.2">
@@ -49291,7 +49288,7 @@
     </row>
     <row r="4970" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4970" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4971" spans="2:7" x14ac:dyDescent="0.2">
@@ -49313,7 +49310,7 @@
     </row>
     <row r="4974" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4974" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4975" spans="2:7" x14ac:dyDescent="0.2">
@@ -49386,7 +49383,7 @@
     </row>
     <row r="4981" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4981" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4982" spans="2:7" x14ac:dyDescent="0.2">
@@ -49408,7 +49405,7 @@
     </row>
     <row r="4985" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4985" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4986" spans="2:7" x14ac:dyDescent="0.2">
@@ -49430,7 +49427,7 @@
     </row>
     <row r="4989" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4989" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4990" spans="2:7" x14ac:dyDescent="0.2">
@@ -49457,7 +49454,7 @@
     </row>
     <row r="4995" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4995" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4996" spans="2:7" x14ac:dyDescent="0.2">
@@ -49547,7 +49544,7 @@
     </row>
     <row r="5003" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5003" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5004" spans="2:7" x14ac:dyDescent="0.2">
@@ -49569,7 +49566,7 @@
     </row>
     <row r="5007" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5007" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5008" spans="2:7" x14ac:dyDescent="0.2">
@@ -49596,7 +49593,7 @@
     </row>
     <row r="5013" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5013" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5014" spans="2:7" x14ac:dyDescent="0.2">
@@ -49635,7 +49632,7 @@
     </row>
     <row r="5018" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5018" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5019" spans="2:7" x14ac:dyDescent="0.2">
@@ -49691,7 +49688,7 @@
     </row>
     <row r="5024" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5024" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5025" spans="2:7" x14ac:dyDescent="0.2">
@@ -49747,7 +49744,7 @@
     </row>
     <row r="5030" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5030" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5031" spans="2:7" x14ac:dyDescent="0.2">
@@ -49769,7 +49766,7 @@
     </row>
     <row r="5034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5034" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5035" spans="2:7" x14ac:dyDescent="0.2">
@@ -49796,7 +49793,7 @@
     </row>
     <row r="5040" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5040" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5041" spans="2:7" x14ac:dyDescent="0.2">
@@ -49869,7 +49866,7 @@
     </row>
     <row r="5047" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5047" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5048" spans="2:7" x14ac:dyDescent="0.2">
@@ -49891,7 +49888,7 @@
     </row>
     <row r="5051" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5051" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5052" spans="2:7" x14ac:dyDescent="0.2">
@@ -49930,7 +49927,7 @@
     </row>
     <row r="5056" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5056" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5057" spans="2:7" x14ac:dyDescent="0.2">
@@ -49952,7 +49949,7 @@
     </row>
     <row r="5060" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5060" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5061" spans="2:7" x14ac:dyDescent="0.2">
@@ -49991,7 +49988,7 @@
     </row>
     <row r="5065" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5065" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5066" spans="2:7" x14ac:dyDescent="0.2">
@@ -50018,7 +50015,7 @@
     </row>
     <row r="5071" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5071" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5072" spans="2:7" x14ac:dyDescent="0.2">
@@ -50057,7 +50054,7 @@
     </row>
     <row r="5076" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5076" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5077" spans="2:7" x14ac:dyDescent="0.2">
@@ -50096,7 +50093,7 @@
     </row>
     <row r="5081" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5081" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5082" spans="2:7" x14ac:dyDescent="0.2">
@@ -50118,7 +50115,7 @@
     </row>
     <row r="5085" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5085" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5086" spans="2:7" x14ac:dyDescent="0.2">
@@ -50140,7 +50137,7 @@
     </row>
     <row r="5089" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5089" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5090" spans="2:7" x14ac:dyDescent="0.2">
@@ -50167,7 +50164,7 @@
     </row>
     <row r="5095" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5095" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5096" spans="2:7" x14ac:dyDescent="0.2">
@@ -50279,7 +50276,7 @@
     </row>
     <row r="5106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5106" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5107" spans="2:7" x14ac:dyDescent="0.2">
@@ -50335,7 +50332,7 @@
     </row>
     <row r="5112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5113" spans="2:7" x14ac:dyDescent="0.2">
@@ -50379,7 +50376,7 @@
     </row>
     <row r="5119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5120" spans="2:7" x14ac:dyDescent="0.2">
@@ -50418,7 +50415,7 @@
     </row>
     <row r="5124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5125" spans="2:7" x14ac:dyDescent="0.2">
@@ -50440,7 +50437,7 @@
     </row>
     <row r="5128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5128" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5129" spans="2:7" x14ac:dyDescent="0.2">
@@ -50535,7 +50532,7 @@
     </row>
     <row r="5138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5138" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5139" spans="2:7" x14ac:dyDescent="0.2">
@@ -50557,7 +50554,7 @@
     </row>
     <row r="5142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5143" spans="2:7" x14ac:dyDescent="0.2">
@@ -50613,7 +50610,7 @@
     </row>
     <row r="5148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5148" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5149" spans="2:7" x14ac:dyDescent="0.2">
@@ -50657,7 +50654,7 @@
     </row>
     <row r="5155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5156" spans="2:7" x14ac:dyDescent="0.2">
@@ -50679,7 +50676,7 @@
     </row>
     <row r="5159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5160" spans="2:7" x14ac:dyDescent="0.2">
@@ -50940,7 +50937,7 @@
     </row>
     <row r="5192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5192" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5193" spans="2:7" x14ac:dyDescent="0.2">
@@ -50962,7 +50959,7 @@
     </row>
     <row r="5196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5196" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5197" spans="2:7" x14ac:dyDescent="0.2">
@@ -51006,7 +51003,7 @@
     </row>
     <row r="5203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5203" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5204" spans="2:7" x14ac:dyDescent="0.2">
@@ -51028,7 +51025,7 @@
     </row>
     <row r="5207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5207" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5208" spans="2:7" x14ac:dyDescent="0.2">
@@ -51055,7 +51052,7 @@
     </row>
     <row r="5213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5214" spans="2:7" x14ac:dyDescent="0.2">
@@ -51094,7 +51091,7 @@
     </row>
     <row r="5218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5218" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5219" spans="2:7" x14ac:dyDescent="0.2">
@@ -51133,7 +51130,7 @@
     </row>
     <row r="5223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5223" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5224" spans="2:7" x14ac:dyDescent="0.2">
@@ -51211,7 +51208,7 @@
     </row>
     <row r="5232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5232" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5233" spans="2:7" x14ac:dyDescent="0.2">
@@ -51233,7 +51230,7 @@
     </row>
     <row r="5236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5236" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5237" spans="2:7" x14ac:dyDescent="0.2">
@@ -51255,7 +51252,7 @@
     </row>
     <row r="5240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5240" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5241" spans="2:7" x14ac:dyDescent="0.2">
@@ -51277,7 +51274,7 @@
     </row>
     <row r="5244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5244" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5245" spans="2:7" x14ac:dyDescent="0.2">
@@ -51304,7 +51301,7 @@
     </row>
     <row r="5250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5250" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5251" spans="2:7" x14ac:dyDescent="0.2">
@@ -51331,7 +51328,7 @@
     </row>
     <row r="5256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5256" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5257" spans="2:7" x14ac:dyDescent="0.2">
@@ -51387,7 +51384,7 @@
     </row>
     <row r="5262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5262" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5263" spans="2:7" x14ac:dyDescent="0.2">
@@ -51426,7 +51423,7 @@
     </row>
     <row r="5267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5267" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5268" spans="2:7" x14ac:dyDescent="0.2">
@@ -51465,7 +51462,7 @@
     </row>
     <row r="5272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5272" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5273" spans="2:7" x14ac:dyDescent="0.2">
@@ -51492,7 +51489,7 @@
     </row>
     <row r="5278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5278" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5279" spans="2:7" x14ac:dyDescent="0.2">
@@ -51514,7 +51511,7 @@
     </row>
     <row r="5282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5282" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5283" spans="2:7" x14ac:dyDescent="0.2">
@@ -51570,7 +51567,7 @@
     </row>
     <row r="5288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5288" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5289" spans="2:7" x14ac:dyDescent="0.2">
@@ -51660,7 +51657,7 @@
     </row>
     <row r="5296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5296" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5297" spans="2:7" x14ac:dyDescent="0.2">
@@ -51726,7 +51723,7 @@
     </row>
     <row r="5307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5307" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5308" spans="2:7" x14ac:dyDescent="0.2">
@@ -51765,7 +51762,7 @@
     </row>
     <row r="5312" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5312" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5313" spans="2:7" x14ac:dyDescent="0.2">
@@ -51872,7 +51869,7 @@
     </row>
     <row r="5321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5321" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5322" spans="2:7" x14ac:dyDescent="0.2">
@@ -51899,7 +51896,7 @@
     </row>
     <row r="5327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5327" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5328" spans="2:7" x14ac:dyDescent="0.2">
@@ -51938,7 +51935,7 @@
     </row>
     <row r="5332" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5332" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5333" spans="2:7" x14ac:dyDescent="0.2">
@@ -51994,7 +51991,7 @@
     </row>
     <row r="5338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5338" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5339" spans="2:7" x14ac:dyDescent="0.2">
@@ -52038,7 +52035,7 @@
     </row>
     <row r="5345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5345" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5346" spans="2:7" x14ac:dyDescent="0.2">
@@ -52077,7 +52074,7 @@
     </row>
     <row r="5350" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5350" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5351" spans="2:7" x14ac:dyDescent="0.2">
@@ -52099,7 +52096,7 @@
     </row>
     <row r="5354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5354" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5355" spans="2:7" x14ac:dyDescent="0.2">
@@ -52177,7 +52174,7 @@
     </row>
     <row r="5363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5363" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5364" spans="2:7" x14ac:dyDescent="0.2">
@@ -52250,7 +52247,7 @@
     </row>
     <row r="5370" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5370" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5371" spans="2:7" x14ac:dyDescent="0.2">
@@ -52277,7 +52274,7 @@
     </row>
     <row r="5376" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5376" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5377" spans="2:7" x14ac:dyDescent="0.2">
@@ -52299,7 +52296,7 @@
     </row>
     <row r="5380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5380" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5381" spans="2:7" x14ac:dyDescent="0.2">
@@ -52321,7 +52318,7 @@
     </row>
     <row r="5384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5384" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5385" spans="2:7" x14ac:dyDescent="0.2">
@@ -52394,7 +52391,7 @@
     </row>
     <row r="5391" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5391" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5392" spans="2:7" x14ac:dyDescent="0.2">
@@ -52421,7 +52418,7 @@
     </row>
     <row r="5397" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5397" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5398" spans="2:7" x14ac:dyDescent="0.2">
@@ -52477,7 +52474,7 @@
     </row>
     <row r="5403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5403" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5404" spans="2:7" x14ac:dyDescent="0.2">
@@ -52567,7 +52564,7 @@
     </row>
     <row r="5411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5411" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5412" spans="2:7" x14ac:dyDescent="0.2">
@@ -52594,7 +52591,7 @@
     </row>
     <row r="5417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5417" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5418" spans="2:7" x14ac:dyDescent="0.2">
@@ -52616,7 +52613,7 @@
     </row>
     <row r="5421" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5421" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5422" spans="2:7" x14ac:dyDescent="0.2">
@@ -52638,7 +52635,7 @@
     </row>
     <row r="5425" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5425" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5426" spans="2:7" x14ac:dyDescent="0.2">
@@ -52660,7 +52657,7 @@
     </row>
     <row r="5429" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5429" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5430" spans="2:7" x14ac:dyDescent="0.2">
@@ -52682,7 +52679,7 @@
     </row>
     <row r="5433" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5433" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5434" spans="2:7" x14ac:dyDescent="0.2">
@@ -52772,7 +52769,7 @@
     </row>
     <row r="5441" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5441" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5442" spans="2:7" x14ac:dyDescent="0.2">
@@ -52794,7 +52791,7 @@
     </row>
     <row r="5445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5445" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5446" spans="2:7" x14ac:dyDescent="0.2">
@@ -52821,7 +52818,7 @@
     </row>
     <row r="5451" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5451" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5452" spans="2:7" x14ac:dyDescent="0.2">
@@ -52843,7 +52840,7 @@
     </row>
     <row r="5455" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5455" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5456" spans="2:7" x14ac:dyDescent="0.2">
@@ -52865,7 +52862,7 @@
     </row>
     <row r="5459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5459" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5460" spans="2:7" x14ac:dyDescent="0.2">
@@ -52887,7 +52884,7 @@
     </row>
     <row r="5463" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5463" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5464" spans="2:7" x14ac:dyDescent="0.2">
@@ -52909,7 +52906,7 @@
     </row>
     <row r="5467" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5467" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5468" spans="2:7" x14ac:dyDescent="0.2">
@@ -52931,7 +52928,7 @@
     </row>
     <row r="5471" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5471" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5472" spans="2:7" x14ac:dyDescent="0.2">
@@ -52970,7 +52967,7 @@
     </row>
     <row r="5476" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5476" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5477" spans="2:7" x14ac:dyDescent="0.2">
@@ -53077,7 +53074,7 @@
     </row>
     <row r="5485" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5485" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5486" spans="2:7" x14ac:dyDescent="0.2">
@@ -53104,7 +53101,7 @@
     </row>
     <row r="5491" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5491" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5492" spans="2:7" x14ac:dyDescent="0.2">
@@ -53131,7 +53128,7 @@
     </row>
     <row r="5497" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5497" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5498" spans="2:7" x14ac:dyDescent="0.2">
@@ -53226,7 +53223,7 @@
     </row>
     <row r="5507" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5507" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5508" spans="2:7" x14ac:dyDescent="0.2">
@@ -53321,7 +53318,7 @@
     </row>
     <row r="5517" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5517" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5518" spans="2:7" x14ac:dyDescent="0.2">
@@ -53360,7 +53357,7 @@
     </row>
     <row r="5522" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5522" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5523" spans="2:7" x14ac:dyDescent="0.2">
@@ -53399,7 +53396,7 @@
     </row>
     <row r="5527" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5527" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5528" spans="2:7" x14ac:dyDescent="0.2">
@@ -53426,7 +53423,7 @@
     </row>
     <row r="5533" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5533" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5534" spans="2:7" x14ac:dyDescent="0.2">
@@ -53482,7 +53479,7 @@
     </row>
     <row r="5539" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5539" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5540" spans="2:7" x14ac:dyDescent="0.2">
@@ -53504,7 +53501,7 @@
     </row>
     <row r="5543" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5543" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5544" spans="2:7" x14ac:dyDescent="0.2">
@@ -53560,7 +53557,7 @@
     </row>
     <row r="5549" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5549" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5550" spans="2:7" x14ac:dyDescent="0.2">
@@ -53587,7 +53584,7 @@
     </row>
     <row r="5555" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5555" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5556" spans="2:7" x14ac:dyDescent="0.2">
@@ -53711,7 +53708,7 @@
     </row>
     <row r="5565" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5565" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5566" spans="2:7" x14ac:dyDescent="0.2">
@@ -53750,7 +53747,7 @@
     </row>
     <row r="5570" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5570" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5571" spans="2:7" x14ac:dyDescent="0.2">
@@ -53823,7 +53820,7 @@
     </row>
     <row r="5577" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5577" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5578" spans="2:7" x14ac:dyDescent="0.2">
@@ -53845,7 +53842,7 @@
     </row>
     <row r="5581" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5581" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5582" spans="2:7" x14ac:dyDescent="0.2">
@@ -53884,7 +53881,7 @@
     </row>
     <row r="5586" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5586" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5587" spans="2:7" x14ac:dyDescent="0.2">
@@ -53906,7 +53903,7 @@
     </row>
     <row r="5590" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5590" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5591" spans="2:7" x14ac:dyDescent="0.2">
@@ -53928,7 +53925,7 @@
     </row>
     <row r="5594" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5594" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5595" spans="2:7" x14ac:dyDescent="0.2">
@@ -53955,7 +53952,7 @@
     </row>
     <row r="5600" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5600" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5601" spans="2:7" x14ac:dyDescent="0.2">
@@ -54079,7 +54076,7 @@
     </row>
     <row r="5610" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5610" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5611" spans="2:7" x14ac:dyDescent="0.2">
@@ -54101,7 +54098,7 @@
     </row>
     <row r="5614" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5614" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5615" spans="2:7" x14ac:dyDescent="0.2">
@@ -54140,7 +54137,7 @@
     </row>
     <row r="5619" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5619" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5620" spans="2:7" x14ac:dyDescent="0.2">
@@ -54162,7 +54159,7 @@
     </row>
     <row r="5623" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5623" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5624" spans="2:7" x14ac:dyDescent="0.2">
@@ -54235,7 +54232,7 @@
     </row>
     <row r="5630" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5630" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5631" spans="2:7" x14ac:dyDescent="0.2">
@@ -54262,7 +54259,7 @@
     </row>
     <row r="5636" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5636" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5637" spans="2:7" x14ac:dyDescent="0.2">
@@ -54289,7 +54286,7 @@
     </row>
     <row r="5642" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5642" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5643" spans="2:7" x14ac:dyDescent="0.2">
@@ -54345,7 +54342,7 @@
     </row>
     <row r="5648" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5648" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5649" spans="2:7" x14ac:dyDescent="0.2">
@@ -54367,7 +54364,7 @@
     </row>
     <row r="5652" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5652" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5653" spans="2:7" x14ac:dyDescent="0.2">
@@ -54474,7 +54471,7 @@
     </row>
     <row r="5661" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5661" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5662" spans="2:7" x14ac:dyDescent="0.2">
@@ -54564,7 +54561,7 @@
     </row>
     <row r="5669" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5669" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5670" spans="2:7" x14ac:dyDescent="0.2">
@@ -54586,7 +54583,7 @@
     </row>
     <row r="5673" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5673" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5674" spans="2:7" x14ac:dyDescent="0.2">
@@ -54613,7 +54610,7 @@
     </row>
     <row r="5679" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5679" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5680" spans="2:7" x14ac:dyDescent="0.2">
@@ -54635,7 +54632,7 @@
     </row>
     <row r="5683" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5683" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5684" spans="2:7" x14ac:dyDescent="0.2">
@@ -54691,7 +54688,7 @@
     </row>
     <row r="5689" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5689" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5690" spans="2:7" x14ac:dyDescent="0.2">
@@ -54713,7 +54710,7 @@
     </row>
     <row r="5693" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5693" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5694" spans="2:7" x14ac:dyDescent="0.2">
@@ -54740,7 +54737,7 @@
     </row>
     <row r="5699" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5699" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5700" spans="2:7" x14ac:dyDescent="0.2">
@@ -54762,7 +54759,7 @@
     </row>
     <row r="5703" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5703" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5704" spans="2:7" x14ac:dyDescent="0.2">
@@ -54818,7 +54815,7 @@
     </row>
     <row r="5709" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5709" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5710" spans="2:7" x14ac:dyDescent="0.2">
@@ -54857,7 +54854,7 @@
     </row>
     <row r="5714" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5714" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5715" spans="2:7" x14ac:dyDescent="0.2">
@@ -54930,7 +54927,7 @@
     </row>
     <row r="5721" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5721" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5722" spans="2:7" x14ac:dyDescent="0.2">
@@ -54952,7 +54949,7 @@
     </row>
     <row r="5725" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5725" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5726" spans="2:7" x14ac:dyDescent="0.2">
@@ -54979,7 +54976,7 @@
     </row>
     <row r="5731" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5731" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5732" spans="2:7" x14ac:dyDescent="0.2">
@@ -55001,7 +54998,7 @@
     </row>
     <row r="5735" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5735" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5736" spans="2:7" x14ac:dyDescent="0.2">
@@ -55023,7 +55020,7 @@
     </row>
     <row r="5739" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5739" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5740" spans="2:7" x14ac:dyDescent="0.2">
@@ -55062,7 +55059,7 @@
     </row>
     <row r="5744" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5744" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5745" spans="2:7" x14ac:dyDescent="0.2">
@@ -55135,7 +55132,7 @@
     </row>
     <row r="5751" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5751" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5752" spans="2:7" x14ac:dyDescent="0.2">
@@ -55157,7 +55154,7 @@
     </row>
     <row r="5755" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5755" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5756" spans="2:7" x14ac:dyDescent="0.2">
@@ -55179,7 +55176,7 @@
     </row>
     <row r="5759" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5759" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5760" spans="2:7" x14ac:dyDescent="0.2">
@@ -55235,7 +55232,7 @@
     </row>
     <row r="5765" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5765" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5766" spans="2:7" x14ac:dyDescent="0.2">
@@ -55313,7 +55310,7 @@
     </row>
     <row r="5774" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5774" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5775" spans="2:7" x14ac:dyDescent="0.2">
@@ -55374,7 +55371,7 @@
     </row>
     <row r="5782" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5782" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5783" spans="2:7" x14ac:dyDescent="0.2">
@@ -55396,7 +55393,7 @@
     </row>
     <row r="5786" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5786" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5787" spans="2:7" x14ac:dyDescent="0.2">
@@ -55418,7 +55415,7 @@
     </row>
     <row r="5790" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5790" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5791" spans="2:7" x14ac:dyDescent="0.2">
@@ -55440,7 +55437,7 @@
     </row>
     <row r="5794" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5794" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5795" spans="2:7" x14ac:dyDescent="0.2">
@@ -55496,7 +55493,7 @@
     </row>
     <row r="5800" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5800" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5801" spans="2:7" x14ac:dyDescent="0.2">
@@ -55552,7 +55549,7 @@
     </row>
     <row r="5806" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5806" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5807" spans="2:7" x14ac:dyDescent="0.2">
@@ -55608,7 +55605,7 @@
     </row>
     <row r="5812" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5812" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5813" spans="2:7" x14ac:dyDescent="0.2">
@@ -55686,7 +55683,7 @@
     </row>
     <row r="5821" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5821" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5822" spans="2:7" x14ac:dyDescent="0.2">
@@ -55708,7 +55705,7 @@
     </row>
     <row r="5825" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5825" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5826" spans="2:7" x14ac:dyDescent="0.2">
@@ -55883,7 +55880,7 @@
     </row>
     <row r="5838" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5838" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5839" spans="2:7" x14ac:dyDescent="0.2">
@@ -56046,7 +56043,7 @@
     </row>
     <row r="5852" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5852" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5853" spans="2:7" x14ac:dyDescent="0.2">
@@ -56064,7 +56061,7 @@
     </row>
     <row r="5857" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5857" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5858" spans="2:7" x14ac:dyDescent="0.2">
@@ -56086,7 +56083,7 @@
     </row>
     <row r="5861" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5861" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5862" spans="2:7" x14ac:dyDescent="0.2">
@@ -56130,7 +56127,7 @@
     </row>
     <row r="5868" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5868" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5869" spans="2:7" x14ac:dyDescent="0.2">
@@ -56203,7 +56200,7 @@
     </row>
     <row r="5875" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5875" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5876" spans="2:7" x14ac:dyDescent="0.2">
@@ -56225,7 +56222,7 @@
     </row>
     <row r="5879" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5879" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5880" spans="2:7" x14ac:dyDescent="0.2">
@@ -56303,7 +56300,7 @@
     </row>
     <row r="5888" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5888" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5889" spans="2:7" x14ac:dyDescent="0.2">
@@ -56381,7 +56378,7 @@
     </row>
     <row r="5897" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5897" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5898" spans="2:7" x14ac:dyDescent="0.2">
@@ -56471,7 +56468,7 @@
     </row>
     <row r="5905" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5905" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5906" spans="2:7" x14ac:dyDescent="0.2">
@@ -56515,7 +56512,7 @@
     </row>
     <row r="5913" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5913" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5914" spans="2:7" x14ac:dyDescent="0.2">
@@ -56571,7 +56568,7 @@
     </row>
     <row r="5919" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5919" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5920" spans="2:7" x14ac:dyDescent="0.2">
@@ -56610,7 +56607,7 @@
     </row>
     <row r="5924" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5924" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5925" spans="2:7" x14ac:dyDescent="0.2">
@@ -56649,7 +56646,7 @@
     </row>
     <row r="5929" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5929" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5930" spans="2:7" x14ac:dyDescent="0.2">
@@ -56676,7 +56673,7 @@
     </row>
     <row r="5935" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5935" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5936" spans="2:7" x14ac:dyDescent="0.2">
@@ -56732,7 +56729,7 @@
     </row>
     <row r="5941" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5941" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5942" spans="2:7" x14ac:dyDescent="0.2">
@@ -56754,7 +56751,7 @@
     </row>
     <row r="5945" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5945" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5946" spans="2:7" x14ac:dyDescent="0.2">
@@ -56776,7 +56773,7 @@
     </row>
     <row r="5949" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5949" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5950" spans="2:7" x14ac:dyDescent="0.2">
@@ -56832,7 +56829,7 @@
     </row>
     <row r="5955" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5955" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5956" spans="2:7" x14ac:dyDescent="0.2">
@@ -56859,7 +56856,7 @@
     </row>
     <row r="5961" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5961" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5962" spans="2:7" x14ac:dyDescent="0.2">
@@ -56898,7 +56895,7 @@
     </row>
     <row r="5966" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5966" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5967" spans="2:7" x14ac:dyDescent="0.2">
@@ -56937,7 +56934,7 @@
     </row>
     <row r="5971" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5971" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5972" spans="2:7" x14ac:dyDescent="0.2">
@@ -56959,7 +56956,7 @@
     </row>
     <row r="5975" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5975" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5976" spans="2:7" x14ac:dyDescent="0.2">
@@ -56981,7 +56978,7 @@
     </row>
     <row r="5979" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5979" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5980" spans="2:7" x14ac:dyDescent="0.2">
@@ -57003,7 +57000,7 @@
     </row>
     <row r="5983" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5983" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5984" spans="2:7" x14ac:dyDescent="0.2">
@@ -57025,7 +57022,7 @@
     </row>
     <row r="5987" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5987" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5988" spans="2:7" x14ac:dyDescent="0.2">
@@ -57047,7 +57044,7 @@
     </row>
     <row r="5991" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5991" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5992" spans="2:7" x14ac:dyDescent="0.2">
@@ -57074,7 +57071,7 @@
     </row>
     <row r="5997" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5997" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5998" spans="2:7" x14ac:dyDescent="0.2">
@@ -57113,7 +57110,7 @@
     </row>
     <row r="6002" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6002" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6003" spans="2:7" x14ac:dyDescent="0.2">
@@ -57191,7 +57188,7 @@
     </row>
     <row r="6012" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6012" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6013" spans="2:7" x14ac:dyDescent="0.2">
@@ -57230,7 +57227,7 @@
     </row>
     <row r="6017" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6017" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6018" spans="2:7" x14ac:dyDescent="0.2">
@@ -57269,7 +57266,7 @@
     </row>
     <row r="6022" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6022" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6023" spans="2:7" x14ac:dyDescent="0.2">
@@ -57296,7 +57293,7 @@
     </row>
     <row r="6028" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6028" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6029" spans="2:7" x14ac:dyDescent="0.2">
@@ -57352,7 +57349,7 @@
     </row>
     <row r="6034" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6034" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6035" spans="2:7" x14ac:dyDescent="0.2">
@@ -57442,7 +57439,7 @@
     </row>
     <row r="6042" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6042" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6043" spans="2:7" x14ac:dyDescent="0.2">
@@ -57464,7 +57461,7 @@
     </row>
     <row r="6046" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6046" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6047" spans="2:7" x14ac:dyDescent="0.2">
@@ -57537,7 +57534,7 @@
     </row>
     <row r="6053" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6053" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6054" spans="2:7" x14ac:dyDescent="0.2">
@@ -57615,7 +57612,7 @@
     </row>
     <row r="6062" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6062" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6063" spans="2:7" x14ac:dyDescent="0.2">
@@ -57637,7 +57634,7 @@
     </row>
     <row r="6066" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6066" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6067" spans="2:7" x14ac:dyDescent="0.2">
@@ -57659,7 +57656,7 @@
     </row>
     <row r="6070" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6070" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6071" spans="2:7" x14ac:dyDescent="0.2">
@@ -57698,7 +57695,7 @@
     </row>
     <row r="6075" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6075" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6076" spans="2:7" x14ac:dyDescent="0.2">
@@ -57759,7 +57756,7 @@
     </row>
     <row r="6084" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6084" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6085" spans="2:7" x14ac:dyDescent="0.2">
@@ -57832,7 +57829,7 @@
     </row>
     <row r="6091" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6091" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6092" spans="2:7" x14ac:dyDescent="0.2">
@@ -57876,7 +57873,7 @@
     </row>
     <row r="6098" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6098" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6099" spans="2:7" x14ac:dyDescent="0.2">
@@ -57898,7 +57895,7 @@
     </row>
     <row r="6102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6102" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6103" spans="2:7" x14ac:dyDescent="0.2">
@@ -57920,7 +57917,7 @@
     </row>
     <row r="6106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6106" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6107" spans="2:7" x14ac:dyDescent="0.2">
@@ -58044,7 +58041,7 @@
     </row>
     <row r="6116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6117" spans="2:7" x14ac:dyDescent="0.2">
@@ -58066,7 +58063,7 @@
     </row>
     <row r="6120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6120" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6121" spans="2:7" x14ac:dyDescent="0.2">
@@ -58144,7 +58141,7 @@
     </row>
     <row r="6129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6129" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6130" spans="2:7" x14ac:dyDescent="0.2">
@@ -58166,7 +58163,7 @@
     </row>
     <row r="6133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6133" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6134" spans="2:7" x14ac:dyDescent="0.2">
@@ -58205,7 +58202,7 @@
     </row>
     <row r="6138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6138" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6139" spans="2:7" x14ac:dyDescent="0.2">
@@ -58244,7 +58241,7 @@
     </row>
     <row r="6143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6143" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6144" spans="2:7" x14ac:dyDescent="0.2">
@@ -58283,7 +58280,7 @@
     </row>
     <row r="6148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6148" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6149" spans="2:7" x14ac:dyDescent="0.2">
@@ -58349,7 +58346,7 @@
     </row>
     <row r="6159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6159" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6160" spans="2:7" x14ac:dyDescent="0.2">
@@ -58371,7 +58368,7 @@
     </row>
     <row r="6163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6163" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6164" spans="2:7" x14ac:dyDescent="0.2">
@@ -58410,7 +58407,7 @@
     </row>
     <row r="6168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6168" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6169" spans="2:7" x14ac:dyDescent="0.2">
@@ -58432,7 +58429,7 @@
     </row>
     <row r="6172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6172" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6173" spans="2:7" x14ac:dyDescent="0.2">
@@ -58527,7 +58524,7 @@
     </row>
     <row r="6182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6182" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6183" spans="2:7" x14ac:dyDescent="0.2">
@@ -58600,7 +58597,7 @@
     </row>
     <row r="6189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6189" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6190" spans="2:7" x14ac:dyDescent="0.2">
@@ -58622,7 +58619,7 @@
     </row>
     <row r="6193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6193" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6194" spans="2:7" x14ac:dyDescent="0.2">
@@ -58644,7 +58641,7 @@
     </row>
     <row r="6197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6198" spans="2:7" x14ac:dyDescent="0.2">
@@ -58666,7 +58663,7 @@
     </row>
     <row r="6201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6202" spans="2:7" x14ac:dyDescent="0.2">
@@ -58693,7 +58690,7 @@
     </row>
     <row r="6207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6208" spans="2:7" x14ac:dyDescent="0.2">
@@ -58732,7 +58729,7 @@
     </row>
     <row r="6212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6213" spans="2:7" x14ac:dyDescent="0.2">
@@ -58771,7 +58768,7 @@
     </row>
     <row r="6217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6217" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6218" spans="2:7" x14ac:dyDescent="0.2">
@@ -58793,7 +58790,7 @@
     </row>
     <row r="6221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6221" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6222" spans="2:7" x14ac:dyDescent="0.2">
@@ -58871,7 +58868,7 @@
     </row>
     <row r="6230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6230" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6231" spans="2:7" x14ac:dyDescent="0.2">
@@ -58927,7 +58924,7 @@
     </row>
     <row r="6236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6236" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6237" spans="2:7" x14ac:dyDescent="0.2">
@@ -58971,7 +58968,7 @@
     </row>
     <row r="6243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6243" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6244" spans="2:7" x14ac:dyDescent="0.2">
@@ -58993,7 +58990,7 @@
     </row>
     <row r="6247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6247" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6248" spans="2:7" x14ac:dyDescent="0.2">
@@ -59032,7 +59029,7 @@
     </row>
     <row r="6252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6252" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6253" spans="2:7" x14ac:dyDescent="0.2">
@@ -59054,7 +59051,7 @@
     </row>
     <row r="6256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6256" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6257" spans="2:7" x14ac:dyDescent="0.2">
@@ -59076,7 +59073,7 @@
     </row>
     <row r="6260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6260" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6261" spans="2:7" x14ac:dyDescent="0.2">
@@ -59115,7 +59112,7 @@
     </row>
     <row r="6265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6265" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6266" spans="2:7" x14ac:dyDescent="0.2">
@@ -59137,7 +59134,7 @@
     </row>
     <row r="6269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6269" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6270" spans="2:7" x14ac:dyDescent="0.2">
@@ -59193,7 +59190,7 @@
     </row>
     <row r="6275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6275" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6276" spans="2:7" x14ac:dyDescent="0.2">
@@ -59220,7 +59217,7 @@
     </row>
     <row r="6281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6281" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6282" spans="2:7" x14ac:dyDescent="0.2">
@@ -59276,7 +59273,7 @@
     </row>
     <row r="6287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6287" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6288" spans="2:7" x14ac:dyDescent="0.2">
@@ -59332,7 +59329,7 @@
     </row>
     <row r="6293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6293" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6294" spans="2:7" x14ac:dyDescent="0.2">
@@ -59354,7 +59351,7 @@
     </row>
     <row r="6297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6297" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6298" spans="2:7" x14ac:dyDescent="0.2">
@@ -59376,7 +59373,7 @@
     </row>
     <row r="6301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6301" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6302" spans="2:7" x14ac:dyDescent="0.2">
@@ -59403,7 +59400,7 @@
     </row>
     <row r="6307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6307" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6308" spans="2:7" x14ac:dyDescent="0.2">
@@ -59425,7 +59422,7 @@
     </row>
     <row r="6311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6311" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6312" spans="2:7" x14ac:dyDescent="0.2">
@@ -59486,7 +59483,7 @@
     </row>
     <row r="6320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6320" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6321" spans="2:7" x14ac:dyDescent="0.2">
@@ -59508,7 +59505,7 @@
     </row>
     <row r="6324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6324" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6325" spans="2:7" x14ac:dyDescent="0.2">
@@ -59547,7 +59544,7 @@
     </row>
     <row r="6329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6329" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6330" spans="2:7" x14ac:dyDescent="0.2">
@@ -59569,7 +59566,7 @@
     </row>
     <row r="6333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6333" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6334" spans="2:7" x14ac:dyDescent="0.2">
@@ -59676,7 +59673,7 @@
     </row>
     <row r="6342" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6342" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6343" spans="2:7" x14ac:dyDescent="0.2">
@@ -59698,7 +59695,7 @@
     </row>
     <row r="6346" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6346" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6347" spans="2:7" x14ac:dyDescent="0.2">
@@ -59759,7 +59756,7 @@
     </row>
     <row r="6354" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6354" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6355" spans="2:7" x14ac:dyDescent="0.2">
@@ -59815,7 +59812,7 @@
     </row>
     <row r="6360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6360" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6361" spans="2:7" x14ac:dyDescent="0.2">
@@ -59837,7 +59834,7 @@
     </row>
     <row r="6364" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6364" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6365" spans="2:7" x14ac:dyDescent="0.2">
@@ -59859,7 +59856,7 @@
     </row>
     <row r="6368" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6368" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6369" spans="2:7" x14ac:dyDescent="0.2">
@@ -59942,7 +59939,7 @@
     </row>
     <row r="6380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6380" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6381" spans="2:7" x14ac:dyDescent="0.2">
@@ -59964,7 +59961,7 @@
     </row>
     <row r="6384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6384" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6385" spans="2:7" x14ac:dyDescent="0.2">
@@ -59986,7 +59983,7 @@
     </row>
     <row r="6388" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6388" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6389" spans="2:7" x14ac:dyDescent="0.2">
@@ -60008,7 +60005,7 @@
     </row>
     <row r="6392" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6392" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6393" spans="2:7" x14ac:dyDescent="0.2">
@@ -60030,7 +60027,7 @@
     </row>
     <row r="6396" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6396" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6397" spans="2:7" x14ac:dyDescent="0.2">
@@ -60052,7 +60049,7 @@
     </row>
     <row r="6400" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6400" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6401" spans="2:7" x14ac:dyDescent="0.2">
@@ -60074,7 +60071,7 @@
     </row>
     <row r="6404" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6404" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6405" spans="2:7" x14ac:dyDescent="0.2">
@@ -60113,7 +60110,7 @@
     </row>
     <row r="6409" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6409" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6410" spans="2:7" x14ac:dyDescent="0.2">
@@ -60135,7 +60132,7 @@
     </row>
     <row r="6413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6413" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6414" spans="2:7" x14ac:dyDescent="0.2">
@@ -60157,7 +60154,7 @@
     </row>
     <row r="6417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6417" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6418" spans="2:7" x14ac:dyDescent="0.2">
